--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="132">
   <si>
     <t>Doi</t>
   </si>
@@ -523,6 +523,106 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,   Blair%Merrick%NULL%2,   Blair%Merrick%NULL%0,   Genex L.%Correa%NULL%1,   Luigi%Camporota%NULL%1,   Andrew%Retter%NULL%1,   Andrew%Doyle%NULL%1,   Guy W.%Glover%NULL%2,   Guy W.%Glover%NULL%0,   Peter B.%Sherren%NULL%1,   Stephen J.%Tricklebank%NULL%1,   Sangita%Agarwal%NULL%1,   Boris E.%Lams%NULL%1,   Nicholas A.%Barrett%NULL%1,   Nicholas%Ioannou%NULL%1,   Jonathan%Edgeworth%NULL%1,   Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
+ We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
+Methods
+id="Par2"&gt;A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
+Results
+id="Par3"&gt;In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
+ The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
+ Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
+ Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
+ Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
+ On VV extracorporeal support, 2 (11%) required additional VVA.
+ Renal replacement therapy was required in 10 (56%) of the patients.
+ Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
+ Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
+Conclusion
+id="Par4"&gt;In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
+ There was a significant burden of thromboembolic disease and renal injury.
+ A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
+</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,    Olusegun%Olusanya%NULL%2,    Olusegun%Olusanya%NULL%0,    Marta Montero%Baladia%NULL%1,    Harriet%Young%NULL%1,    Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
+ We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
+Methods
+A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
+Results
+id="Par3"&gt;In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
+ The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
+ Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
+ Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
+ Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
+ On VV extracorporeal support, 2 (11%) required additional VVA.
+ Renal replacement therapy was required in 10 (56%) of the patients.
+ Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
+ Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
+Conclusion
+id="Par4"&gt;In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
+ There was a significant burden of thromboembolic disease and renal injury.
+ A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
+</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,     Olusegun%Olusanya%NULL%2,     Olusegun%Olusanya%NULL%0,     Marta Montero%Baladia%NULL%1,     Harriet%Young%NULL%1,     Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
+ We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
+Methods
+A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
+Results
+In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
+ The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
+ Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
+ Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
+ Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
+ On VV extracorporeal support, 2 (11%) required additional VVA.
+ Renal replacement therapy was required in 10 (56%) of the patients.
+ Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
+ Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
+Conclusion
+id="Par4"&gt;In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
+ There was a significant burden of thromboembolic disease and renal injury.
+ A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
+</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,      Olusegun%Olusanya%NULL%2,      Olusegun%Olusanya%NULL%0,      Marta Montero%Baladia%NULL%1,      Harriet%Young%NULL%1,      Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
+ We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
+Methods
+A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
+Results
+In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
+ The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
+ Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
+ Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
+ Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
+ On VV extracorporeal support, 2 (11%) required additional VVA.
+ Renal replacement therapy was required in 10 (56%) of the patients.
+ Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
+ Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
+Conclusion
+In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
+ There was a significant burden of thromboembolic disease and renal injury.
+ A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
+</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,       Olusegun%Olusanya%NULL%2,       Olusegun%Olusanya%NULL%0,       Marta Montero%Baladia%NULL%1,       Harriet%Young%NULL%1,       Sachin%Shah%s.shah4@nhs.net%1]</t>
   </si>
 </sst>
 </file>
@@ -882,10 +982,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="124">
   <si>
     <t>Doi</t>
   </si>
@@ -523,106 +523,6 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,   Blair%Merrick%NULL%2,   Blair%Merrick%NULL%0,   Genex L.%Correa%NULL%1,   Luigi%Camporota%NULL%1,   Andrew%Retter%NULL%1,   Andrew%Doyle%NULL%1,   Guy W.%Glover%NULL%2,   Guy W.%Glover%NULL%0,   Peter B.%Sherren%NULL%1,   Stephen J.%Tricklebank%NULL%1,   Sangita%Agarwal%NULL%1,   Boris E.%Lams%NULL%1,   Nicholas A.%Barrett%NULL%1,   Nicholas%Ioannou%NULL%1,   Jonathan%Edgeworth%NULL%1,   Christopher I.S.%Meadows%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
- We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
-Methods
-id="Par2"&gt;A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
-Results
-id="Par3"&gt;In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
- The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
- Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
- Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
- Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
- On VV extracorporeal support, 2 (11%) required additional VVA.
- Renal replacement therapy was required in 10 (56%) of the patients.
- Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
- Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
-Conclusion
-id="Par4"&gt;In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
- There was a significant burden of thromboembolic disease and renal injury.
- A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
-</t>
-  </si>
-  <si>
-    <t>[Waqas%Akhtar%NULL%1,    Olusegun%Olusanya%NULL%2,    Olusegun%Olusanya%NULL%0,    Marta Montero%Baladia%NULL%1,    Harriet%Young%NULL%1,    Sachin%Shah%s.shah4@nhs.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
- We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
-Methods
-A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
-Results
-id="Par3"&gt;In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
- The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
- Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
- Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
- Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
- On VV extracorporeal support, 2 (11%) required additional VVA.
- Renal replacement therapy was required in 10 (56%) of the patients.
- Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
- Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
-Conclusion
-id="Par4"&gt;In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
- There was a significant burden of thromboembolic disease and renal injury.
- A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
-</t>
-  </si>
-  <si>
-    <t>[Waqas%Akhtar%NULL%1,     Olusegun%Olusanya%NULL%2,     Olusegun%Olusanya%NULL%0,     Marta Montero%Baladia%NULL%1,     Harriet%Young%NULL%1,     Sachin%Shah%s.shah4@nhs.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
- We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
-Methods
-A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
-Results
-In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
- The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
- Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
- Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
- Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
- On VV extracorporeal support, 2 (11%) required additional VVA.
- Renal replacement therapy was required in 10 (56%) of the patients.
- Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
- Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
-Conclusion
-id="Par4"&gt;In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
- There was a significant burden of thromboembolic disease and renal injury.
- A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
-</t>
-  </si>
-  <si>
-    <t>[Waqas%Akhtar%NULL%1,      Olusegun%Olusanya%NULL%2,      Olusegun%Olusanya%NULL%0,      Marta Montero%Baladia%NULL%1,      Harriet%Young%NULL%1,      Sachin%Shah%s.shah4@nhs.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
- We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
-Methods
-A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
-Results
-In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
- The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
- Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
- Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
- Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
- On VV extracorporeal support, 2 (11%) required additional VVA.
- Renal replacement therapy was required in 10 (56%) of the patients.
- Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
- Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
-Conclusion
-In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
- There was a significant burden of thromboembolic disease and renal injury.
- A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
-</t>
-  </si>
-  <si>
-    <t>[Waqas%Akhtar%NULL%1,       Olusegun%Olusanya%NULL%2,       Olusegun%Olusanya%NULL%0,       Marta Montero%Baladia%NULL%1,       Harriet%Young%NULL%1,       Sachin%Shah%s.shah4@nhs.net%1]</t>
   </si>
 </sst>
 </file>
@@ -982,10 +882,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="142">
   <si>
     <t>Doi</t>
   </si>
@@ -523,6 +523,60 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,   Blair%Merrick%NULL%2,   Blair%Merrick%NULL%0,   Genex L.%Correa%NULL%1,   Luigi%Camporota%NULL%1,   Andrew%Retter%NULL%1,   Andrew%Doyle%NULL%1,   Guy W.%Glover%NULL%2,   Guy W.%Glover%NULL%0,   Peter B.%Sherren%NULL%1,   Stephen J.%Tricklebank%NULL%1,   Sangita%Agarwal%NULL%1,   Boris E.%Lams%NULL%1,   Nicholas A.%Barrett%NULL%1,   Nicholas%Ioannou%NULL%1,   Jonathan%Edgeworth%NULL%1,   Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,   Akshay%Kohli%coreGivesNoEmail%1,   Alexandra%Pratt%coreGivesNoEmail%1,   Emil%Oweis%coreGivesNoEmail%1,   Eric%Kriner%coreGivesNoEmail%1,   Ezequiel%Molina%coreGivesNoEmail%1,   Fatima%Hayat%coreGivesNoEmail%1,   Karthik%Vedantam%coreGivesNoEmail%1,   Makdisi%G%coreGivesNoEmail%1,   Muhammad%D Hashmi%coreGivesNoEmail%1,   Muhtadi%Alnababteh%coreGivesNoEmail%1,   Rajus%Chopra%coreGivesNoEmail%1,   World%Health Organization%coreGivesNoEmail%1,   Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,    Olusegun%Olusanya%NULL%2,    Olusegun%Olusanya%NULL%0,    Marta Montero%Baladia%NULL%1,    Harriet%Young%NULL%1,    Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,    Graeme%MacLaren%NULL%0,    Philip S%Boonstra%NULL%0,    Theodore J%Iwashyna%NULL%0,    Arthur S%Slutsky%NULL%0,    Eddy%Fan%NULL%0,    Robert H%Bartlett%NULL%0,    Joseph E%Tonna%NULL%0,    Robert%Hyslop%NULL%0,    Jeffrey J%Fanning%NULL%0,    Peter T%Rycus%NULL%0,    Steve J%Hyer%NULL%0,    Marc M%Anders%NULL%0,    Cara L%Agerstrand%NULL%0,    Katarzyna%Hryniewicz%NULL%0,    Rodrigo%Diaz%NULL%0,    Roberto%Lorusso%NULL%0,    Alain%Combes%NULL%0,    Daniel%Brodie%NULL%0,    Peta%Alexander%NULL%0,    Nicholas%Barrett%NULL%0,    Jan%Bělohlávek%NULL%0,    Dale%Fisher%NULL%0,    John%Fraser%NULL%0,    Ali Ait%Hssain%NULL%0,    Jae Sung%Jung%NULL%0,    Michael%McMullan%NULL%0,    Yatin%Mehta%NULL%0,    Mark T.%Ogino%NULL%0,    Matthew L.%Paden%NULL%0,    Kiran%Shekar%NULL%0,    Christine%Stead%NULL%0,    Yasir%Abu-Omar%NULL%0,    Vanni%Agnoletti%NULL%0,    Anzila%Akbar%NULL%0,    Huda%Alfoudri%NULL%0,    Carlos%Alviar%NULL%0,    Vladimir%Aronsky%NULL%0,    Erin%August%NULL%0,    Georg%Auzinger%NULL%0,    Hilda%Aveja%NULL%0,    Rhonda%Bakken%NULL%0,    Joan%Balcells%NULL%0,    Sripal%Bangalore%NULL%0,    Bernard W.%Barnes%NULL%0,    Alaiza%Bautista%NULL%0,    Lorraine L.%Bellows%NULL%0,    Felipe%Beltran%NULL%0,    Peyman%Benharash%NULL%0,    Marco%Benni%NULL%0,    Jennifer%Berg%NULL%0,    Pietro%Bertini%NULL%0,    Pablo%Blanco-Schweizer%NULL%0,    Melissa%Brunsvold%NULL%0,    Jenny%Budd%NULL%0,    Debra%Camp%NULL%0,    Mark%Caridi-Scheible%NULL%0,    Edmund%Carton%NULL%0,    Elena%Casanova-Ghosh%NULL%0,    Anthony%Castleberry%NULL%0,    Christopher T.%Chipongian%NULL%0,    Chang Woo%Choi%NULL%0,    Alessandro%Circelli%NULL%0,    Elliott%Cohen%NULL%0,    Michael%Collins%NULL%0,    Scott%Copus%NULL%0,    Jill%Coy%NULL%0,    Brandon%Crist%NULL%0,    Leonora%Cruz%NULL%0,    Mirosław%Czuczwar%NULL%0,    Mani%Daneshmand%NULL%0,    Daniel%Davis II%NULL%0,    Kim%De la Cruz%NULL%0,    Cyndie%Devers%NULL%0,    Toni%Duculan%NULL%0,    Lucian%Durham%NULL%0,    Subbarao%Elapavaluru%NULL%0,    Carlos V.%Elzo Kraemer%NULL%0,    EDMÍLSON CARDOSO%Filho%NULL%0,    Jillian%Fitzgerald%NULL%0,    Giuseppe%Foti%NULL%0,    Matthew%Fox%NULL%0,    David%Fritschen%NULL%0,    David%Fullerton%NULL%0,    Elton%Gelandt%NULL%0,    Stacy%Gerle%NULL%0,    Marco%Giani%NULL%0,    Si Guim%Goh%NULL%0,    Sara%Govener%NULL%0,    Julie%Grone%NULL%0,    Miles%Guber%NULL%0,    Vadim%Gudzenko%NULL%0,    Daniel%Gutteridge%NULL%0,    Jennifer%Guy%NULL%0,    Jonathan%Haft%NULL%0,    Cameron%Hall%NULL%0,    Ibrahim Fawzy%Hassan%NULL%0,    Rubén%Herrán%NULL%0,    Hitoshi%Hirose%NULL%0,    Abdulsalam Saif%Ibrahim%NULL%0,    Don%Igielski%NULL%0,    Felicia A.%Ivascu%NULL%0,    Jaume%Izquierdo Blasco%NULL%0,    Julie%Jackson%NULL%0,    Harsh%Jain%NULL%0,    Bhavini%Jaiswal%NULL%0,    Andrea C.%Johnson%NULL%0,    Jenniver A.%Jurynec%NULL%0,    Norma M%Kellter%NULL%0,    Adam%Kohl%NULL%0,    Zachary%Kon%NULL%0,    Markus%Kredel%NULL%0,    Karen%Kriska%NULL%0,    Chandra%Kunavarapu%NULL%0,    Oude%Lansink-Hartgring%NULL%0,    Jeliene%LaRocque%NULL%0,    Sharon Beth%Larson%NULL%0,    Tracie%Layne%NULL%0,    Stephane%Ledot%NULL%0,    Napolitan%Lena%NULL%0,    Jonathan%Lillie%NULL%0,    Gösta%Lotz%NULL%0,    Mark%Lucas%NULL%0,    Lee%Ludwigson%NULL%0,    Jacinta J.%Maas%NULL%0,    Joanna%Maertens%NULL%0,    David%Mast%NULL%0,    Scott%McCardle%NULL%0,    Bernard%McDonald%NULL%0,    Allison%McLarty%NULL%0,    Chelsea%McMahon%NULL%0,    Patrick%Meybohm%NULL%0,    Bart%Meyns%NULL%0,    Casey%Miller%NULL%0,    Fernando%Moraes Neto%NULL%0,    Kelly%Morris%NULL%0,    Ralf%Muellenbach%NULL%0,    Meghan%Nicholson%NULL%0,    Serena%O'Brien%NULL%0,    Kathryn%O'Keefe%NULL%0,    Tawnya%Ogston%NULL%0,    Gary%Oldenburg%NULL%0,    Fabiana M.%Oliveira%NULL%0,    Emily%Oppel%NULL%0,    Diego%Pardo%NULL%0,    Diego%Pardo%NULL%0,    Sara J.%Parker%NULL%0,    Finn M.%Pedersen%NULL%0,    Crescens%Pellecchia%NULL%0,    Jose A.S.%Pelligrini%NULL%0,    Thao T.N.%Pham%NULL%0,    Ann R.%Phillips%NULL%0,    Tasneem%Pirani%NULL%0,    Paweł%Piwowarczyk%NULL%0,    Robert%Plambeck%NULL%0,    William%Pruett%NULL%0,    Brittany%Quandt%NULL%0,    Kollengode%Ramanathan%NULL%0,    Alejandro%Rey%NULL%0,    Christian%Reyher%NULL%0,    Jordi%Riera del Brio%NULL%0,    Rachel%Roberts%NULL%0,    David%Roe%NULL%0,    Peter P.%Roeleveld%NULL%0,    Janet%Rudy%NULL%0,    Luis F.%Rueda%NULL%0,    Emanuele%Russo%NULL%0,    Jesús%Sánchez Ballesteros%NULL%0,    Nancy%Satou%NULL%0,    Mauricio Guidi%Saueressig%NULL%0,    Paul C.%Saunders%NULL%0,    Margaret%Schlotterbeck%NULL%0,    Patricia%Schwarz%NULL%0,    Nicole%Scriven%NULL%0,    Alexis%Serra%NULL%0,    Mohammad%Shamsah%NULL%0,    Lucy%Sim%NULL%0,    Alexandra%Smart%NULL%0,    Adam%Smith%NULL%0,    Deane%Smith%NULL%0,    Maggie%Smith%NULL%0,    Neel%Sodha%NULL%0,    Michael%Sonntagbauer%NULL%0,    Marc%Sorenson%NULL%0,    Eric B%Stallkamp%NULL%0,    Allison%Stewart%NULL%0,    Kathy%Swartz%NULL%0,    Koji%Takeda%NULL%0,    Shaun%Thompson%NULL%0,    Bridget%Toy%NULL%0,    Divina%Tuazon%NULL%0,    Makoto%Uchiyama%NULL%0,    Obiora I.%Udeozo%NULL%0,    Scott%van Poppel%NULL%0,    Corey%Ventetuolo%NULL%0,    Leen%Vercaemst%NULL%0,    Nguyen V.%Vinh Chau%NULL%0,    I-Wen%Wang%NULL%0,    Carrie%Williamson%NULL%0,    Brock%Wilson%NULL%0,    Helen%Winkels%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,    Susan%Dashey%NULL%1,    Abigail%Stubbs%NULL%1,    Florence YL%Lai%NULL%1,    Paul W%Bird%NULL%1,    Vinay%Badhwar%NULL%1,    Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,    Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,    Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,    Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,    Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,    Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%0,    Elise%Godeau%elisegodeau@gmail.com%1,    Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,    Steven%Grange%Steven.Grange@chu-rouen.fr%1,    Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,    Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,    Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,    Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,    Alexandra%Monnier%NULL%1,    Marc%Puyraveau%NULL%1,    Stephanie%Perrier%NULL%1,    Pierre-Olivier%Ludes%NULL%1,    Anne%Olland%NULL%1,    Paul-Michel%Mertes%NULL%2,    Francis%Schneider%NULL%2,    Julie%Helms%NULL%3,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,    Christophe%Beyls%NULL%2,    Christophe%Beyls%NULL%0,    Mathieu%Guilbart%NULL%1,    Alexandre%Coquet%NULL%1,    Pascal%Berna%NULL%1,    Guillaume%Haye%NULL%1,    Pierre-Alexandre%Roger%NULL%1,    Patricia%Besserve%NULL%1,    Michael%Bernasinski%NULL%1,    Hervé%Dupont%NULL%1,    Osama%Abou-Arab%NULL%1,    Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,    Jonathan%Rilinger%NULL%2,    Jonathan%Rilinger%NULL%0,    Corinna Nadine%Lang%NULL%2,    Corinna Nadine%Lang%NULL%0,    Viviane%Zotzmann%NULL%1,    Klaus%Kaier%NULL%1,    Peter%Stachon%NULL%1,    Paul Marc%Biever%NULL%1,    Tobias%Wengenmayer%NULL%0,    Daniel%Duerschmied%NULL%1,    Christoph%Bode%NULL%1,    Dawid Leander%Staudacher%NULL%1,    Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,    JaeBum%Kim%NULL%1,    Jonghyun%Baek%NULL%1,    Hanna%Jung%NULL%1,    Jae Seok%Jang%NULL%1,    Jae Seok%Park%NULL%0,    Tak-Hyuk%Oh%NULL%1,    Se Yong%Jang%NULL%1,    Yun Seok%Kim%NULL%1,    Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,    S.%Besset%NULL%1,    S.%Freita-Ramos%NULL%1,    M.%Amouretti%NULL%1,    P.A.%Billiet%NULL%1,    M.%Dao%NULL%1,    L.M.%Dumont%NULL%1,    L.%Federici%NULL%1,    B.%Gaborieau%NULL%1,    D.%Longrois%NULL%1,    P.%Postel-Vinay%NULL%1,    C.%Vuillard%NULL%1,    N.%Zucman%NULL%1,    G.%Lebreton%NULL%1,    A.%Combes%NULL%1,    D.%Dreyfuss%NULL%1,    J.D.%Ricard%NULL%1,    D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,    Jean-Daniel%Chiche%NULL%1,    Julien%Charpentier%NULL%1,    Zakaria%Ait Hamou%NULL%1,    Paul%Jaubert%NULL%1,    Sarah%Benghanem%NULL%1,    Pierre%Dupland%NULL%1,    Ariane%Gavaud%NULL%1,    Frédéric%Péne%NULL%1,    Alain%Cariou%NULL%1,    Jean-Paul%Mira%NULL%1,    Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,    Dominik%Jarczak%NULL%1,    Liina%Thasler%NULL%1,    Martin%Bachmann%NULL%1,    Frank%Schulte%NULL%1,    Berthold%Bein%NULL%1,    Christian Friedrich%Weber%NULL%1,    Ulrich%Schäfer%NULL%1,    Carsten%Veit%NULL%1,    Hans-Peter%Hauber%NULL%1,    Sebastian%Kopp%NULL%1,    Karsten%Sydow%NULL%1,    Andreas%de Weerth%NULL%1,    Marc%Bota%NULL%1,    Rüdiger%Schreiber%NULL%1,    Oliver%Detsch%NULL%1,    Jan-Peer%Rogmann%NULL%1,    Daniel%Frings%NULL%1,    Barbara%Sensen%NULL%1,    Christoph%Burdelski%NULL%1,    Olaf%Boenisch%NULL%1,    Axel%Nierhaus%NULL%1,    Geraldine%de Heer%NULL%1,    Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,    J. Michael%DiMaio%NULL%1,    John J.%Squiers%NULL%1,    Jasjit K.%Banwait%NULL%1,    Dan M.%Meyer%NULL%1,    Timothy J.%George%NULL%1,    Gary S.%Schwartz%NULL%1,    Britton A.%Blough%NULL%1,    Robert L.%Gottlieb%NULL%1,    Gonzo%Gonzalez-Stawinski%NULL%1,    Anita R.%Krueger%NULL%1,    Kara%Monday%NULL%1,    Ramachandra C.%Reddy%NULL%1,    Jorge F.%Velazco%NULL%1,    Omar%Hernandez%NULL%1,    Chris%Martin%NULL%1,    Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,    Blair%Merrick%NULL%2,    Blair%Merrick%NULL%0,    Genex L.%Correa%NULL%1,    Luigi%Camporota%NULL%1,    Andrew%Retter%NULL%1,    Andrew%Doyle%NULL%1,    Guy W.%Glover%NULL%2,    Guy W.%Glover%NULL%0,    Peter B.%Sherren%NULL%1,    Stephen J.%Tricklebank%NULL%1,    Sangita%Agarwal%NULL%1,    Boris E.%Lams%NULL%1,    Nicholas A.%Barrett%NULL%1,    Nicholas%Ioannou%NULL%1,    Jonathan%Edgeworth%NULL%1,    Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -844,6 +898,9 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -859,16 +916,19 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -885,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -895,6 +955,9 @@
       </c>
       <c r="H3" t="s">
         <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -911,7 +974,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -921,6 +984,9 @@
       </c>
       <c r="H4" t="s">
         <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -937,7 +1003,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -947,6 +1013,9 @@
       </c>
       <c r="H5" t="s">
         <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -963,7 +1032,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -973,6 +1042,9 @@
       </c>
       <c r="H6" t="s">
         <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -989,7 +1061,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -999,6 +1071,9 @@
       </c>
       <c r="H7" t="s">
         <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8">
@@ -1026,6 +1101,9 @@
       <c r="H8" t="s">
         <v>34</v>
       </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1041,7 +1119,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1051,6 +1129,9 @@
       </c>
       <c r="H9" t="s">
         <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -1067,7 +1148,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1077,6 +1158,9 @@
       </c>
       <c r="H10" t="s">
         <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11">
@@ -1093,7 +1177,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1103,6 +1187,9 @@
       </c>
       <c r="H11" t="s">
         <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -1119,7 +1206,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1129,6 +1216,9 @@
       </c>
       <c r="H12" t="s">
         <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1145,7 +1235,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1155,6 +1245,9 @@
       </c>
       <c r="H13" t="s">
         <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1182,6 +1275,9 @@
       <c r="H14" t="s">
         <v>34</v>
       </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -1197,7 +1293,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1207,6 +1303,9 @@
       </c>
       <c r="H15" t="s">
         <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -1223,7 +1322,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1233,6 +1332,9 @@
       </c>
       <c r="H16" t="s">
         <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -1249,7 +1351,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -1259,6 +1361,9 @@
       </c>
       <c r="H17" t="s">
         <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="184">
   <si>
     <t>Doi</t>
   </si>
@@ -577,6 +577,132 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,    Blair%Merrick%NULL%2,    Blair%Merrick%NULL%0,    Genex L.%Correa%NULL%1,    Luigi%Camporota%NULL%1,    Andrew%Retter%NULL%1,    Andrew%Doyle%NULL%1,    Guy W.%Glover%NULL%2,    Guy W.%Glover%NULL%0,    Peter B.%Sherren%NULL%1,    Stephen J.%Tricklebank%NULL%1,    Sangita%Agarwal%NULL%1,    Boris E.%Lams%NULL%1,    Nicholas A.%Barrett%NULL%1,    Nicholas%Ioannou%NULL%1,    Jonathan%Edgeworth%NULL%1,    Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,    Akshay%Kohli%coreGivesNoEmail%1,    Alexandra%Pratt%coreGivesNoEmail%1,    Emil%Oweis%coreGivesNoEmail%1,    Eric%Kriner%coreGivesNoEmail%1,    Ezequiel%Molina%coreGivesNoEmail%1,    Fatima%Hayat%coreGivesNoEmail%1,    Karthik%Vedantam%coreGivesNoEmail%1,    Makdisi%G%coreGivesNoEmail%1,    Muhammad%D Hashmi%coreGivesNoEmail%1,    Muhtadi%Alnababteh%coreGivesNoEmail%1,    Rajus%Chopra%coreGivesNoEmail%1,    World%Health Organization%coreGivesNoEmail%1,    Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,     Olusegun%Olusanya%NULL%2,     Olusegun%Olusanya%NULL%0,     Marta Montero%Baladia%NULL%1,     Harriet%Young%NULL%1,     Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,     Graeme%MacLaren%NULL%0,     Philip S%Boonstra%NULL%0,     Theodore J%Iwashyna%NULL%0,     Arthur S%Slutsky%NULL%0,     Eddy%Fan%NULL%0,     Robert H%Bartlett%NULL%0,     Joseph E%Tonna%NULL%0,     Robert%Hyslop%NULL%0,     Jeffrey J%Fanning%NULL%0,     Peter T%Rycus%NULL%0,     Steve J%Hyer%NULL%0,     Marc M%Anders%NULL%0,     Cara L%Agerstrand%NULL%0,     Katarzyna%Hryniewicz%NULL%0,     Rodrigo%Diaz%NULL%0,     Roberto%Lorusso%NULL%0,     Alain%Combes%NULL%0,     Daniel%Brodie%NULL%0,     Peta%Alexander%NULL%0,     Nicholas%Barrett%NULL%0,     Jan%Bělohlávek%NULL%0,     Dale%Fisher%NULL%0,     John%Fraser%NULL%0,     Ali Ait%Hssain%NULL%0,     Jae Sung%Jung%NULL%0,     Michael%McMullan%NULL%0,     Yatin%Mehta%NULL%0,     Mark T.%Ogino%NULL%0,     Matthew L.%Paden%NULL%0,     Kiran%Shekar%NULL%0,     Christine%Stead%NULL%0,     Yasir%Abu-Omar%NULL%0,     Vanni%Agnoletti%NULL%0,     Anzila%Akbar%NULL%0,     Huda%Alfoudri%NULL%0,     Carlos%Alviar%NULL%0,     Vladimir%Aronsky%NULL%0,     Erin%August%NULL%0,     Georg%Auzinger%NULL%0,     Hilda%Aveja%NULL%0,     Rhonda%Bakken%NULL%0,     Joan%Balcells%NULL%0,     Sripal%Bangalore%NULL%0,     Bernard W.%Barnes%NULL%0,     Alaiza%Bautista%NULL%0,     Lorraine L.%Bellows%NULL%0,     Felipe%Beltran%NULL%0,     Peyman%Benharash%NULL%0,     Marco%Benni%NULL%0,     Jennifer%Berg%NULL%0,     Pietro%Bertini%NULL%0,     Pablo%Blanco-Schweizer%NULL%0,     Melissa%Brunsvold%NULL%0,     Jenny%Budd%NULL%0,     Debra%Camp%NULL%0,     Mark%Caridi-Scheible%NULL%0,     Edmund%Carton%NULL%0,     Elena%Casanova-Ghosh%NULL%0,     Anthony%Castleberry%NULL%0,     Christopher T.%Chipongian%NULL%0,     Chang Woo%Choi%NULL%0,     Alessandro%Circelli%NULL%0,     Elliott%Cohen%NULL%0,     Michael%Collins%NULL%0,     Scott%Copus%NULL%0,     Jill%Coy%NULL%0,     Brandon%Crist%NULL%0,     Leonora%Cruz%NULL%0,     Mirosław%Czuczwar%NULL%0,     Mani%Daneshmand%NULL%0,     Daniel%Davis II%NULL%0,     Kim%De la Cruz%NULL%0,     Cyndie%Devers%NULL%0,     Toni%Duculan%NULL%0,     Lucian%Durham%NULL%0,     Subbarao%Elapavaluru%NULL%0,     Carlos V.%Elzo Kraemer%NULL%0,     EDMÍLSON CARDOSO%Filho%NULL%0,     Jillian%Fitzgerald%NULL%0,     Giuseppe%Foti%NULL%0,     Matthew%Fox%NULL%0,     David%Fritschen%NULL%0,     David%Fullerton%NULL%0,     Elton%Gelandt%NULL%0,     Stacy%Gerle%NULL%0,     Marco%Giani%NULL%0,     Si Guim%Goh%NULL%0,     Sara%Govener%NULL%0,     Julie%Grone%NULL%0,     Miles%Guber%NULL%0,     Vadim%Gudzenko%NULL%0,     Daniel%Gutteridge%NULL%0,     Jennifer%Guy%NULL%0,     Jonathan%Haft%NULL%0,     Cameron%Hall%NULL%0,     Ibrahim Fawzy%Hassan%NULL%0,     Rubén%Herrán%NULL%0,     Hitoshi%Hirose%NULL%0,     Abdulsalam Saif%Ibrahim%NULL%0,     Don%Igielski%NULL%0,     Felicia A.%Ivascu%NULL%0,     Jaume%Izquierdo Blasco%NULL%0,     Julie%Jackson%NULL%0,     Harsh%Jain%NULL%0,     Bhavini%Jaiswal%NULL%0,     Andrea C.%Johnson%NULL%0,     Jenniver A.%Jurynec%NULL%0,     Norma M%Kellter%NULL%0,     Adam%Kohl%NULL%0,     Zachary%Kon%NULL%0,     Markus%Kredel%NULL%0,     Karen%Kriska%NULL%0,     Chandra%Kunavarapu%NULL%0,     Oude%Lansink-Hartgring%NULL%0,     Jeliene%LaRocque%NULL%0,     Sharon Beth%Larson%NULL%0,     Tracie%Layne%NULL%0,     Stephane%Ledot%NULL%0,     Napolitan%Lena%NULL%0,     Jonathan%Lillie%NULL%0,     Gösta%Lotz%NULL%0,     Mark%Lucas%NULL%0,     Lee%Ludwigson%NULL%0,     Jacinta J.%Maas%NULL%0,     Joanna%Maertens%NULL%0,     David%Mast%NULL%0,     Scott%McCardle%NULL%0,     Bernard%McDonald%NULL%0,     Allison%McLarty%NULL%0,     Chelsea%McMahon%NULL%0,     Patrick%Meybohm%NULL%0,     Bart%Meyns%NULL%0,     Casey%Miller%NULL%0,     Fernando%Moraes Neto%NULL%0,     Kelly%Morris%NULL%0,     Ralf%Muellenbach%NULL%0,     Meghan%Nicholson%NULL%0,     Serena%O'Brien%NULL%0,     Kathryn%O'Keefe%NULL%0,     Tawnya%Ogston%NULL%0,     Gary%Oldenburg%NULL%0,     Fabiana M.%Oliveira%NULL%0,     Emily%Oppel%NULL%0,     Diego%Pardo%NULL%0,     Diego%Pardo%NULL%0,     Sara J.%Parker%NULL%0,     Finn M.%Pedersen%NULL%0,     Crescens%Pellecchia%NULL%0,     Jose A.S.%Pelligrini%NULL%0,     Thao T.N.%Pham%NULL%0,     Ann R.%Phillips%NULL%0,     Tasneem%Pirani%NULL%0,     Paweł%Piwowarczyk%NULL%0,     Robert%Plambeck%NULL%0,     William%Pruett%NULL%0,     Brittany%Quandt%NULL%0,     Kollengode%Ramanathan%NULL%0,     Alejandro%Rey%NULL%0,     Christian%Reyher%NULL%0,     Jordi%Riera del Brio%NULL%0,     Rachel%Roberts%NULL%0,     David%Roe%NULL%0,     Peter P.%Roeleveld%NULL%0,     Janet%Rudy%NULL%0,     Luis F.%Rueda%NULL%0,     Emanuele%Russo%NULL%0,     Jesús%Sánchez Ballesteros%NULL%0,     Nancy%Satou%NULL%0,     Mauricio Guidi%Saueressig%NULL%0,     Paul C.%Saunders%NULL%0,     Margaret%Schlotterbeck%NULL%0,     Patricia%Schwarz%NULL%0,     Nicole%Scriven%NULL%0,     Alexis%Serra%NULL%0,     Mohammad%Shamsah%NULL%0,     Lucy%Sim%NULL%0,     Alexandra%Smart%NULL%0,     Adam%Smith%NULL%0,     Deane%Smith%NULL%0,     Maggie%Smith%NULL%0,     Neel%Sodha%NULL%0,     Michael%Sonntagbauer%NULL%0,     Marc%Sorenson%NULL%0,     Eric B%Stallkamp%NULL%0,     Allison%Stewart%NULL%0,     Kathy%Swartz%NULL%0,     Koji%Takeda%NULL%0,     Shaun%Thompson%NULL%0,     Bridget%Toy%NULL%0,     Divina%Tuazon%NULL%0,     Makoto%Uchiyama%NULL%0,     Obiora I.%Udeozo%NULL%0,     Scott%van Poppel%NULL%0,     Corey%Ventetuolo%NULL%0,     Leen%Vercaemst%NULL%0,     Nguyen V.%Vinh Chau%NULL%0,     I-Wen%Wang%NULL%0,     Carrie%Williamson%NULL%0,     Brock%Wilson%NULL%0,     Helen%Winkels%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,     Susan%Dashey%NULL%1,     Abigail%Stubbs%NULL%1,     Florence YL%Lai%NULL%1,     Paul W%Bird%NULL%1,     Vinay%Badhwar%NULL%1,     Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,     Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,     Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,     Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,     Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,     Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%0,     Elise%Godeau%elisegodeau@gmail.com%1,     Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,     Steven%Grange%Steven.Grange@chu-rouen.fr%1,     Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,     Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,     Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,     Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,     Alexandra%Monnier%NULL%1,     Marc%Puyraveau%NULL%1,     Stephanie%Perrier%NULL%1,     Pierre-Olivier%Ludes%NULL%1,     Anne%Olland%NULL%1,     Paul-Michel%Mertes%NULL%2,     Francis%Schneider%NULL%2,     Julie%Helms%NULL%3,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,     Christophe%Beyls%NULL%2,     Christophe%Beyls%NULL%0,     Mathieu%Guilbart%NULL%1,     Alexandre%Coquet%NULL%1,     Pascal%Berna%NULL%1,     Guillaume%Haye%NULL%1,     Pierre-Alexandre%Roger%NULL%1,     Patricia%Besserve%NULL%1,     Michael%Bernasinski%NULL%1,     Hervé%Dupont%NULL%1,     Osama%Abou-Arab%NULL%1,     Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,     Jonathan%Rilinger%NULL%2,     Jonathan%Rilinger%NULL%0,     Corinna Nadine%Lang%NULL%2,     Corinna Nadine%Lang%NULL%0,     Viviane%Zotzmann%NULL%1,     Klaus%Kaier%NULL%1,     Peter%Stachon%NULL%1,     Paul Marc%Biever%NULL%1,     Tobias%Wengenmayer%NULL%0,     Daniel%Duerschmied%NULL%1,     Christoph%Bode%NULL%1,     Dawid Leander%Staudacher%NULL%1,     Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,     JaeBum%Kim%NULL%1,     Jonghyun%Baek%NULL%1,     Hanna%Jung%NULL%1,     Jae Seok%Jang%NULL%1,     Jae Seok%Park%NULL%0,     Tak-Hyuk%Oh%NULL%1,     Se Yong%Jang%NULL%1,     Yun Seok%Kim%NULL%1,     Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,     S.%Besset%NULL%1,     S.%Freita-Ramos%NULL%1,     M.%Amouretti%NULL%1,     P.A.%Billiet%NULL%1,     M.%Dao%NULL%1,     L.M.%Dumont%NULL%1,     L.%Federici%NULL%1,     B.%Gaborieau%NULL%1,     D.%Longrois%NULL%1,     P.%Postel-Vinay%NULL%1,     C.%Vuillard%NULL%1,     N.%Zucman%NULL%1,     G.%Lebreton%NULL%1,     A.%Combes%NULL%1,     D.%Dreyfuss%NULL%1,     J.D.%Ricard%NULL%1,     D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,     Jean-Daniel%Chiche%NULL%1,     Julien%Charpentier%NULL%1,     Zakaria%Ait Hamou%NULL%1,     Paul%Jaubert%NULL%1,     Sarah%Benghanem%NULL%1,     Pierre%Dupland%NULL%1,     Ariane%Gavaud%NULL%1,     Frédéric%Péne%NULL%1,     Alain%Cariou%NULL%1,     Jean-Paul%Mira%NULL%1,     Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,     Dominik%Jarczak%NULL%1,     Liina%Thasler%NULL%1,     Martin%Bachmann%NULL%1,     Frank%Schulte%NULL%1,     Berthold%Bein%NULL%1,     Christian Friedrich%Weber%NULL%1,     Ulrich%Schäfer%NULL%1,     Carsten%Veit%NULL%1,     Hans-Peter%Hauber%NULL%1,     Sebastian%Kopp%NULL%1,     Karsten%Sydow%NULL%1,     Andreas%de Weerth%NULL%1,     Marc%Bota%NULL%1,     Rüdiger%Schreiber%NULL%1,     Oliver%Detsch%NULL%1,     Jan-Peer%Rogmann%NULL%1,     Daniel%Frings%NULL%1,     Barbara%Sensen%NULL%1,     Christoph%Burdelski%NULL%1,     Olaf%Boenisch%NULL%1,     Axel%Nierhaus%NULL%1,     Geraldine%de Heer%NULL%1,     Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,     J. Michael%DiMaio%NULL%1,     John J.%Squiers%NULL%1,     Jasjit K.%Banwait%NULL%1,     Dan M.%Meyer%NULL%1,     Timothy J.%George%NULL%1,     Gary S.%Schwartz%NULL%1,     Britton A.%Blough%NULL%1,     Robert L.%Gottlieb%NULL%1,     Gonzo%Gonzalez-Stawinski%NULL%1,     Anita R.%Krueger%NULL%1,     Kara%Monday%NULL%1,     Ramachandra C.%Reddy%NULL%1,     Jorge F.%Velazco%NULL%1,     Omar%Hernandez%NULL%1,     Chris%Martin%NULL%1,     Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,     Blair%Merrick%NULL%2,     Blair%Merrick%NULL%0,     Genex L.%Correa%NULL%1,     Luigi%Camporota%NULL%1,     Andrew%Retter%NULL%1,     Andrew%Doyle%NULL%1,     Guy W.%Glover%NULL%2,     Guy W.%Glover%NULL%0,     Peter B.%Sherren%NULL%1,     Stephen J.%Tricklebank%NULL%1,     Sangita%Agarwal%NULL%1,     Boris E.%Lams%NULL%1,     Nicholas A.%Barrett%NULL%1,     Nicholas%Ioannou%NULL%1,     Jonathan%Edgeworth%NULL%1,     Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,     Akshay%Kohli%coreGivesNoEmail%1,     Alexandra%Pratt%coreGivesNoEmail%1,     Emil%Oweis%coreGivesNoEmail%1,     Eric%Kriner%coreGivesNoEmail%1,     Ezequiel%Molina%coreGivesNoEmail%1,     Fatima%Hayat%coreGivesNoEmail%1,     Karthik%Vedantam%coreGivesNoEmail%1,     Makdisi%G%coreGivesNoEmail%1,     Muhammad%D Hashmi%coreGivesNoEmail%1,     Muhtadi%Alnababteh%coreGivesNoEmail%1,     Rajus%Chopra%coreGivesNoEmail%1,     World%Health Organization%coreGivesNoEmail%1,     Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,      Olusegun%Olusanya%NULL%2,      Olusegun%Olusanya%NULL%0,      Marta Montero%Baladia%NULL%1,      Harriet%Young%NULL%1,      Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,      Graeme%MacLaren%NULL%0,      Philip S%Boonstra%NULL%0,      Theodore J%Iwashyna%NULL%0,      Arthur S%Slutsky%NULL%0,      Eddy%Fan%NULL%0,      Robert H%Bartlett%NULL%0,      Joseph E%Tonna%NULL%0,      Robert%Hyslop%NULL%0,      Jeffrey J%Fanning%NULL%0,      Peter T%Rycus%NULL%0,      Steve J%Hyer%NULL%0,      Marc M%Anders%NULL%0,      Cara L%Agerstrand%NULL%0,      Katarzyna%Hryniewicz%NULL%0,      Rodrigo%Diaz%NULL%0,      Roberto%Lorusso%NULL%0,      Alain%Combes%NULL%0,      Daniel%Brodie%NULL%0,      Peta%Alexander%NULL%0,      Nicholas%Barrett%NULL%0,      Jan%Bělohlávek%NULL%0,      Dale%Fisher%NULL%0,      John%Fraser%NULL%0,      Ali Ait%Hssain%NULL%0,      Jae Sung%Jung%NULL%0,      Michael%McMullan%NULL%0,      Yatin%Mehta%NULL%0,      Mark T.%Ogino%NULL%0,      Matthew L.%Paden%NULL%0,      Kiran%Shekar%NULL%0,      Christine%Stead%NULL%0,      Yasir%Abu-Omar%NULL%0,      Vanni%Agnoletti%NULL%0,      Anzila%Akbar%NULL%0,      Huda%Alfoudri%NULL%0,      Carlos%Alviar%NULL%0,      Vladimir%Aronsky%NULL%0,      Erin%August%NULL%0,      Georg%Auzinger%NULL%0,      Hilda%Aveja%NULL%0,      Rhonda%Bakken%NULL%0,      Joan%Balcells%NULL%0,      Sripal%Bangalore%NULL%0,      Bernard W.%Barnes%NULL%0,      Alaiza%Bautista%NULL%0,      Lorraine L.%Bellows%NULL%0,      Felipe%Beltran%NULL%0,      Peyman%Benharash%NULL%0,      Marco%Benni%NULL%0,      Jennifer%Berg%NULL%0,      Pietro%Bertini%NULL%0,      Pablo%Blanco-Schweizer%NULL%0,      Melissa%Brunsvold%NULL%0,      Jenny%Budd%NULL%0,      Debra%Camp%NULL%0,      Mark%Caridi-Scheible%NULL%0,      Edmund%Carton%NULL%0,      Elena%Casanova-Ghosh%NULL%0,      Anthony%Castleberry%NULL%0,      Christopher T.%Chipongian%NULL%0,      Chang Woo%Choi%NULL%0,      Alessandro%Circelli%NULL%0,      Elliott%Cohen%NULL%0,      Michael%Collins%NULL%0,      Scott%Copus%NULL%0,      Jill%Coy%NULL%0,      Brandon%Crist%NULL%0,      Leonora%Cruz%NULL%0,      Mirosław%Czuczwar%NULL%0,      Mani%Daneshmand%NULL%0,      Daniel%Davis II%NULL%0,      Kim%De la Cruz%NULL%0,      Cyndie%Devers%NULL%0,      Toni%Duculan%NULL%0,      Lucian%Durham%NULL%0,      Subbarao%Elapavaluru%NULL%0,      Carlos V.%Elzo Kraemer%NULL%0,      EDMÍLSON CARDOSO%Filho%NULL%0,      Jillian%Fitzgerald%NULL%0,      Giuseppe%Foti%NULL%0,      Matthew%Fox%NULL%0,      David%Fritschen%NULL%0,      David%Fullerton%NULL%0,      Elton%Gelandt%NULL%0,      Stacy%Gerle%NULL%0,      Marco%Giani%NULL%0,      Si Guim%Goh%NULL%0,      Sara%Govener%NULL%0,      Julie%Grone%NULL%0,      Miles%Guber%NULL%0,      Vadim%Gudzenko%NULL%0,      Daniel%Gutteridge%NULL%0,      Jennifer%Guy%NULL%0,      Jonathan%Haft%NULL%0,      Cameron%Hall%NULL%0,      Ibrahim Fawzy%Hassan%NULL%0,      Rubén%Herrán%NULL%0,      Hitoshi%Hirose%NULL%0,      Abdulsalam Saif%Ibrahim%NULL%0,      Don%Igielski%NULL%0,      Felicia A.%Ivascu%NULL%0,      Jaume%Izquierdo Blasco%NULL%0,      Julie%Jackson%NULL%0,      Harsh%Jain%NULL%0,      Bhavini%Jaiswal%NULL%0,      Andrea C.%Johnson%NULL%0,      Jenniver A.%Jurynec%NULL%0,      Norma M%Kellter%NULL%0,      Adam%Kohl%NULL%0,      Zachary%Kon%NULL%0,      Markus%Kredel%NULL%0,      Karen%Kriska%NULL%0,      Chandra%Kunavarapu%NULL%0,      Oude%Lansink-Hartgring%NULL%0,      Jeliene%LaRocque%NULL%0,      Sharon Beth%Larson%NULL%0,      Tracie%Layne%NULL%0,      Stephane%Ledot%NULL%0,      Napolitan%Lena%NULL%0,      Jonathan%Lillie%NULL%0,      Gösta%Lotz%NULL%0,      Mark%Lucas%NULL%0,      Lee%Ludwigson%NULL%0,      Jacinta J.%Maas%NULL%0,      Joanna%Maertens%NULL%0,      David%Mast%NULL%0,      Scott%McCardle%NULL%0,      Bernard%McDonald%NULL%0,      Allison%McLarty%NULL%0,      Chelsea%McMahon%NULL%0,      Patrick%Meybohm%NULL%0,      Bart%Meyns%NULL%0,      Casey%Miller%NULL%0,      Fernando%Moraes Neto%NULL%0,      Kelly%Morris%NULL%0,      Ralf%Muellenbach%NULL%0,      Meghan%Nicholson%NULL%0,      Serena%O'Brien%NULL%0,      Kathryn%O'Keefe%NULL%0,      Tawnya%Ogston%NULL%0,      Gary%Oldenburg%NULL%0,      Fabiana M.%Oliveira%NULL%0,      Emily%Oppel%NULL%0,      Diego%Pardo%NULL%0,      Diego%Pardo%NULL%0,      Sara J.%Parker%NULL%0,      Finn M.%Pedersen%NULL%0,      Crescens%Pellecchia%NULL%0,      Jose A.S.%Pelligrini%NULL%0,      Thao T.N.%Pham%NULL%0,      Ann R.%Phillips%NULL%0,      Tasneem%Pirani%NULL%0,      Paweł%Piwowarczyk%NULL%0,      Robert%Plambeck%NULL%0,      William%Pruett%NULL%0,      Brittany%Quandt%NULL%0,      Kollengode%Ramanathan%NULL%0,      Alejandro%Rey%NULL%0,      Christian%Reyher%NULL%0,      Jordi%Riera del Brio%NULL%0,      Rachel%Roberts%NULL%0,      David%Roe%NULL%0,      Peter P.%Roeleveld%NULL%0,      Janet%Rudy%NULL%0,      Luis F.%Rueda%NULL%0,      Emanuele%Russo%NULL%0,      Jesús%Sánchez Ballesteros%NULL%0,      Nancy%Satou%NULL%0,      Mauricio Guidi%Saueressig%NULL%0,      Paul C.%Saunders%NULL%0,      Margaret%Schlotterbeck%NULL%0,      Patricia%Schwarz%NULL%0,      Nicole%Scriven%NULL%0,      Alexis%Serra%NULL%0,      Mohammad%Shamsah%NULL%0,      Lucy%Sim%NULL%0,      Alexandra%Smart%NULL%0,      Adam%Smith%NULL%0,      Deane%Smith%NULL%0,      Maggie%Smith%NULL%0,      Neel%Sodha%NULL%0,      Michael%Sonntagbauer%NULL%0,      Marc%Sorenson%NULL%0,      Eric B%Stallkamp%NULL%0,      Allison%Stewart%NULL%0,      Kathy%Swartz%NULL%0,      Koji%Takeda%NULL%0,      Shaun%Thompson%NULL%0,      Bridget%Toy%NULL%0,      Divina%Tuazon%NULL%0,      Makoto%Uchiyama%NULL%0,      Obiora I.%Udeozo%NULL%0,      Scott%van Poppel%NULL%0,      Corey%Ventetuolo%NULL%0,      Leen%Vercaemst%NULL%0,      Nguyen V.%Vinh Chau%NULL%0,      I-Wen%Wang%NULL%0,      Carrie%Williamson%NULL%0,      Brock%Wilson%NULL%0,      Helen%Winkels%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,      Susan%Dashey%NULL%1,      Abigail%Stubbs%NULL%1,      Florence YL%Lai%NULL%1,      Paul W%Bird%NULL%1,      Vinay%Badhwar%NULL%1,      Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,      Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,      Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,      Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,      Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,      Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%0,      Elise%Godeau%elisegodeau@gmail.com%1,      Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,      Steven%Grange%Steven.Grange@chu-rouen.fr%1,      Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,      Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,      Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,      Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,      Alexandra%Monnier%NULL%1,      Marc%Puyraveau%NULL%1,      Stephanie%Perrier%NULL%1,      Pierre-Olivier%Ludes%NULL%1,      Anne%Olland%NULL%1,      Paul-Michel%Mertes%NULL%2,      Francis%Schneider%NULL%2,      Julie%Helms%NULL%3,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,      Christophe%Beyls%NULL%2,      Christophe%Beyls%NULL%0,      Mathieu%Guilbart%NULL%1,      Alexandre%Coquet%NULL%1,      Pascal%Berna%NULL%1,      Guillaume%Haye%NULL%1,      Pierre-Alexandre%Roger%NULL%1,      Patricia%Besserve%NULL%1,      Michael%Bernasinski%NULL%1,      Hervé%Dupont%NULL%1,      Osama%Abou-Arab%NULL%1,      Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,      Jonathan%Rilinger%NULL%2,      Jonathan%Rilinger%NULL%0,      Corinna Nadine%Lang%NULL%2,      Corinna Nadine%Lang%NULL%0,      Viviane%Zotzmann%NULL%1,      Klaus%Kaier%NULL%1,      Peter%Stachon%NULL%1,      Paul Marc%Biever%NULL%1,      Tobias%Wengenmayer%NULL%0,      Daniel%Duerschmied%NULL%1,      Christoph%Bode%NULL%1,      Dawid Leander%Staudacher%NULL%1,      Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,      JaeBum%Kim%NULL%1,      Jonghyun%Baek%NULL%1,      Hanna%Jung%NULL%1,      Jae Seok%Jang%NULL%1,      Jae Seok%Park%NULL%0,      Tak-Hyuk%Oh%NULL%1,      Se Yong%Jang%NULL%1,      Yun Seok%Kim%NULL%1,      Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,      S.%Besset%NULL%1,      S.%Freita-Ramos%NULL%1,      M.%Amouretti%NULL%1,      P.A.%Billiet%NULL%1,      M.%Dao%NULL%1,      L.M.%Dumont%NULL%1,      L.%Federici%NULL%1,      B.%Gaborieau%NULL%1,      D.%Longrois%NULL%1,      P.%Postel-Vinay%NULL%1,      C.%Vuillard%NULL%1,      N.%Zucman%NULL%1,      G.%Lebreton%NULL%1,      A.%Combes%NULL%1,      D.%Dreyfuss%NULL%1,      J.D.%Ricard%NULL%1,      D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,      Jean-Daniel%Chiche%NULL%1,      Julien%Charpentier%NULL%1,      Zakaria%Ait Hamou%NULL%1,      Paul%Jaubert%NULL%1,      Sarah%Benghanem%NULL%1,      Pierre%Dupland%NULL%1,      Ariane%Gavaud%NULL%1,      Frédéric%Péne%NULL%1,      Alain%Cariou%NULL%1,      Jean-Paul%Mira%NULL%1,      Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,      Dominik%Jarczak%NULL%1,      Liina%Thasler%NULL%1,      Martin%Bachmann%NULL%1,      Frank%Schulte%NULL%1,      Berthold%Bein%NULL%1,      Christian Friedrich%Weber%NULL%1,      Ulrich%Schäfer%NULL%1,      Carsten%Veit%NULL%1,      Hans-Peter%Hauber%NULL%1,      Sebastian%Kopp%NULL%1,      Karsten%Sydow%NULL%1,      Andreas%de Weerth%NULL%1,      Marc%Bota%NULL%1,      Rüdiger%Schreiber%NULL%1,      Oliver%Detsch%NULL%1,      Jan-Peer%Rogmann%NULL%1,      Daniel%Frings%NULL%1,      Barbara%Sensen%NULL%1,      Christoph%Burdelski%NULL%1,      Olaf%Boenisch%NULL%1,      Axel%Nierhaus%NULL%1,      Geraldine%de Heer%NULL%1,      Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,      J. Michael%DiMaio%NULL%1,      John J.%Squiers%NULL%1,      Jasjit K.%Banwait%NULL%1,      Dan M.%Meyer%NULL%1,      Timothy J.%George%NULL%1,      Gary S.%Schwartz%NULL%1,      Britton A.%Blough%NULL%1,      Robert L.%Gottlieb%NULL%1,      Gonzo%Gonzalez-Stawinski%NULL%1,      Anita R.%Krueger%NULL%1,      Kara%Monday%NULL%1,      Ramachandra C.%Reddy%NULL%1,      Jorge F.%Velazco%NULL%1,      Omar%Hernandez%NULL%1,      Chris%Martin%NULL%1,      Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,      Blair%Merrick%NULL%2,      Blair%Merrick%NULL%0,      Genex L.%Correa%NULL%1,      Luigi%Camporota%NULL%1,      Andrew%Retter%NULL%1,      Andrew%Doyle%NULL%1,      Guy W.%Glover%NULL%2,      Guy W.%Glover%NULL%0,      Peter B.%Sherren%NULL%1,      Stephen J.%Tricklebank%NULL%1,      Sangita%Agarwal%NULL%1,      Boris E.%Lams%NULL%1,      Nicholas A.%Barrett%NULL%1,      Nicholas%Ioannou%NULL%1,      Jonathan%Edgeworth%NULL%1,      Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,      Akshay%Kohli%coreGivesNoEmail%1,      Alexandra%Pratt%coreGivesNoEmail%1,      Emil%Oweis%coreGivesNoEmail%1,      Eric%Kriner%coreGivesNoEmail%1,      Ezequiel%Molina%coreGivesNoEmail%1,      Fatima%Hayat%coreGivesNoEmail%1,      Karthik%Vedantam%coreGivesNoEmail%1,      Makdisi%G%coreGivesNoEmail%1,      Muhammad%D Hashmi%coreGivesNoEmail%1,      Muhtadi%Alnababteh%coreGivesNoEmail%1,      Rajus%Chopra%coreGivesNoEmail%1,      World%Health Organization%coreGivesNoEmail%1,      Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,       Olusegun%Olusanya%NULL%2,       Olusegun%Olusanya%NULL%0,       Marta Montero%Baladia%NULL%1,       Harriet%Young%NULL%1,       Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,       Graeme%MacLaren%NULL%0,       Philip S%Boonstra%NULL%0,       Theodore J%Iwashyna%NULL%0,       Arthur S%Slutsky%NULL%0,       Eddy%Fan%NULL%0,       Robert H%Bartlett%NULL%0,       Joseph E%Tonna%NULL%0,       Robert%Hyslop%NULL%0,       Jeffrey J%Fanning%NULL%0,       Peter T%Rycus%NULL%0,       Steve J%Hyer%NULL%0,       Marc M%Anders%NULL%0,       Cara L%Agerstrand%NULL%0,       Katarzyna%Hryniewicz%NULL%0,       Rodrigo%Diaz%NULL%0,       Roberto%Lorusso%NULL%0,       Alain%Combes%NULL%0,       Daniel%Brodie%NULL%0,       Peta%Alexander%NULL%0,       Nicholas%Barrett%NULL%0,       Jan%Bělohlávek%NULL%0,       Dale%Fisher%NULL%0,       John%Fraser%NULL%0,       Ali Ait%Hssain%NULL%0,       Jae Sung%Jung%NULL%0,       Michael%McMullan%NULL%0,       Yatin%Mehta%NULL%0,       Mark T.%Ogino%NULL%0,       Matthew L.%Paden%NULL%0,       Kiran%Shekar%NULL%0,       Christine%Stead%NULL%0,       Yasir%Abu-Omar%NULL%0,       Vanni%Agnoletti%NULL%0,       Anzila%Akbar%NULL%0,       Huda%Alfoudri%NULL%0,       Carlos%Alviar%NULL%0,       Vladimir%Aronsky%NULL%0,       Erin%August%NULL%0,       Georg%Auzinger%NULL%0,       Hilda%Aveja%NULL%0,       Rhonda%Bakken%NULL%0,       Joan%Balcells%NULL%0,       Sripal%Bangalore%NULL%0,       Bernard W.%Barnes%NULL%0,       Alaiza%Bautista%NULL%0,       Lorraine L.%Bellows%NULL%0,       Felipe%Beltran%NULL%0,       Peyman%Benharash%NULL%0,       Marco%Benni%NULL%0,       Jennifer%Berg%NULL%0,       Pietro%Bertini%NULL%0,       Pablo%Blanco-Schweizer%NULL%0,       Melissa%Brunsvold%NULL%0,       Jenny%Budd%NULL%0,       Debra%Camp%NULL%0,       Mark%Caridi-Scheible%NULL%0,       Edmund%Carton%NULL%0,       Elena%Casanova-Ghosh%NULL%0,       Anthony%Castleberry%NULL%0,       Christopher T.%Chipongian%NULL%0,       Chang Woo%Choi%NULL%0,       Alessandro%Circelli%NULL%0,       Elliott%Cohen%NULL%0,       Michael%Collins%NULL%0,       Scott%Copus%NULL%0,       Jill%Coy%NULL%0,       Brandon%Crist%NULL%0,       Leonora%Cruz%NULL%0,       Mirosław%Czuczwar%NULL%0,       Mani%Daneshmand%NULL%0,       Daniel%Davis II%NULL%0,       Kim%De la Cruz%NULL%0,       Cyndie%Devers%NULL%0,       Toni%Duculan%NULL%0,       Lucian%Durham%NULL%0,       Subbarao%Elapavaluru%NULL%0,       Carlos V.%Elzo Kraemer%NULL%0,       EDMÍLSON CARDOSO%Filho%NULL%0,       Jillian%Fitzgerald%NULL%0,       Giuseppe%Foti%NULL%0,       Matthew%Fox%NULL%0,       David%Fritschen%NULL%0,       David%Fullerton%NULL%0,       Elton%Gelandt%NULL%0,       Stacy%Gerle%NULL%0,       Marco%Giani%NULL%0,       Si Guim%Goh%NULL%0,       Sara%Govener%NULL%0,       Julie%Grone%NULL%0,       Miles%Guber%NULL%0,       Vadim%Gudzenko%NULL%0,       Daniel%Gutteridge%NULL%0,       Jennifer%Guy%NULL%0,       Jonathan%Haft%NULL%0,       Cameron%Hall%NULL%0,       Ibrahim Fawzy%Hassan%NULL%0,       Rubén%Herrán%NULL%0,       Hitoshi%Hirose%NULL%0,       Abdulsalam Saif%Ibrahim%NULL%0,       Don%Igielski%NULL%0,       Felicia A.%Ivascu%NULL%0,       Jaume%Izquierdo Blasco%NULL%0,       Julie%Jackson%NULL%0,       Harsh%Jain%NULL%0,       Bhavini%Jaiswal%NULL%0,       Andrea C.%Johnson%NULL%0,       Jenniver A.%Jurynec%NULL%0,       Norma M%Kellter%NULL%0,       Adam%Kohl%NULL%0,       Zachary%Kon%NULL%0,       Markus%Kredel%NULL%0,       Karen%Kriska%NULL%0,       Chandra%Kunavarapu%NULL%0,       Oude%Lansink-Hartgring%NULL%0,       Jeliene%LaRocque%NULL%0,       Sharon Beth%Larson%NULL%0,       Tracie%Layne%NULL%0,       Stephane%Ledot%NULL%0,       Napolitan%Lena%NULL%0,       Jonathan%Lillie%NULL%0,       Gösta%Lotz%NULL%0,       Mark%Lucas%NULL%0,       Lee%Ludwigson%NULL%0,       Jacinta J.%Maas%NULL%0,       Joanna%Maertens%NULL%0,       David%Mast%NULL%0,       Scott%McCardle%NULL%0,       Bernard%McDonald%NULL%0,       Allison%McLarty%NULL%0,       Chelsea%McMahon%NULL%0,       Patrick%Meybohm%NULL%0,       Bart%Meyns%NULL%0,       Casey%Miller%NULL%0,       Fernando%Moraes Neto%NULL%0,       Kelly%Morris%NULL%0,       Ralf%Muellenbach%NULL%0,       Meghan%Nicholson%NULL%0,       Serena%O'Brien%NULL%0,       Kathryn%O'Keefe%NULL%0,       Tawnya%Ogston%NULL%0,       Gary%Oldenburg%NULL%0,       Fabiana M.%Oliveira%NULL%0,       Emily%Oppel%NULL%0,       Diego%Pardo%NULL%0,       Diego%Pardo%NULL%0,       Sara J.%Parker%NULL%0,       Finn M.%Pedersen%NULL%0,       Crescens%Pellecchia%NULL%0,       Jose A.S.%Pelligrini%NULL%0,       Thao T.N.%Pham%NULL%0,       Ann R.%Phillips%NULL%0,       Tasneem%Pirani%NULL%0,       Paweł%Piwowarczyk%NULL%0,       Robert%Plambeck%NULL%0,       William%Pruett%NULL%0,       Brittany%Quandt%NULL%0,       Kollengode%Ramanathan%NULL%0,       Alejandro%Rey%NULL%0,       Christian%Reyher%NULL%0,       Jordi%Riera del Brio%NULL%0,       Rachel%Roberts%NULL%0,       David%Roe%NULL%0,       Peter P.%Roeleveld%NULL%0,       Janet%Rudy%NULL%0,       Luis F.%Rueda%NULL%0,       Emanuele%Russo%NULL%0,       Jesús%Sánchez Ballesteros%NULL%0,       Nancy%Satou%NULL%0,       Mauricio Guidi%Saueressig%NULL%0,       Paul C.%Saunders%NULL%0,       Margaret%Schlotterbeck%NULL%0,       Patricia%Schwarz%NULL%0,       Nicole%Scriven%NULL%0,       Alexis%Serra%NULL%0,       Mohammad%Shamsah%NULL%0,       Lucy%Sim%NULL%0,       Alexandra%Smart%NULL%0,       Adam%Smith%NULL%0,       Deane%Smith%NULL%0,       Maggie%Smith%NULL%0,       Neel%Sodha%NULL%0,       Michael%Sonntagbauer%NULL%0,       Marc%Sorenson%NULL%0,       Eric B%Stallkamp%NULL%0,       Allison%Stewart%NULL%0,       Kathy%Swartz%NULL%0,       Koji%Takeda%NULL%0,       Shaun%Thompson%NULL%0,       Bridget%Toy%NULL%0,       Divina%Tuazon%NULL%0,       Makoto%Uchiyama%NULL%0,       Obiora I.%Udeozo%NULL%0,       Scott%van Poppel%NULL%0,       Corey%Ventetuolo%NULL%0,       Leen%Vercaemst%NULL%0,       Nguyen V.%Vinh Chau%NULL%0,       I-Wen%Wang%NULL%0,       Carrie%Williamson%NULL%0,       Brock%Wilson%NULL%0,       Helen%Winkels%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,       Susan%Dashey%NULL%1,       Abigail%Stubbs%NULL%1,       Florence YL%Lai%NULL%1,       Paul W%Bird%NULL%1,       Vinay%Badhwar%NULL%1,       Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,       Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,       Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,       Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,       Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,       Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%0,       Elise%Godeau%elisegodeau@gmail.com%1,       Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,       Steven%Grange%Steven.Grange@chu-rouen.fr%1,       Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,       Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,       Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,       Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,       Alexandra%Monnier%NULL%1,       Marc%Puyraveau%NULL%1,       Stephanie%Perrier%NULL%1,       Pierre-Olivier%Ludes%NULL%1,       Anne%Olland%NULL%1,       Paul-Michel%Mertes%NULL%2,       Francis%Schneider%NULL%2,       Julie%Helms%NULL%3,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,       Christophe%Beyls%NULL%2,       Christophe%Beyls%NULL%0,       Mathieu%Guilbart%NULL%1,       Alexandre%Coquet%NULL%1,       Pascal%Berna%NULL%1,       Guillaume%Haye%NULL%1,       Pierre-Alexandre%Roger%NULL%1,       Patricia%Besserve%NULL%1,       Michael%Bernasinski%NULL%1,       Hervé%Dupont%NULL%1,       Osama%Abou-Arab%NULL%1,       Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,       Jonathan%Rilinger%NULL%2,       Jonathan%Rilinger%NULL%0,       Corinna Nadine%Lang%NULL%2,       Corinna Nadine%Lang%NULL%0,       Viviane%Zotzmann%NULL%1,       Klaus%Kaier%NULL%1,       Peter%Stachon%NULL%1,       Paul Marc%Biever%NULL%1,       Tobias%Wengenmayer%NULL%0,       Daniel%Duerschmied%NULL%1,       Christoph%Bode%NULL%1,       Dawid Leander%Staudacher%NULL%1,       Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,       JaeBum%Kim%NULL%1,       Jonghyun%Baek%NULL%1,       Hanna%Jung%NULL%1,       Jae Seok%Jang%NULL%1,       Jae Seok%Park%NULL%0,       Tak-Hyuk%Oh%NULL%1,       Se Yong%Jang%NULL%1,       Yun Seok%Kim%NULL%1,       Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,       S.%Besset%NULL%1,       S.%Freita-Ramos%NULL%1,       M.%Amouretti%NULL%1,       P.A.%Billiet%NULL%1,       M.%Dao%NULL%1,       L.M.%Dumont%NULL%1,       L.%Federici%NULL%1,       B.%Gaborieau%NULL%1,       D.%Longrois%NULL%1,       P.%Postel-Vinay%NULL%1,       C.%Vuillard%NULL%1,       N.%Zucman%NULL%1,       G.%Lebreton%NULL%1,       A.%Combes%NULL%1,       D.%Dreyfuss%NULL%1,       J.D.%Ricard%NULL%1,       D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,       Jean-Daniel%Chiche%NULL%1,       Julien%Charpentier%NULL%1,       Zakaria%Ait Hamou%NULL%1,       Paul%Jaubert%NULL%1,       Sarah%Benghanem%NULL%1,       Pierre%Dupland%NULL%1,       Ariane%Gavaud%NULL%1,       Frédéric%Péne%NULL%1,       Alain%Cariou%NULL%1,       Jean-Paul%Mira%NULL%1,       Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,       Dominik%Jarczak%NULL%1,       Liina%Thasler%NULL%1,       Martin%Bachmann%NULL%1,       Frank%Schulte%NULL%1,       Berthold%Bein%NULL%1,       Christian Friedrich%Weber%NULL%1,       Ulrich%Schäfer%NULL%1,       Carsten%Veit%NULL%1,       Hans-Peter%Hauber%NULL%1,       Sebastian%Kopp%NULL%1,       Karsten%Sydow%NULL%1,       Andreas%de Weerth%NULL%1,       Marc%Bota%NULL%1,       Rüdiger%Schreiber%NULL%1,       Oliver%Detsch%NULL%1,       Jan-Peer%Rogmann%NULL%1,       Daniel%Frings%NULL%1,       Barbara%Sensen%NULL%1,       Christoph%Burdelski%NULL%1,       Olaf%Boenisch%NULL%1,       Axel%Nierhaus%NULL%1,       Geraldine%de Heer%NULL%1,       Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,       J. Michael%DiMaio%NULL%1,       John J.%Squiers%NULL%1,       Jasjit K.%Banwait%NULL%1,       Dan M.%Meyer%NULL%1,       Timothy J.%George%NULL%1,       Gary S.%Schwartz%NULL%1,       Britton A.%Blough%NULL%1,       Robert L.%Gottlieb%NULL%1,       Gonzo%Gonzalez-Stawinski%NULL%1,       Anita R.%Krueger%NULL%1,       Kara%Monday%NULL%1,       Ramachandra C.%Reddy%NULL%1,       Jorge F.%Velazco%NULL%1,       Omar%Hernandez%NULL%1,       Chris%Martin%NULL%1,       Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,       Blair%Merrick%NULL%2,       Blair%Merrick%NULL%0,       Genex L.%Correa%NULL%1,       Luigi%Camporota%NULL%1,       Andrew%Retter%NULL%1,       Andrew%Doyle%NULL%1,       Guy W.%Glover%NULL%2,       Guy W.%Glover%NULL%0,       Peter B.%Sherren%NULL%1,       Stephen J.%Tricklebank%NULL%1,       Sangita%Agarwal%NULL%1,       Boris E.%Lams%NULL%1,       Nicholas A.%Barrett%NULL%1,       Nicholas%Ioannou%NULL%1,       Jonathan%Edgeworth%NULL%1,       Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -916,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -945,7 +1071,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -974,7 +1100,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1003,7 +1129,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1032,7 +1158,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1061,7 +1187,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1119,7 +1245,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1148,7 +1274,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1177,7 +1303,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1206,7 +1332,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1235,7 +1361,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1293,7 +1419,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1322,7 +1448,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1351,7 +1477,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="221">
   <si>
     <t>Doi</t>
   </si>
@@ -703,6 +703,117 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,       Blair%Merrick%NULL%2,       Blair%Merrick%NULL%0,       Genex L.%Correa%NULL%1,       Luigi%Camporota%NULL%1,       Andrew%Retter%NULL%1,       Andrew%Doyle%NULL%1,       Guy W.%Glover%NULL%2,       Guy W.%Glover%NULL%0,       Peter B.%Sherren%NULL%1,       Stephen J.%Tricklebank%NULL%1,       Sangita%Agarwal%NULL%1,       Boris E.%Lams%NULL%1,       Nicholas A.%Barrett%NULL%1,       Nicholas%Ioannou%NULL%1,       Jonathan%Edgeworth%NULL%1,       Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,       Akshay%Kohli%coreGivesNoEmail%1,       Alexandra%Pratt%coreGivesNoEmail%1,       Emil%Oweis%coreGivesNoEmail%1,       Eric%Kriner%coreGivesNoEmail%1,       Ezequiel%Molina%coreGivesNoEmail%1,       Fatima%Hayat%coreGivesNoEmail%1,       Karthik%Vedantam%coreGivesNoEmail%1,       Makdisi%G%coreGivesNoEmail%1,       Muhammad%D Hashmi%coreGivesNoEmail%1,       Muhtadi%Alnababteh%coreGivesNoEmail%1,       Rajus%Chopra%coreGivesNoEmail%1,       World%Health Organization%coreGivesNoEmail%1,       Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,        Olusegun%Olusanya%NULL%2,        Olusegun%Olusanya%NULL%0,        Marta Montero%Baladia%NULL%1,        Harriet%Young%NULL%1,        Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,        Graeme%MacLaren%NULL%1,        Philip S%Boonstra%NULL%1,        Theodore J%Iwashyna%NULL%1,        Arthur S%Slutsky%NULL%1,        Eddy%Fan%NULL%1,        Robert H%Bartlett%NULL%1,        Joseph E%Tonna%NULL%1,        Robert%Hyslop%NULL%1,        Jeffrey J%Fanning%NULL%1,        Peter T%Rycus%NULL%1,        Steve J%Hyer%NULL%1,        Marc M%Anders%NULL%1,        Cara L%Agerstrand%NULL%1,        Katarzyna%Hryniewicz%NULL%1,        Rodrigo%Diaz%NULL%1,        Roberto%Lorusso%NULL%1,        Alain%Combes%NULL%1,        Daniel%Brodie%NULL%0,        Peta%Alexander%NULL%1,        Nicholas%Barrett%NULL%0,        Jan%Bělohlávek%NULL%1,        Dale%Fisher%NULL%1,        John%Fraser%NULL%1,        Ali Ait%Hssain%NULL%0,        Jae Sung%Jung%NULL%1,        Michael%McMullan%NULL%1,        Yatin%Mehta%NULL%1,        Mark T.%Ogino%NULL%1,        Matthew L.%Paden%NULL%1,        Kiran%Shekar%NULL%1,        Christine%Stead%NULL%1,        Yasir%Abu-Omar%NULL%1,        Vanni%Agnoletti%NULL%1,        Anzila%Akbar%NULL%1,        Huda%Alfoudri%NULL%1,        Carlos%Alviar%NULL%1,        Vladimir%Aronsky%NULL%1,        Erin%August%NULL%1,        Georg%Auzinger%NULL%1,        Hilda%Aveja%NULL%1,        Rhonda%Bakken%NULL%1,        Joan%Balcells%NULL%1,        Sripal%Bangalore%NULL%1,        Bernard W.%Barnes%NULL%1,        Alaiza%Bautista%NULL%1,        Lorraine L.%Bellows%NULL%1,        Felipe%Beltran%NULL%1,        Peyman%Benharash%NULL%1,        Marco%Benni%NULL%1,        Jennifer%Berg%NULL%1,        Pietro%Bertini%NULL%1,        Pablo%Blanco-Schweizer%NULL%1,        Melissa%Brunsvold%NULL%1,        Jenny%Budd%NULL%1,        Debra%Camp%NULL%1,        Mark%Caridi-Scheible%NULL%0,        Edmund%Carton%NULL%1,        Elena%Casanova-Ghosh%NULL%1,        Anthony%Castleberry%NULL%1,        Christopher T.%Chipongian%NULL%1,        Chang Woo%Choi%NULL%1,        Alessandro%Circelli%NULL%1,        Elliott%Cohen%NULL%1,        Michael%Collins%NULL%1,        Scott%Copus%NULL%1,        Jill%Coy%NULL%1,        Brandon%Crist%NULL%1,        Leonora%Cruz%NULL%1,        Mirosław%Czuczwar%NULL%1,        Mani%Daneshmand%NULL%1,        Daniel%Davis II%NULL%1,        Kim%De la Cruz%NULL%1,        Cyndie%Devers%NULL%1,        Toni%Duculan%NULL%1,        Lucian%Durham%NULL%1,        Subbarao%Elapavaluru%NULL%1,        Carlos V.%Elzo Kraemer%NULL%1,        EDMÍLSON CARDOSO%Filho%NULL%1,        Jillian%Fitzgerald%NULL%1,        Giuseppe%Foti%NULL%1,        Matthew%Fox%NULL%1,        David%Fritschen%NULL%1,        David%Fullerton%NULL%1,        Elton%Gelandt%NULL%1,        Stacy%Gerle%NULL%1,        Marco%Giani%NULL%1,        Si Guim%Goh%NULL%1,        Sara%Govener%NULL%1,        Julie%Grone%NULL%1,        Miles%Guber%NULL%1,        Vadim%Gudzenko%NULL%1,        Daniel%Gutteridge%NULL%1,        Jennifer%Guy%NULL%1,        Jonathan%Haft%NULL%1,        Cameron%Hall%NULL%1,        Ibrahim Fawzy%Hassan%NULL%1,        Rubén%Herrán%NULL%1,        Hitoshi%Hirose%NULL%0,        Abdulsalam Saif%Ibrahim%NULL%1,        Don%Igielski%NULL%1,        Felicia A.%Ivascu%NULL%1,        Jaume%Izquierdo Blasco%NULL%1,        Julie%Jackson%NULL%1,        Harsh%Jain%NULL%1,        Bhavini%Jaiswal%NULL%1,        Andrea C.%Johnson%NULL%1,        Jenniver A.%Jurynec%NULL%1,        Norma M%Kellter%NULL%1,        Adam%Kohl%NULL%1,        Zachary%Kon%NULL%1,        Markus%Kredel%NULL%1,        Karen%Kriska%NULL%1,        Chandra%Kunavarapu%NULL%1,        Oude%Lansink-Hartgring%NULL%1,        Jeliene%LaRocque%NULL%1,        Sharon Beth%Larson%NULL%1,        Tracie%Layne%NULL%1,        Stephane%Ledot%NULL%1,        Napolitan%Lena%NULL%1,        Jonathan%Lillie%NULL%1,        Gösta%Lotz%NULL%1,        Mark%Lucas%NULL%1,        Lee%Ludwigson%NULL%1,        Jacinta J.%Maas%NULL%1,        Joanna%Maertens%NULL%1,        David%Mast%NULL%1,        Scott%McCardle%NULL%1,        Bernard%McDonald%NULL%1,        Allison%McLarty%NULL%1,        Chelsea%McMahon%NULL%1,        Patrick%Meybohm%NULL%1,        Bart%Meyns%NULL%1,        Casey%Miller%NULL%1,        Fernando%Moraes Neto%NULL%1,        Kelly%Morris%NULL%1,        Ralf%Muellenbach%NULL%1,        Meghan%Nicholson%NULL%1,        Serena%O'Brien%NULL%1,        Kathryn%O'Keefe%NULL%1,        Tawnya%Ogston%NULL%1,        Gary%Oldenburg%NULL%1,        Fabiana M.%Oliveira%NULL%1,        Emily%Oppel%NULL%1,        Diego%Pardo%NULL%2,        Diego%Pardo%NULL%0,        Sara J.%Parker%NULL%1,        Finn M.%Pedersen%NULL%1,        Crescens%Pellecchia%NULL%1,        Jose A.S.%Pelligrini%NULL%1,        Thao T.N.%Pham%NULL%1,        Ann R.%Phillips%NULL%1,        Tasneem%Pirani%NULL%1,        Paweł%Piwowarczyk%NULL%1,        Robert%Plambeck%NULL%1,        William%Pruett%NULL%1,        Brittany%Quandt%NULL%1,        Kollengode%Ramanathan%NULL%1,        Alejandro%Rey%NULL%1,        Christian%Reyher%NULL%1,        Jordi%Riera del Brio%NULL%1,        Rachel%Roberts%NULL%1,        David%Roe%NULL%1,        Peter P.%Roeleveld%NULL%1,        Janet%Rudy%NULL%1,        Luis F.%Rueda%NULL%1,        Emanuele%Russo%NULL%1,        Jesús%Sánchez Ballesteros%NULL%1,        Nancy%Satou%NULL%1,        Mauricio Guidi%Saueressig%NULL%1,        Paul C.%Saunders%NULL%1,        Margaret%Schlotterbeck%NULL%1,        Patricia%Schwarz%NULL%1,        Nicole%Scriven%NULL%1,        Alexis%Serra%NULL%1,        Mohammad%Shamsah%NULL%1,        Lucy%Sim%NULL%1,        Alexandra%Smart%NULL%1,        Adam%Smith%NULL%1,        Deane%Smith%NULL%1,        Maggie%Smith%NULL%1,        Neel%Sodha%NULL%1,        Michael%Sonntagbauer%NULL%1,        Marc%Sorenson%NULL%1,        Eric B%Stallkamp%NULL%1,        Allison%Stewart%NULL%1,        Kathy%Swartz%NULL%1,        Koji%Takeda%NULL%1,        Shaun%Thompson%NULL%1,        Bridget%Toy%NULL%1,        Divina%Tuazon%NULL%1,        Makoto%Uchiyama%NULL%1,        Obiora I.%Udeozo%NULL%1,        Scott%van Poppel%NULL%1,        Corey%Ventetuolo%NULL%1,        Leen%Vercaemst%NULL%1,        Nguyen V.%Vinh Chau%NULL%1,        I-Wen%Wang%NULL%1,        Carrie%Williamson%NULL%1,        Brock%Wilson%NULL%1,        Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,        Susan%Dashey%NULL%1,        Abigail%Stubbs%NULL%1,        Florence YL%Lai%NULL%1,        Paul W%Bird%NULL%1,        Vinay%Badhwar%NULL%1,        Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%2,        Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,        Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,        Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,        Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,        Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,        Elise%Godeau%elisegodeau@gmail.com%1,        Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,        Steven%Grange%Steven.Grange@chu-rouen.fr%1,        Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,        Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,        Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,        Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,        Alexandra%Monnier%NULL%1,        Marc%Puyraveau%NULL%1,        Stephanie%Perrier%NULL%1,        Pierre-Olivier%Ludes%NULL%1,        Anne%Olland%NULL%1,        Paul-Michel%Mertes%NULL%2,        Francis%Schneider%NULL%2,        Julie%Helms%NULL%3,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Specific Considerations for Venovenous Extracorporeal Membrane Oxygenation During Coronavirus Disease 2019 Pandemic"</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1, Clark g.%Owyang%xref no email%1, Jai%Madhok%xref no email%1, Florent%Laverdure%xref no email%1, Ma\u00efra%Gaillard%xref no email%1, Antoine%Girault%xref no email%1, Guillaume%Lebreton%xref no email%1, Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-18</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,        Christophe%Beyls%NULL%2,        Christophe%Beyls%NULL%0,        Mathieu%Guilbart%NULL%1,        Alexandre%Coquet%NULL%1,        Pascal%Berna%NULL%1,        Guillaume%Haye%NULL%1,        Pierre-Alexandre%Roger%NULL%1,        Patricia%Besserve%NULL%1,        Michael%Bernasinski%NULL%1,        Hervé%Dupont%NULL%1,        Osama%Abou-Arab%NULL%1,        Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,        Jonathan%Rilinger%NULL%2,        Jonathan%Rilinger%NULL%0,        Corinna Nadine%Lang%NULL%2,        Corinna Nadine%Lang%NULL%0,        Viviane%Zotzmann%NULL%1,        Klaus%Kaier%NULL%1,        Peter%Stachon%NULL%1,        Paul Marc%Biever%NULL%1,        Tobias%Wengenmayer%NULL%1,        Daniel%Duerschmied%NULL%1,        Christoph%Bode%NULL%1,        Dawid Leander%Staudacher%NULL%1,        Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,        JaeBum%Kim%NULL%1,        Jonghyun%Baek%NULL%1,        Hanna%Jung%NULL%1,        Jae Seok%Jang%NULL%1,        Jae Seok%Park%NULL%0,        Tak-Hyuk%Oh%NULL%1,        Se Yong%Jang%NULL%1,        Yun Seok%Kim%NULL%1,        Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,        S.%Besset%NULL%1,        S.%Freita-Ramos%NULL%1,        M.%Amouretti%NULL%1,        P.A.%Billiet%NULL%1,        M.%Dao%NULL%1,        L.M.%Dumont%NULL%1,        L.%Federici%NULL%1,        B.%Gaborieau%NULL%1,        D.%Longrois%NULL%1,        P.%Postel-Vinay%NULL%1,        C.%Vuillard%NULL%1,        N.%Zucman%NULL%1,        G.%Lebreton%NULL%1,        A.%Combes%NULL%1,        D.%Dreyfuss%NULL%1,        J.D.%Ricard%NULL%1,        D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,        Jean-Daniel%Chiche%NULL%1,        Julien%Charpentier%NULL%1,        Zakaria%Ait Hamou%NULL%1,        Paul%Jaubert%NULL%1,        Sarah%Benghanem%NULL%1,        Pierre%Dupland%NULL%1,        Ariane%Gavaud%NULL%1,        Frédéric%Péne%NULL%1,        Alain%Cariou%NULL%1,        Jean-Paul%Mira%NULL%1,        Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>"A Double-Edged Sword: Neurologic Complications and Mortality in Extracorporeal Membrane Oxygenation Therapy for COVID-19\u2013Related Severe Acute Respiratory Distress Syndrome at a Tertiary Care Center"</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1, C.W.%Freeman%xref no email%1, S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,        Dominik%Jarczak%NULL%1,        Liina%Thasler%NULL%1,        Martin%Bachmann%NULL%1,        Frank%Schulte%NULL%1,        Berthold%Bein%NULL%1,        Christian Friedrich%Weber%NULL%1,        Ulrich%Schäfer%NULL%1,        Carsten%Veit%NULL%1,        Hans-Peter%Hauber%NULL%1,        Sebastian%Kopp%NULL%1,        Karsten%Sydow%NULL%1,        Andreas%de Weerth%NULL%1,        Marc%Bota%NULL%1,        Rüdiger%Schreiber%NULL%1,        Oliver%Detsch%NULL%1,        Jan-Peer%Rogmann%NULL%1,        Daniel%Frings%NULL%1,        Barbara%Sensen%NULL%1,        Christoph%Burdelski%NULL%1,        Olaf%Boenisch%NULL%1,        Axel%Nierhaus%NULL%1,        Geraldine%de Heer%NULL%1,        Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,        J. Michael%DiMaio%NULL%1,        John J.%Squiers%NULL%1,        Jasjit K.%Banwait%NULL%1,        Dan M.%Meyer%NULL%1,        Timothy J.%George%NULL%1,        Gary S.%Schwartz%NULL%1,        Britton A.%Blough%NULL%1,        Robert L.%Gottlieb%NULL%1,        Gonzo%Gonzalez-Stawinski%NULL%1,        Anita R.%Krueger%NULL%1,        Kara%Monday%NULL%1,        Ramachandra C.%Reddy%NULL%1,        Jorge F.%Velazco%NULL%1,        Omar%Hernandez%NULL%1,        Chris%Martin%NULL%1,        Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,        Blair%Merrick%NULL%2,        Blair%Merrick%NULL%0,        Genex L.%Correa%NULL%1,        Luigi%Camporota%NULL%1,        Andrew%Retter%NULL%1,        Andrew%Doyle%NULL%1,        Guy W.%Glover%NULL%2,        Guy W.%Glover%NULL%0,        Peter B.%Sherren%NULL%1,        Stephen J.%Tricklebank%NULL%1,        Sangita%Agarwal%NULL%1,        Boris E.%Lams%NULL%1,        Nicholas A.%Barrett%NULL%1,        Nicholas%Ioannou%NULL%1,        Jonathan%Edgeworth%NULL%1,        Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,        Akshay%Kohli%coreGivesNoEmail%1,        Alexandra%Pratt%coreGivesNoEmail%1,        Emil%Oweis%coreGivesNoEmail%1,        Eric%Kriner%coreGivesNoEmail%1,        Ezequiel%Molina%coreGivesNoEmail%1,        Fatima%Hayat%coreGivesNoEmail%1,        Karthik%Vedantam%coreGivesNoEmail%1,        Makdisi%G%coreGivesNoEmail%1,        Muhammad%D Hashmi%coreGivesNoEmail%1,        Muhtadi%Alnababteh%coreGivesNoEmail%1,        Rajus%Chopra%coreGivesNoEmail%1,        World%Health Organization%coreGivesNoEmail%1,        Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,         Olusegun%Olusanya%NULL%2,         Olusegun%Olusanya%NULL%0,         Marta Montero%Baladia%NULL%1,         Harriet%Young%NULL%1,         Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,         Graeme%MacLaren%NULL%1,         Philip S%Boonstra%NULL%1,         Theodore J%Iwashyna%NULL%1,         Arthur S%Slutsky%NULL%1,         Eddy%Fan%NULL%1,         Robert H%Bartlett%NULL%1,         Joseph E%Tonna%NULL%1,         Robert%Hyslop%NULL%1,         Jeffrey J%Fanning%NULL%1,         Peter T%Rycus%NULL%1,         Steve J%Hyer%NULL%1,         Marc M%Anders%NULL%1,         Cara L%Agerstrand%NULL%1,         Katarzyna%Hryniewicz%NULL%1,         Rodrigo%Diaz%NULL%1,         Roberto%Lorusso%NULL%1,         Alain%Combes%NULL%1,         Daniel%Brodie%NULL%0,         Peta%Alexander%NULL%1,         Nicholas%Barrett%NULL%0,         Jan%Bělohlávek%NULL%1,         Dale%Fisher%NULL%1,         John%Fraser%NULL%1,         Ali Ait%Hssain%NULL%0,         Jae Sung%Jung%NULL%1,         Michael%McMullan%NULL%1,         Yatin%Mehta%NULL%1,         Mark T.%Ogino%NULL%1,         Matthew L.%Paden%NULL%1,         Kiran%Shekar%NULL%1,         Christine%Stead%NULL%1,         Yasir%Abu-Omar%NULL%1,         Vanni%Agnoletti%NULL%1,         Anzila%Akbar%NULL%1,         Huda%Alfoudri%NULL%1,         Carlos%Alviar%NULL%1,         Vladimir%Aronsky%NULL%1,         Erin%August%NULL%1,         Georg%Auzinger%NULL%1,         Hilda%Aveja%NULL%1,         Rhonda%Bakken%NULL%1,         Joan%Balcells%NULL%1,         Sripal%Bangalore%NULL%1,         Bernard W.%Barnes%NULL%1,         Alaiza%Bautista%NULL%1,         Lorraine L.%Bellows%NULL%1,         Felipe%Beltran%NULL%1,         Peyman%Benharash%NULL%1,         Marco%Benni%NULL%1,         Jennifer%Berg%NULL%1,         Pietro%Bertini%NULL%1,         Pablo%Blanco-Schweizer%NULL%1,         Melissa%Brunsvold%NULL%1,         Jenny%Budd%NULL%1,         Debra%Camp%NULL%1,         Mark%Caridi-Scheible%NULL%0,         Edmund%Carton%NULL%1,         Elena%Casanova-Ghosh%NULL%1,         Anthony%Castleberry%NULL%1,         Christopher T.%Chipongian%NULL%1,         Chang Woo%Choi%NULL%1,         Alessandro%Circelli%NULL%1,         Elliott%Cohen%NULL%1,         Michael%Collins%NULL%1,         Scott%Copus%NULL%1,         Jill%Coy%NULL%1,         Brandon%Crist%NULL%1,         Leonora%Cruz%NULL%1,         Mirosław%Czuczwar%NULL%1,         Mani%Daneshmand%NULL%1,         Daniel%Davis II%NULL%1,         Kim%De la Cruz%NULL%1,         Cyndie%Devers%NULL%1,         Toni%Duculan%NULL%1,         Lucian%Durham%NULL%1,         Subbarao%Elapavaluru%NULL%1,         Carlos V.%Elzo Kraemer%NULL%1,         EDMÍLSON CARDOSO%Filho%NULL%1,         Jillian%Fitzgerald%NULL%1,         Giuseppe%Foti%NULL%1,         Matthew%Fox%NULL%1,         David%Fritschen%NULL%1,         David%Fullerton%NULL%1,         Elton%Gelandt%NULL%1,         Stacy%Gerle%NULL%1,         Marco%Giani%NULL%1,         Si Guim%Goh%NULL%1,         Sara%Govener%NULL%1,         Julie%Grone%NULL%1,         Miles%Guber%NULL%1,         Vadim%Gudzenko%NULL%1,         Daniel%Gutteridge%NULL%1,         Jennifer%Guy%NULL%1,         Jonathan%Haft%NULL%1,         Cameron%Hall%NULL%1,         Ibrahim Fawzy%Hassan%NULL%1,         Rubén%Herrán%NULL%1,         Hitoshi%Hirose%NULL%0,         Abdulsalam Saif%Ibrahim%NULL%1,         Don%Igielski%NULL%1,         Felicia A.%Ivascu%NULL%1,         Jaume%Izquierdo Blasco%NULL%1,         Julie%Jackson%NULL%1,         Harsh%Jain%NULL%1,         Bhavini%Jaiswal%NULL%1,         Andrea C.%Johnson%NULL%1,         Jenniver A.%Jurynec%NULL%1,         Norma M%Kellter%NULL%1,         Adam%Kohl%NULL%1,         Zachary%Kon%NULL%1,         Markus%Kredel%NULL%1,         Karen%Kriska%NULL%1,         Chandra%Kunavarapu%NULL%1,         Oude%Lansink-Hartgring%NULL%1,         Jeliene%LaRocque%NULL%1,         Sharon Beth%Larson%NULL%1,         Tracie%Layne%NULL%1,         Stephane%Ledot%NULL%1,         Napolitan%Lena%NULL%1,         Jonathan%Lillie%NULL%1,         Gösta%Lotz%NULL%1,         Mark%Lucas%NULL%1,         Lee%Ludwigson%NULL%1,         Jacinta J.%Maas%NULL%1,         Joanna%Maertens%NULL%1,         David%Mast%NULL%1,         Scott%McCardle%NULL%1,         Bernard%McDonald%NULL%1,         Allison%McLarty%NULL%1,         Chelsea%McMahon%NULL%1,         Patrick%Meybohm%NULL%1,         Bart%Meyns%NULL%1,         Casey%Miller%NULL%1,         Fernando%Moraes Neto%NULL%1,         Kelly%Morris%NULL%1,         Ralf%Muellenbach%NULL%1,         Meghan%Nicholson%NULL%1,         Serena%O'Brien%NULL%1,         Kathryn%O'Keefe%NULL%1,         Tawnya%Ogston%NULL%1,         Gary%Oldenburg%NULL%1,         Fabiana M.%Oliveira%NULL%1,         Emily%Oppel%NULL%1,         Diego%Pardo%NULL%2,         Diego%Pardo%NULL%0,         Sara J.%Parker%NULL%1,         Finn M.%Pedersen%NULL%1,         Crescens%Pellecchia%NULL%1,         Jose A.S.%Pelligrini%NULL%1,         Thao T.N.%Pham%NULL%1,         Ann R.%Phillips%NULL%1,         Tasneem%Pirani%NULL%1,         Paweł%Piwowarczyk%NULL%1,         Robert%Plambeck%NULL%1,         William%Pruett%NULL%1,         Brittany%Quandt%NULL%1,         Kollengode%Ramanathan%NULL%1,         Alejandro%Rey%NULL%1,         Christian%Reyher%NULL%1,         Jordi%Riera del Brio%NULL%1,         Rachel%Roberts%NULL%1,         David%Roe%NULL%1,         Peter P.%Roeleveld%NULL%1,         Janet%Rudy%NULL%1,         Luis F.%Rueda%NULL%1,         Emanuele%Russo%NULL%1,         Jesús%Sánchez Ballesteros%NULL%1,         Nancy%Satou%NULL%1,         Mauricio Guidi%Saueressig%NULL%1,         Paul C.%Saunders%NULL%1,         Margaret%Schlotterbeck%NULL%1,         Patricia%Schwarz%NULL%1,         Nicole%Scriven%NULL%1,         Alexis%Serra%NULL%1,         Mohammad%Shamsah%NULL%1,         Lucy%Sim%NULL%1,         Alexandra%Smart%NULL%1,         Adam%Smith%NULL%1,         Deane%Smith%NULL%1,         Maggie%Smith%NULL%1,         Neel%Sodha%NULL%1,         Michael%Sonntagbauer%NULL%1,         Marc%Sorenson%NULL%1,         Eric B%Stallkamp%NULL%1,         Allison%Stewart%NULL%1,         Kathy%Swartz%NULL%1,         Koji%Takeda%NULL%1,         Shaun%Thompson%NULL%1,         Bridget%Toy%NULL%1,         Divina%Tuazon%NULL%1,         Makoto%Uchiyama%NULL%1,         Obiora I.%Udeozo%NULL%1,         Scott%van Poppel%NULL%1,         Corey%Ventetuolo%NULL%1,         Leen%Vercaemst%NULL%1,         Nguyen V.%Vinh Chau%NULL%1,         I-Wen%Wang%NULL%1,         Carrie%Williamson%NULL%1,         Brock%Wilson%NULL%1,         Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,         Susan%Dashey%NULL%1,         Abigail%Stubbs%NULL%1,         Florence YL%Lai%NULL%1,         Paul W%Bird%NULL%1,         Vinay%Badhwar%NULL%1,         Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,         Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,         Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,         Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,         Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,         Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,         Elise%Godeau%elisegodeau@gmail.com%1,         Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,         Steven%Grange%Steven.Grange@chu-rouen.fr%1,         Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,         Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,         Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,         Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,         Alexandra%Monnier%NULL%1,         Marc%Puyraveau%NULL%1,         Stephanie%Perrier%NULL%1,         Pierre-Olivier%Ludes%NULL%1,         Anne%Olland%NULL%1,         Paul-Michel%Mertes%NULL%2,         Francis%Schneider%NULL%2,         Julie%Helms%NULL%3,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,  Clark g.%Owyang%xref no email%1,  Jai%Madhok%xref no email%1,  Florent%Laverdure%xref no email%1,  Ma\u00efra%Gaillard%xref no email%1,  Antoine%Girault%xref no email%1,  Guillaume%Lebreton%xref no email%1,  Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,         Christophe%Beyls%NULL%2,         Christophe%Beyls%NULL%0,         Mathieu%Guilbart%NULL%1,         Alexandre%Coquet%NULL%1,         Pascal%Berna%NULL%1,         Guillaume%Haye%NULL%1,         Pierre-Alexandre%Roger%NULL%1,         Patricia%Besserve%NULL%1,         Michael%Bernasinski%NULL%1,         Hervé%Dupont%NULL%1,         Osama%Abou-Arab%NULL%1,         Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,         Jonathan%Rilinger%NULL%2,         Jonathan%Rilinger%NULL%0,         Corinna Nadine%Lang%NULL%2,         Corinna Nadine%Lang%NULL%0,         Viviane%Zotzmann%NULL%1,         Klaus%Kaier%NULL%1,         Peter%Stachon%NULL%1,         Paul Marc%Biever%NULL%1,         Tobias%Wengenmayer%NULL%1,         Daniel%Duerschmied%NULL%1,         Christoph%Bode%NULL%1,         Dawid Leander%Staudacher%NULL%1,         Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,         JaeBum%Kim%NULL%1,         Jonghyun%Baek%NULL%1,         Hanna%Jung%NULL%1,         Jae Seok%Jang%NULL%1,         Jae Seok%Park%NULL%0,         Tak-Hyuk%Oh%NULL%1,         Se Yong%Jang%NULL%1,         Yun Seok%Kim%NULL%1,         Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,         S.%Besset%NULL%1,         S.%Freita-Ramos%NULL%1,         M.%Amouretti%NULL%1,         P.A.%Billiet%NULL%1,         M.%Dao%NULL%1,         L.M.%Dumont%NULL%1,         L.%Federici%NULL%1,         B.%Gaborieau%NULL%1,         D.%Longrois%NULL%1,         P.%Postel-Vinay%NULL%1,         C.%Vuillard%NULL%1,         N.%Zucman%NULL%1,         G.%Lebreton%NULL%1,         A.%Combes%NULL%1,         D.%Dreyfuss%NULL%1,         J.D.%Ricard%NULL%1,         D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,         Jean-Daniel%Chiche%NULL%1,         Julien%Charpentier%NULL%1,         Zakaria%Ait Hamou%NULL%1,         Paul%Jaubert%NULL%1,         Sarah%Benghanem%NULL%1,         Pierre%Dupland%NULL%1,         Ariane%Gavaud%NULL%1,         Frédéric%Péne%NULL%1,         Alain%Cariou%NULL%1,         Jean-Paul%Mira%NULL%1,         Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,  C.W.%Freeman%xref no email%1,  S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,         Dominik%Jarczak%NULL%1,         Liina%Thasler%NULL%1,         Martin%Bachmann%NULL%1,         Frank%Schulte%NULL%1,         Berthold%Bein%NULL%1,         Christian Friedrich%Weber%NULL%1,         Ulrich%Schäfer%NULL%1,         Carsten%Veit%NULL%1,         Hans-Peter%Hauber%NULL%1,         Sebastian%Kopp%NULL%1,         Karsten%Sydow%NULL%1,         Andreas%de Weerth%NULL%1,         Marc%Bota%NULL%1,         Rüdiger%Schreiber%NULL%1,         Oliver%Detsch%NULL%1,         Jan-Peer%Rogmann%NULL%1,         Daniel%Frings%NULL%1,         Barbara%Sensen%NULL%1,         Christoph%Burdelski%NULL%1,         Olaf%Boenisch%NULL%1,         Axel%Nierhaus%NULL%1,         Geraldine%de Heer%NULL%1,         Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,         J. Michael%DiMaio%NULL%1,         John J.%Squiers%NULL%1,         Jasjit K.%Banwait%NULL%1,         Dan M.%Meyer%NULL%1,         Timothy J.%George%NULL%1,         Gary S.%Schwartz%NULL%1,         Britton A.%Blough%NULL%1,         Robert L.%Gottlieb%NULL%1,         Gonzo%Gonzalez-Stawinski%NULL%1,         Anita R.%Krueger%NULL%1,         Kara%Monday%NULL%1,         Ramachandra C.%Reddy%NULL%1,         Jorge F.%Velazco%NULL%1,         Omar%Hernandez%NULL%1,         Chris%Martin%NULL%1,         Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,         Blair%Merrick%NULL%2,         Blair%Merrick%NULL%0,         Genex L.%Correa%NULL%1,         Luigi%Camporota%NULL%1,         Andrew%Retter%NULL%1,         Andrew%Doyle%NULL%1,         Guy W.%Glover%NULL%2,         Guy W.%Glover%NULL%0,         Peter B.%Sherren%NULL%1,         Stephen J.%Tricklebank%NULL%1,         Sangita%Agarwal%NULL%1,         Boris E.%Lams%NULL%1,         Nicholas A.%Barrett%NULL%1,         Nicholas%Ioannou%NULL%1,         Jonathan%Edgeworth%NULL%1,         Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1153,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1071,7 +1182,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1100,7 +1211,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1129,7 +1240,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1158,7 +1269,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1187,7 +1298,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1210,22 +1321,22 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
@@ -1245,7 +1356,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1274,7 +1385,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1303,7 +1414,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1332,7 +1443,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1361,7 +1472,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1384,22 +1495,22 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="I14" t="s">
         <v>46</v>
@@ -1419,7 +1530,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1448,7 +1559,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1477,7 +1588,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="253">
   <si>
     <t>Doi</t>
   </si>
@@ -814,6 +814,102 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,         Blair%Merrick%NULL%2,         Blair%Merrick%NULL%0,         Genex L.%Correa%NULL%1,         Luigi%Camporota%NULL%1,         Andrew%Retter%NULL%1,         Andrew%Doyle%NULL%1,         Guy W.%Glover%NULL%2,         Guy W.%Glover%NULL%0,         Peter B.%Sherren%NULL%1,         Stephen J.%Tricklebank%NULL%1,         Sangita%Agarwal%NULL%1,         Boris E.%Lams%NULL%1,         Nicholas A.%Barrett%NULL%1,         Nicholas%Ioannou%NULL%1,         Jonathan%Edgeworth%NULL%1,         Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,         Akshay%Kohli%coreGivesNoEmail%1,         Alexandra%Pratt%coreGivesNoEmail%1,         Emil%Oweis%coreGivesNoEmail%1,         Eric%Kriner%coreGivesNoEmail%1,         Ezequiel%Molina%coreGivesNoEmail%1,         Fatima%Hayat%coreGivesNoEmail%1,         Karthik%Vedantam%coreGivesNoEmail%1,         Makdisi%G%coreGivesNoEmail%1,         Muhammad%D Hashmi%coreGivesNoEmail%1,         Muhtadi%Alnababteh%coreGivesNoEmail%1,         Rajus%Chopra%coreGivesNoEmail%1,         World%Health Organization%coreGivesNoEmail%1,         Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,          Olusegun%Olusanya%NULL%2,          Olusegun%Olusanya%NULL%0,          Marta Montero%Baladia%NULL%1,          Harriet%Young%NULL%1,          Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,          Graeme%MacLaren%NULL%1,          Philip S%Boonstra%NULL%1,          Theodore J%Iwashyna%NULL%1,          Arthur S%Slutsky%NULL%1,          Eddy%Fan%NULL%1,          Robert H%Bartlett%NULL%1,          Joseph E%Tonna%NULL%1,          Robert%Hyslop%NULL%1,          Jeffrey J%Fanning%NULL%1,          Peter T%Rycus%NULL%1,          Steve J%Hyer%NULL%1,          Marc M%Anders%NULL%1,          Cara L%Agerstrand%NULL%1,          Katarzyna%Hryniewicz%NULL%1,          Rodrigo%Diaz%NULL%1,          Roberto%Lorusso%NULL%1,          Alain%Combes%NULL%1,          Daniel%Brodie%NULL%0,          Peta%Alexander%NULL%1,          Nicholas%Barrett%NULL%0,          Jan%Bělohlávek%NULL%1,          Dale%Fisher%NULL%1,          John%Fraser%NULL%1,          Ali Ait%Hssain%NULL%0,          Jae Sung%Jung%NULL%1,          Michael%McMullan%NULL%1,          Yatin%Mehta%NULL%1,          Mark T.%Ogino%NULL%1,          Matthew L.%Paden%NULL%1,          Kiran%Shekar%NULL%1,          Christine%Stead%NULL%1,          Yasir%Abu-Omar%NULL%1,          Vanni%Agnoletti%NULL%1,          Anzila%Akbar%NULL%1,          Huda%Alfoudri%NULL%1,          Carlos%Alviar%NULL%1,          Vladimir%Aronsky%NULL%1,          Erin%August%NULL%1,          Georg%Auzinger%NULL%1,          Hilda%Aveja%NULL%1,          Rhonda%Bakken%NULL%1,          Joan%Balcells%NULL%1,          Sripal%Bangalore%NULL%1,          Bernard W.%Barnes%NULL%1,          Alaiza%Bautista%NULL%1,          Lorraine L.%Bellows%NULL%1,          Felipe%Beltran%NULL%1,          Peyman%Benharash%NULL%1,          Marco%Benni%NULL%1,          Jennifer%Berg%NULL%1,          Pietro%Bertini%NULL%1,          Pablo%Blanco-Schweizer%NULL%1,          Melissa%Brunsvold%NULL%1,          Jenny%Budd%NULL%1,          Debra%Camp%NULL%1,          Mark%Caridi-Scheible%NULL%0,          Edmund%Carton%NULL%1,          Elena%Casanova-Ghosh%NULL%1,          Anthony%Castleberry%NULL%1,          Christopher T.%Chipongian%NULL%1,          Chang Woo%Choi%NULL%1,          Alessandro%Circelli%NULL%1,          Elliott%Cohen%NULL%1,          Michael%Collins%NULL%1,          Scott%Copus%NULL%1,          Jill%Coy%NULL%1,          Brandon%Crist%NULL%1,          Leonora%Cruz%NULL%1,          Mirosław%Czuczwar%NULL%1,          Mani%Daneshmand%NULL%1,          Daniel%Davis II%NULL%1,          Kim%De la Cruz%NULL%1,          Cyndie%Devers%NULL%1,          Toni%Duculan%NULL%1,          Lucian%Durham%NULL%1,          Subbarao%Elapavaluru%NULL%1,          Carlos V.%Elzo Kraemer%NULL%1,          EDMÍLSON CARDOSO%Filho%NULL%1,          Jillian%Fitzgerald%NULL%1,          Giuseppe%Foti%NULL%1,          Matthew%Fox%NULL%1,          David%Fritschen%NULL%1,          David%Fullerton%NULL%1,          Elton%Gelandt%NULL%1,          Stacy%Gerle%NULL%1,          Marco%Giani%NULL%1,          Si Guim%Goh%NULL%1,          Sara%Govener%NULL%1,          Julie%Grone%NULL%1,          Miles%Guber%NULL%1,          Vadim%Gudzenko%NULL%1,          Daniel%Gutteridge%NULL%1,          Jennifer%Guy%NULL%1,          Jonathan%Haft%NULL%1,          Cameron%Hall%NULL%1,          Ibrahim Fawzy%Hassan%NULL%1,          Rubén%Herrán%NULL%1,          Hitoshi%Hirose%NULL%0,          Abdulsalam Saif%Ibrahim%NULL%1,          Don%Igielski%NULL%1,          Felicia A.%Ivascu%NULL%1,          Jaume%Izquierdo Blasco%NULL%1,          Julie%Jackson%NULL%1,          Harsh%Jain%NULL%1,          Bhavini%Jaiswal%NULL%1,          Andrea C.%Johnson%NULL%1,          Jenniver A.%Jurynec%NULL%1,          Norma M%Kellter%NULL%1,          Adam%Kohl%NULL%1,          Zachary%Kon%NULL%1,          Markus%Kredel%NULL%1,          Karen%Kriska%NULL%1,          Chandra%Kunavarapu%NULL%1,          Oude%Lansink-Hartgring%NULL%1,          Jeliene%LaRocque%NULL%1,          Sharon Beth%Larson%NULL%1,          Tracie%Layne%NULL%1,          Stephane%Ledot%NULL%1,          Napolitan%Lena%NULL%1,          Jonathan%Lillie%NULL%1,          Gösta%Lotz%NULL%1,          Mark%Lucas%NULL%1,          Lee%Ludwigson%NULL%1,          Jacinta J.%Maas%NULL%1,          Joanna%Maertens%NULL%1,          David%Mast%NULL%1,          Scott%McCardle%NULL%1,          Bernard%McDonald%NULL%1,          Allison%McLarty%NULL%1,          Chelsea%McMahon%NULL%1,          Patrick%Meybohm%NULL%1,          Bart%Meyns%NULL%1,          Casey%Miller%NULL%1,          Fernando%Moraes Neto%NULL%1,          Kelly%Morris%NULL%1,          Ralf%Muellenbach%NULL%1,          Meghan%Nicholson%NULL%1,          Serena%O'Brien%NULL%1,          Kathryn%O'Keefe%NULL%1,          Tawnya%Ogston%NULL%1,          Gary%Oldenburg%NULL%1,          Fabiana M.%Oliveira%NULL%1,          Emily%Oppel%NULL%1,          Diego%Pardo%NULL%2,          Diego%Pardo%NULL%0,          Sara J.%Parker%NULL%1,          Finn M.%Pedersen%NULL%1,          Crescens%Pellecchia%NULL%1,          Jose A.S.%Pelligrini%NULL%1,          Thao T.N.%Pham%NULL%1,          Ann R.%Phillips%NULL%1,          Tasneem%Pirani%NULL%1,          Paweł%Piwowarczyk%NULL%1,          Robert%Plambeck%NULL%1,          William%Pruett%NULL%1,          Brittany%Quandt%NULL%1,          Kollengode%Ramanathan%NULL%1,          Alejandro%Rey%NULL%1,          Christian%Reyher%NULL%1,          Jordi%Riera del Brio%NULL%1,          Rachel%Roberts%NULL%1,          David%Roe%NULL%1,          Peter P.%Roeleveld%NULL%1,          Janet%Rudy%NULL%1,          Luis F.%Rueda%NULL%1,          Emanuele%Russo%NULL%1,          Jesús%Sánchez Ballesteros%NULL%1,          Nancy%Satou%NULL%1,          Mauricio Guidi%Saueressig%NULL%1,          Paul C.%Saunders%NULL%1,          Margaret%Schlotterbeck%NULL%1,          Patricia%Schwarz%NULL%1,          Nicole%Scriven%NULL%1,          Alexis%Serra%NULL%1,          Mohammad%Shamsah%NULL%1,          Lucy%Sim%NULL%1,          Alexandra%Smart%NULL%1,          Adam%Smith%NULL%1,          Deane%Smith%NULL%1,          Maggie%Smith%NULL%1,          Neel%Sodha%NULL%1,          Michael%Sonntagbauer%NULL%1,          Marc%Sorenson%NULL%1,          Eric B%Stallkamp%NULL%1,          Allison%Stewart%NULL%1,          Kathy%Swartz%NULL%1,          Koji%Takeda%NULL%1,          Shaun%Thompson%NULL%1,          Bridget%Toy%NULL%1,          Divina%Tuazon%NULL%1,          Makoto%Uchiyama%NULL%1,          Obiora I.%Udeozo%NULL%1,          Scott%van Poppel%NULL%1,          Corey%Ventetuolo%NULL%1,          Leen%Vercaemst%NULL%1,          Nguyen V.%Vinh Chau%NULL%1,          I-Wen%Wang%NULL%1,          Carrie%Williamson%NULL%1,          Brock%Wilson%NULL%1,          Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,          Susan%Dashey%NULL%1,          Abigail%Stubbs%NULL%1,          Florence YL%Lai%NULL%1,          Paul W%Bird%NULL%1,          Vinay%Badhwar%NULL%1,          Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,          Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,          Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,          Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,          Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,          Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,          Elise%Godeau%elisegodeau@gmail.com%1,          Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,          Steven%Grange%Steven.Grange@chu-rouen.fr%1,          Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,          Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,          Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,          Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,          Alexandra%Monnier%NULL%1,          Marc%Puyraveau%NULL%1,          Stephanie%Perrier%NULL%1,          Pierre-Olivier%Ludes%NULL%1,          Anne%Olland%NULL%1,          Paul-Michel%Mertes%NULL%2,          Francis%Schneider%NULL%2,          Julie%Helms%NULL%3,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,   Clark g.%Owyang%xref no email%1,   Jai%Madhok%xref no email%1,   Florent%Laverdure%xref no email%1,   Ma\u00efra%Gaillard%xref no email%1,   Antoine%Girault%xref no email%1,   Guillaume%Lebreton%xref no email%1,   Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,          Christophe%Beyls%NULL%2,          Christophe%Beyls%NULL%0,          Mathieu%Guilbart%NULL%1,          Alexandre%Coquet%NULL%1,          Pascal%Berna%NULL%1,          Guillaume%Haye%NULL%1,          Pierre-Alexandre%Roger%NULL%1,          Patricia%Besserve%NULL%1,          Michael%Bernasinski%NULL%1,          Hervé%Dupont%NULL%1,          Osama%Abou-Arab%NULL%1,          Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,          Jonathan%Rilinger%NULL%2,          Jonathan%Rilinger%NULL%0,          Corinna Nadine%Lang%NULL%2,          Corinna Nadine%Lang%NULL%0,          Viviane%Zotzmann%NULL%1,          Klaus%Kaier%NULL%1,          Peter%Stachon%NULL%1,          Paul Marc%Biever%NULL%1,          Tobias%Wengenmayer%NULL%1,          Daniel%Duerschmied%NULL%1,          Christoph%Bode%NULL%1,          Dawid Leander%Staudacher%NULL%1,          Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,          JaeBum%Kim%NULL%1,          Jonghyun%Baek%NULL%1,          Hanna%Jung%NULL%1,          Jae Seok%Jang%NULL%1,          Jae Seok%Park%NULL%0,          Tak-Hyuk%Oh%NULL%1,          Se Yong%Jang%NULL%1,          Yun Seok%Kim%NULL%1,          Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,          S.%Besset%NULL%1,          S.%Freita-Ramos%NULL%1,          M.%Amouretti%NULL%1,          P.A.%Billiet%NULL%1,          M.%Dao%NULL%1,          L.M.%Dumont%NULL%1,          L.%Federici%NULL%1,          B.%Gaborieau%NULL%1,          D.%Longrois%NULL%1,          P.%Postel-Vinay%NULL%1,          C.%Vuillard%NULL%1,          N.%Zucman%NULL%1,          G.%Lebreton%NULL%1,          A.%Combes%NULL%1,          D.%Dreyfuss%NULL%1,          J.D.%Ricard%NULL%1,          D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,          Jean-Daniel%Chiche%NULL%1,          Julien%Charpentier%NULL%1,          Zakaria%Ait Hamou%NULL%1,          Paul%Jaubert%NULL%1,          Sarah%Benghanem%NULL%1,          Pierre%Dupland%NULL%1,          Ariane%Gavaud%NULL%1,          Frédéric%Péne%NULL%1,          Alain%Cariou%NULL%1,          Jean-Paul%Mira%NULL%1,          Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,   C.W.%Freeman%xref no email%1,   S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,          Dominik%Jarczak%NULL%1,          Liina%Thasler%NULL%1,          Martin%Bachmann%NULL%1,          Frank%Schulte%NULL%1,          Berthold%Bein%NULL%1,          Christian Friedrich%Weber%NULL%1,          Ulrich%Schäfer%NULL%1,          Carsten%Veit%NULL%1,          Hans-Peter%Hauber%NULL%1,          Sebastian%Kopp%NULL%1,          Karsten%Sydow%NULL%1,          Andreas%de Weerth%NULL%1,          Marc%Bota%NULL%1,          Rüdiger%Schreiber%NULL%1,          Oliver%Detsch%NULL%1,          Jan-Peer%Rogmann%NULL%1,          Daniel%Frings%NULL%1,          Barbara%Sensen%NULL%1,          Christoph%Burdelski%NULL%1,          Olaf%Boenisch%NULL%1,          Axel%Nierhaus%NULL%1,          Geraldine%de Heer%NULL%1,          Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,          J. Michael%DiMaio%NULL%1,          John J.%Squiers%NULL%1,          Jasjit K.%Banwait%NULL%1,          Dan M.%Meyer%NULL%1,          Timothy J.%George%NULL%1,          Gary S.%Schwartz%NULL%1,          Britton A.%Blough%NULL%1,          Robert L.%Gottlieb%NULL%1,          Gonzo%Gonzalez-Stawinski%NULL%1,          Anita R.%Krueger%NULL%1,          Kara%Monday%NULL%1,          Ramachandra C.%Reddy%NULL%1,          Jorge F.%Velazco%NULL%1,          Omar%Hernandez%NULL%1,          Chris%Martin%NULL%1,          Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,          Blair%Merrick%NULL%2,          Blair%Merrick%NULL%0,          Genex L.%Correa%NULL%1,          Luigi%Camporota%NULL%1,          Andrew%Retter%NULL%1,          Andrew%Doyle%NULL%1,          Guy W.%Glover%NULL%2,          Guy W.%Glover%NULL%0,          Peter B.%Sherren%NULL%1,          Stephen J.%Tricklebank%NULL%1,          Sangita%Agarwal%NULL%1,          Boris E.%Lams%NULL%1,          Nicholas A.%Barrett%NULL%1,          Nicholas%Ioannou%NULL%1,          Jonathan%Edgeworth%NULL%1,          Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,          Akshay%Kohli%coreGivesNoEmail%1,          Alexandra%Pratt%coreGivesNoEmail%1,          Emil%Oweis%coreGivesNoEmail%1,          Eric%Kriner%coreGivesNoEmail%1,          Ezequiel%Molina%coreGivesNoEmail%1,          Fatima%Hayat%coreGivesNoEmail%1,          Karthik%Vedantam%coreGivesNoEmail%1,          Makdisi%G%coreGivesNoEmail%1,          Muhammad%D Hashmi%coreGivesNoEmail%1,          Muhtadi%Alnababteh%coreGivesNoEmail%1,          Rajus%Chopra%coreGivesNoEmail%1,          World%Health Organization%coreGivesNoEmail%1,          Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,           Olusegun%Olusanya%NULL%2,           Olusegun%Olusanya%NULL%0,           Marta Montero%Baladia%NULL%1,           Harriet%Young%NULL%1,           Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,           Graeme%MacLaren%NULL%1,           Philip S%Boonstra%NULL%1,           Theodore J%Iwashyna%NULL%1,           Arthur S%Slutsky%NULL%1,           Eddy%Fan%NULL%1,           Robert H%Bartlett%NULL%1,           Joseph E%Tonna%NULL%1,           Robert%Hyslop%NULL%1,           Jeffrey J%Fanning%NULL%1,           Peter T%Rycus%NULL%1,           Steve J%Hyer%NULL%1,           Marc M%Anders%NULL%1,           Cara L%Agerstrand%NULL%1,           Katarzyna%Hryniewicz%NULL%1,           Rodrigo%Diaz%NULL%1,           Roberto%Lorusso%NULL%1,           Alain%Combes%NULL%1,           Daniel%Brodie%NULL%0,           Peta%Alexander%NULL%1,           Nicholas%Barrett%NULL%0,           Jan%Bělohlávek%NULL%1,           Dale%Fisher%NULL%1,           John%Fraser%NULL%1,           Ali Ait%Hssain%NULL%0,           Jae Sung%Jung%NULL%1,           Michael%McMullan%NULL%1,           Yatin%Mehta%NULL%1,           Mark T.%Ogino%NULL%1,           Matthew L.%Paden%NULL%1,           Kiran%Shekar%NULL%1,           Christine%Stead%NULL%1,           Yasir%Abu-Omar%NULL%1,           Vanni%Agnoletti%NULL%1,           Anzila%Akbar%NULL%1,           Huda%Alfoudri%NULL%1,           Carlos%Alviar%NULL%1,           Vladimir%Aronsky%NULL%1,           Erin%August%NULL%1,           Georg%Auzinger%NULL%1,           Hilda%Aveja%NULL%1,           Rhonda%Bakken%NULL%1,           Joan%Balcells%NULL%1,           Sripal%Bangalore%NULL%1,           Bernard W.%Barnes%NULL%1,           Alaiza%Bautista%NULL%1,           Lorraine L.%Bellows%NULL%1,           Felipe%Beltran%NULL%1,           Peyman%Benharash%NULL%1,           Marco%Benni%NULL%1,           Jennifer%Berg%NULL%1,           Pietro%Bertini%NULL%1,           Pablo%Blanco-Schweizer%NULL%1,           Melissa%Brunsvold%NULL%1,           Jenny%Budd%NULL%1,           Debra%Camp%NULL%1,           Mark%Caridi-Scheible%NULL%0,           Edmund%Carton%NULL%1,           Elena%Casanova-Ghosh%NULL%1,           Anthony%Castleberry%NULL%1,           Christopher T.%Chipongian%NULL%1,           Chang Woo%Choi%NULL%1,           Alessandro%Circelli%NULL%1,           Elliott%Cohen%NULL%1,           Michael%Collins%NULL%1,           Scott%Copus%NULL%1,           Jill%Coy%NULL%1,           Brandon%Crist%NULL%1,           Leonora%Cruz%NULL%1,           Mirosław%Czuczwar%NULL%1,           Mani%Daneshmand%NULL%1,           Daniel%Davis II%NULL%1,           Kim%De la Cruz%NULL%1,           Cyndie%Devers%NULL%1,           Toni%Duculan%NULL%1,           Lucian%Durham%NULL%1,           Subbarao%Elapavaluru%NULL%1,           Carlos V.%Elzo Kraemer%NULL%1,           EDMÍLSON CARDOSO%Filho%NULL%1,           Jillian%Fitzgerald%NULL%1,           Giuseppe%Foti%NULL%1,           Matthew%Fox%NULL%1,           David%Fritschen%NULL%1,           David%Fullerton%NULL%1,           Elton%Gelandt%NULL%1,           Stacy%Gerle%NULL%1,           Marco%Giani%NULL%1,           Si Guim%Goh%NULL%1,           Sara%Govener%NULL%1,           Julie%Grone%NULL%1,           Miles%Guber%NULL%1,           Vadim%Gudzenko%NULL%1,           Daniel%Gutteridge%NULL%1,           Jennifer%Guy%NULL%1,           Jonathan%Haft%NULL%1,           Cameron%Hall%NULL%1,           Ibrahim Fawzy%Hassan%NULL%1,           Rubén%Herrán%NULL%1,           Hitoshi%Hirose%NULL%0,           Abdulsalam Saif%Ibrahim%NULL%1,           Don%Igielski%NULL%1,           Felicia A.%Ivascu%NULL%1,           Jaume%Izquierdo Blasco%NULL%1,           Julie%Jackson%NULL%1,           Harsh%Jain%NULL%1,           Bhavini%Jaiswal%NULL%1,           Andrea C.%Johnson%NULL%1,           Jenniver A.%Jurynec%NULL%1,           Norma M%Kellter%NULL%1,           Adam%Kohl%NULL%1,           Zachary%Kon%NULL%1,           Markus%Kredel%NULL%1,           Karen%Kriska%NULL%1,           Chandra%Kunavarapu%NULL%1,           Oude%Lansink-Hartgring%NULL%1,           Jeliene%LaRocque%NULL%1,           Sharon Beth%Larson%NULL%1,           Tracie%Layne%NULL%1,           Stephane%Ledot%NULL%1,           Napolitan%Lena%NULL%1,           Jonathan%Lillie%NULL%1,           Gösta%Lotz%NULL%1,           Mark%Lucas%NULL%1,           Lee%Ludwigson%NULL%1,           Jacinta J.%Maas%NULL%1,           Joanna%Maertens%NULL%1,           David%Mast%NULL%1,           Scott%McCardle%NULL%1,           Bernard%McDonald%NULL%1,           Allison%McLarty%NULL%1,           Chelsea%McMahon%NULL%1,           Patrick%Meybohm%NULL%1,           Bart%Meyns%NULL%1,           Casey%Miller%NULL%1,           Fernando%Moraes Neto%NULL%1,           Kelly%Morris%NULL%1,           Ralf%Muellenbach%NULL%1,           Meghan%Nicholson%NULL%1,           Serena%O'Brien%NULL%1,           Kathryn%O'Keefe%NULL%1,           Tawnya%Ogston%NULL%1,           Gary%Oldenburg%NULL%1,           Fabiana M.%Oliveira%NULL%1,           Emily%Oppel%NULL%1,           Diego%Pardo%NULL%2,           Diego%Pardo%NULL%0,           Sara J.%Parker%NULL%1,           Finn M.%Pedersen%NULL%1,           Crescens%Pellecchia%NULL%1,           Jose A.S.%Pelligrini%NULL%1,           Thao T.N.%Pham%NULL%1,           Ann R.%Phillips%NULL%1,           Tasneem%Pirani%NULL%1,           Paweł%Piwowarczyk%NULL%1,           Robert%Plambeck%NULL%1,           William%Pruett%NULL%1,           Brittany%Quandt%NULL%1,           Kollengode%Ramanathan%NULL%1,           Alejandro%Rey%NULL%1,           Christian%Reyher%NULL%1,           Jordi%Riera del Brio%NULL%1,           Rachel%Roberts%NULL%1,           David%Roe%NULL%1,           Peter P.%Roeleveld%NULL%1,           Janet%Rudy%NULL%1,           Luis F.%Rueda%NULL%1,           Emanuele%Russo%NULL%1,           Jesús%Sánchez Ballesteros%NULL%1,           Nancy%Satou%NULL%1,           Mauricio Guidi%Saueressig%NULL%1,           Paul C.%Saunders%NULL%1,           Margaret%Schlotterbeck%NULL%1,           Patricia%Schwarz%NULL%1,           Nicole%Scriven%NULL%1,           Alexis%Serra%NULL%1,           Mohammad%Shamsah%NULL%1,           Lucy%Sim%NULL%1,           Alexandra%Smart%NULL%1,           Adam%Smith%NULL%1,           Deane%Smith%NULL%1,           Maggie%Smith%NULL%1,           Neel%Sodha%NULL%1,           Michael%Sonntagbauer%NULL%1,           Marc%Sorenson%NULL%1,           Eric B%Stallkamp%NULL%1,           Allison%Stewart%NULL%1,           Kathy%Swartz%NULL%1,           Koji%Takeda%NULL%1,           Shaun%Thompson%NULL%1,           Bridget%Toy%NULL%1,           Divina%Tuazon%NULL%1,           Makoto%Uchiyama%NULL%1,           Obiora I.%Udeozo%NULL%1,           Scott%van Poppel%NULL%1,           Corey%Ventetuolo%NULL%1,           Leen%Vercaemst%NULL%1,           Nguyen V.%Vinh Chau%NULL%1,           I-Wen%Wang%NULL%1,           Carrie%Williamson%NULL%1,           Brock%Wilson%NULL%1,           Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,           Susan%Dashey%NULL%1,           Abigail%Stubbs%NULL%1,           Florence YL%Lai%NULL%1,           Paul W%Bird%NULL%1,           Vinay%Badhwar%NULL%1,           Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,           Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,           Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,           Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,           Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,           Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,           Elise%Godeau%elisegodeau@gmail.com%1,           Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,           Steven%Grange%Steven.Grange@chu-rouen.fr%1,           Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,           Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,           Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,           Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,           Alexandra%Monnier%NULL%1,           Marc%Puyraveau%NULL%1,           Stephanie%Perrier%NULL%1,           Pierre-Olivier%Ludes%NULL%1,           Anne%Olland%NULL%1,           Paul-Michel%Mertes%NULL%2,           Francis%Schneider%NULL%2,           Julie%Helms%NULL%3,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,    Clark g.%Owyang%xref no email%1,    Jai%Madhok%xref no email%1,    Florent%Laverdure%xref no email%1,    Ma\u00efra%Gaillard%xref no email%1,    Antoine%Girault%xref no email%1,    Guillaume%Lebreton%xref no email%1,    Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,           Christophe%Beyls%NULL%2,           Christophe%Beyls%NULL%0,           Mathieu%Guilbart%NULL%1,           Alexandre%Coquet%NULL%1,           Pascal%Berna%NULL%1,           Guillaume%Haye%NULL%1,           Pierre-Alexandre%Roger%NULL%1,           Patricia%Besserve%NULL%1,           Michael%Bernasinski%NULL%1,           Hervé%Dupont%NULL%1,           Osama%Abou-Arab%NULL%1,           Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,           Jonathan%Rilinger%NULL%2,           Jonathan%Rilinger%NULL%0,           Corinna Nadine%Lang%NULL%2,           Corinna Nadine%Lang%NULL%0,           Viviane%Zotzmann%NULL%1,           Klaus%Kaier%NULL%1,           Peter%Stachon%NULL%1,           Paul Marc%Biever%NULL%1,           Tobias%Wengenmayer%NULL%1,           Daniel%Duerschmied%NULL%1,           Christoph%Bode%NULL%1,           Dawid Leander%Staudacher%NULL%1,           Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,           JaeBum%Kim%NULL%1,           Jonghyun%Baek%NULL%1,           Hanna%Jung%NULL%1,           Jae Seok%Jang%NULL%1,           Jae Seok%Park%NULL%0,           Tak-Hyuk%Oh%NULL%1,           Se Yong%Jang%NULL%1,           Yun Seok%Kim%NULL%1,           Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,           S.%Besset%NULL%1,           S.%Freita-Ramos%NULL%1,           M.%Amouretti%NULL%1,           P.A.%Billiet%NULL%1,           M.%Dao%NULL%1,           L.M.%Dumont%NULL%1,           L.%Federici%NULL%1,           B.%Gaborieau%NULL%1,           D.%Longrois%NULL%1,           P.%Postel-Vinay%NULL%1,           C.%Vuillard%NULL%1,           N.%Zucman%NULL%1,           G.%Lebreton%NULL%1,           A.%Combes%NULL%1,           D.%Dreyfuss%NULL%1,           J.D.%Ricard%NULL%1,           D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,           Jean-Daniel%Chiche%NULL%1,           Julien%Charpentier%NULL%1,           Zakaria%Ait Hamou%NULL%1,           Paul%Jaubert%NULL%1,           Sarah%Benghanem%NULL%1,           Pierre%Dupland%NULL%1,           Ariane%Gavaud%NULL%1,           Frédéric%Péne%NULL%1,           Alain%Cariou%NULL%1,           Jean-Paul%Mira%NULL%1,           Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,    C.W.%Freeman%xref no email%1,    S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,           Dominik%Jarczak%NULL%1,           Liina%Thasler%NULL%1,           Martin%Bachmann%NULL%1,           Frank%Schulte%NULL%1,           Berthold%Bein%NULL%1,           Christian Friedrich%Weber%NULL%1,           Ulrich%Schäfer%NULL%1,           Carsten%Veit%NULL%1,           Hans-Peter%Hauber%NULL%1,           Sebastian%Kopp%NULL%1,           Karsten%Sydow%NULL%1,           Andreas%de Weerth%NULL%1,           Marc%Bota%NULL%1,           Rüdiger%Schreiber%NULL%1,           Oliver%Detsch%NULL%1,           Jan-Peer%Rogmann%NULL%1,           Daniel%Frings%NULL%1,           Barbara%Sensen%NULL%1,           Christoph%Burdelski%NULL%1,           Olaf%Boenisch%NULL%1,           Axel%Nierhaus%NULL%1,           Geraldine%de Heer%NULL%1,           Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,           J. Michael%DiMaio%NULL%1,           John J.%Squiers%NULL%1,           Jasjit K.%Banwait%NULL%1,           Dan M.%Meyer%NULL%1,           Timothy J.%George%NULL%1,           Gary S.%Schwartz%NULL%1,           Britton A.%Blough%NULL%1,           Robert L.%Gottlieb%NULL%1,           Gonzo%Gonzalez-Stawinski%NULL%1,           Anita R.%Krueger%NULL%1,           Kara%Monday%NULL%1,           Ramachandra C.%Reddy%NULL%1,           Jorge F.%Velazco%NULL%1,           Omar%Hernandez%NULL%1,           Chris%Martin%NULL%1,           Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,           Blair%Merrick%NULL%2,           Blair%Merrick%NULL%0,           Genex L.%Correa%NULL%1,           Luigi%Camporota%NULL%1,           Andrew%Retter%NULL%1,           Andrew%Doyle%NULL%1,           Guy W.%Glover%NULL%2,           Guy W.%Glover%NULL%0,           Peter B.%Sherren%NULL%1,           Stephen J.%Tricklebank%NULL%1,           Sangita%Agarwal%NULL%1,           Boris E.%Lams%NULL%1,           Nicholas A.%Barrett%NULL%1,           Nicholas%Ioannou%NULL%1,           Jonathan%Edgeworth%NULL%1,           Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1249,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1182,7 +1278,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1211,7 +1307,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1240,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1269,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1298,7 +1394,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1327,7 +1423,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1356,7 +1452,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1385,7 +1481,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1414,7 +1510,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1443,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1472,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1501,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1530,7 +1626,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1559,7 +1655,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1588,7 +1684,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="286">
   <si>
     <t>Doi</t>
   </si>
@@ -910,6 +910,124 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,           Blair%Merrick%NULL%2,           Blair%Merrick%NULL%0,           Genex L.%Correa%NULL%1,           Luigi%Camporota%NULL%1,           Andrew%Retter%NULL%1,           Andrew%Doyle%NULL%1,           Guy W.%Glover%NULL%2,           Guy W.%Glover%NULL%0,           Peter B.%Sherren%NULL%1,           Stephen J.%Tricklebank%NULL%1,           Sangita%Agarwal%NULL%1,           Boris E.%Lams%NULL%1,           Nicholas A.%Barrett%NULL%1,           Nicholas%Ioannou%NULL%1,           Jonathan%Edgeworth%NULL%1,           Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,           Akshay%Kohli%coreGivesNoEmail%1,           Alexandra%Pratt%coreGivesNoEmail%1,           Emil%Oweis%coreGivesNoEmail%1,           Eric%Kriner%coreGivesNoEmail%1,           Ezequiel%Molina%coreGivesNoEmail%1,           Fatima%Hayat%coreGivesNoEmail%1,           Karthik%Vedantam%coreGivesNoEmail%1,           Makdisi%G%coreGivesNoEmail%1,           Muhammad%D Hashmi%coreGivesNoEmail%1,           Muhtadi%Alnababteh%coreGivesNoEmail%1,           Rajus%Chopra%coreGivesNoEmail%1,           World%Health Organization%coreGivesNoEmail%1,           Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In this paper, we describe our experience and early outcomes with critically unwell severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) patients who required extracorporeal membrane oxygenation (ECMO).
+ We present our standard practices around ECMO decision-making, retrieval, cannulation, ventilation, anticoagulation, tracheostomy, imaging and steroids.
+Methods
+A retrospective cohort study using data from the hospital notes on all SARS-CoV-2 patients who required extracorporeal support at St Bartholomew’s Hospital between 1 March 2020 and 31 July 2020. In total, this included 18 patients over this time period.
+Results
+In total, 18 patients were managed with extracorporeal support and of these 14 survived (78%) with 4 deaths (22%).
+ The mean duration from hospital admission to intubation was 4.1 ± 3.4 days, mean time from intubation to ECMO 2.3 ± 2 days and mean run on ECMO 17.7 ± 9.4 days.
+ Survivor mean days from intubation to extubation was 20.6 ± 9.9 days and survivor mean days from intubation to tracheostomy decannulation 46.6 ± 15.3 days.
+ Time from hospital admission to discharge in survivors was a mean of 57.2 ± 25.8 days.
+ Of the patients requiring extracorporeal support, the initial mode was veno-venous (VV) in 15 (83%), veno-arterial (VA) in 2 (11%) and veno-venous-arterial (VVA) in 1 (6%).
+ On VV extracorporeal support, 2 (11%) required additional VVA.
+ Renal replacement therapy was required in 10 (56%) of the patients.
+ Anticoagulation target anti-Xa of 0.2–0.4 was set, with 10 (56%) patients having a deep vein thrombosis or pulmonary embolism detected and 2 (11%) patients suffering an intracranial haemorrhage.
+ Tracheostomy was performed in 9 (50%) of the patients and high-dose methylprednisolone was given to 7 (39%) of the patients.
+Conclusion
+In our cohort of patients with severe SARS-CoV-2 respiratory failure, a long period of invasive ventilation and extracorporeal support was required but achieving good outcomes despite this.
+ There was a significant burden of thromboembolic disease and renal injury.
+ A significant proportion of patients required tracheostomy and steroids to facilitate weaning.
+</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,            Olusegun%Olusanya%NULL%2,            Olusegun%Olusanya%NULL%0,            Marta Montero%Baladia%NULL%1,            Harriet%Young%NULL%1,            Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,            Graeme%MacLaren%NULL%1,            Philip S%Boonstra%NULL%1,            Theodore J%Iwashyna%NULL%1,            Arthur S%Slutsky%NULL%1,            Eddy%Fan%NULL%1,            Robert H%Bartlett%NULL%1,            Joseph E%Tonna%NULL%1,            Robert%Hyslop%NULL%1,            Jeffrey J%Fanning%NULL%1,            Peter T%Rycus%NULL%1,            Steve J%Hyer%NULL%1,            Marc M%Anders%NULL%1,            Cara L%Agerstrand%NULL%1,            Katarzyna%Hryniewicz%NULL%1,            Rodrigo%Diaz%NULL%1,            Roberto%Lorusso%NULL%1,            Alain%Combes%NULL%1,            Daniel%Brodie%NULL%0,            Peta%Alexander%NULL%1,            Nicholas%Barrett%NULL%0,            Jan%Bělohlávek%NULL%1,            Dale%Fisher%NULL%1,            John%Fraser%NULL%1,            Ali Ait%Hssain%NULL%0,            Jae Sung%Jung%NULL%1,            Michael%McMullan%NULL%1,            Yatin%Mehta%NULL%1,            Mark T.%Ogino%NULL%1,            Matthew L.%Paden%NULL%1,            Kiran%Shekar%NULL%1,            Christine%Stead%NULL%1,            Yasir%Abu-Omar%NULL%1,            Vanni%Agnoletti%NULL%1,            Anzila%Akbar%NULL%1,            Huda%Alfoudri%NULL%1,            Carlos%Alviar%NULL%1,            Vladimir%Aronsky%NULL%1,            Erin%August%NULL%1,            Georg%Auzinger%NULL%1,            Hilda%Aveja%NULL%1,            Rhonda%Bakken%NULL%1,            Joan%Balcells%NULL%1,            Sripal%Bangalore%NULL%1,            Bernard W.%Barnes%NULL%1,            Alaiza%Bautista%NULL%1,            Lorraine L.%Bellows%NULL%1,            Felipe%Beltran%NULL%1,            Peyman%Benharash%NULL%1,            Marco%Benni%NULL%1,            Jennifer%Berg%NULL%1,            Pietro%Bertini%NULL%1,            Pablo%Blanco-Schweizer%NULL%1,            Melissa%Brunsvold%NULL%1,            Jenny%Budd%NULL%1,            Debra%Camp%NULL%1,            Mark%Caridi-Scheible%NULL%0,            Edmund%Carton%NULL%1,            Elena%Casanova-Ghosh%NULL%1,            Anthony%Castleberry%NULL%1,            Christopher T.%Chipongian%NULL%1,            Chang Woo%Choi%NULL%1,            Alessandro%Circelli%NULL%1,            Elliott%Cohen%NULL%1,            Michael%Collins%NULL%1,            Scott%Copus%NULL%1,            Jill%Coy%NULL%1,            Brandon%Crist%NULL%1,            Leonora%Cruz%NULL%1,            Mirosław%Czuczwar%NULL%1,            Mani%Daneshmand%NULL%1,            Daniel%Davis II%NULL%1,            Kim%De la Cruz%NULL%1,            Cyndie%Devers%NULL%1,            Toni%Duculan%NULL%1,            Lucian%Durham%NULL%1,            Subbarao%Elapavaluru%NULL%1,            Carlos V.%Elzo Kraemer%NULL%1,            EDMÍLSON CARDOSO%Filho%NULL%1,            Jillian%Fitzgerald%NULL%1,            Giuseppe%Foti%NULL%1,            Matthew%Fox%NULL%1,            David%Fritschen%NULL%1,            David%Fullerton%NULL%1,            Elton%Gelandt%NULL%1,            Stacy%Gerle%NULL%1,            Marco%Giani%NULL%1,            Si Guim%Goh%NULL%1,            Sara%Govener%NULL%1,            Julie%Grone%NULL%1,            Miles%Guber%NULL%1,            Vadim%Gudzenko%NULL%1,            Daniel%Gutteridge%NULL%1,            Jennifer%Guy%NULL%1,            Jonathan%Haft%NULL%1,            Cameron%Hall%NULL%1,            Ibrahim Fawzy%Hassan%NULL%1,            Rubén%Herrán%NULL%1,            Hitoshi%Hirose%NULL%0,            Abdulsalam Saif%Ibrahim%NULL%1,            Don%Igielski%NULL%1,            Felicia A.%Ivascu%NULL%1,            Jaume%Izquierdo Blasco%NULL%1,            Julie%Jackson%NULL%1,            Harsh%Jain%NULL%1,            Bhavini%Jaiswal%NULL%1,            Andrea C.%Johnson%NULL%1,            Jenniver A.%Jurynec%NULL%1,            Norma M%Kellter%NULL%1,            Adam%Kohl%NULL%1,            Zachary%Kon%NULL%1,            Markus%Kredel%NULL%1,            Karen%Kriska%NULL%1,            Chandra%Kunavarapu%NULL%1,            Oude%Lansink-Hartgring%NULL%1,            Jeliene%LaRocque%NULL%1,            Sharon Beth%Larson%NULL%1,            Tracie%Layne%NULL%1,            Stephane%Ledot%NULL%1,            Napolitan%Lena%NULL%1,            Jonathan%Lillie%NULL%1,            Gösta%Lotz%NULL%1,            Mark%Lucas%NULL%1,            Lee%Ludwigson%NULL%1,            Jacinta J.%Maas%NULL%1,            Joanna%Maertens%NULL%1,            David%Mast%NULL%1,            Scott%McCardle%NULL%1,            Bernard%McDonald%NULL%1,            Allison%McLarty%NULL%1,            Chelsea%McMahon%NULL%1,            Patrick%Meybohm%NULL%1,            Bart%Meyns%NULL%1,            Casey%Miller%NULL%1,            Fernando%Moraes Neto%NULL%1,            Kelly%Morris%NULL%1,            Ralf%Muellenbach%NULL%1,            Meghan%Nicholson%NULL%1,            Serena%O'Brien%NULL%1,            Kathryn%O'Keefe%NULL%1,            Tawnya%Ogston%NULL%1,            Gary%Oldenburg%NULL%1,            Fabiana M.%Oliveira%NULL%1,            Emily%Oppel%NULL%1,            Diego%Pardo%NULL%2,            Diego%Pardo%NULL%0,            Sara J.%Parker%NULL%1,            Finn M.%Pedersen%NULL%1,            Crescens%Pellecchia%NULL%1,            Jose A.S.%Pelligrini%NULL%1,            Thao T.N.%Pham%NULL%1,            Ann R.%Phillips%NULL%1,            Tasneem%Pirani%NULL%1,            Paweł%Piwowarczyk%NULL%1,            Robert%Plambeck%NULL%1,            William%Pruett%NULL%1,            Brittany%Quandt%NULL%1,            Kollengode%Ramanathan%NULL%1,            Alejandro%Rey%NULL%1,            Christian%Reyher%NULL%1,            Jordi%Riera del Brio%NULL%1,            Rachel%Roberts%NULL%1,            David%Roe%NULL%1,            Peter P.%Roeleveld%NULL%1,            Janet%Rudy%NULL%1,            Luis F.%Rueda%NULL%1,            Emanuele%Russo%NULL%1,            Jesús%Sánchez Ballesteros%NULL%1,            Nancy%Satou%NULL%1,            Mauricio Guidi%Saueressig%NULL%1,            Paul C.%Saunders%NULL%1,            Margaret%Schlotterbeck%NULL%1,            Patricia%Schwarz%NULL%1,            Nicole%Scriven%NULL%1,            Alexis%Serra%NULL%1,            Mohammad%Shamsah%NULL%1,            Lucy%Sim%NULL%1,            Alexandra%Smart%NULL%1,            Adam%Smith%NULL%1,            Deane%Smith%NULL%1,            Maggie%Smith%NULL%1,            Neel%Sodha%NULL%1,            Michael%Sonntagbauer%NULL%1,            Marc%Sorenson%NULL%1,            Eric B%Stallkamp%NULL%1,            Allison%Stewart%NULL%1,            Kathy%Swartz%NULL%1,            Koji%Takeda%NULL%1,            Shaun%Thompson%NULL%1,            Bridget%Toy%NULL%1,            Divina%Tuazon%NULL%1,            Makoto%Uchiyama%NULL%1,            Obiora I.%Udeozo%NULL%1,            Scott%van Poppel%NULL%1,            Corey%Ventetuolo%NULL%1,            Leen%Vercaemst%NULL%1,            Nguyen V.%Vinh Chau%NULL%1,            I-Wen%Wang%NULL%1,            Carrie%Williamson%NULL%1,            Brock%Wilson%NULL%1,            Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,            Susan%Dashey%NULL%1,            Abigail%Stubbs%NULL%1,            Florence YL%Lai%NULL%1,            Paul W%Bird%NULL%1,            Vinay%Badhwar%NULL%1,            Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,            Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,            Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,            Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,            Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,            Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,            Elise%Godeau%elisegodeau@gmail.com%1,            Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,            Steven%Grange%Steven.Grange@chu-rouen.fr%1,            Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,            Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,            Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,            Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,            Alexandra%Monnier%NULL%1,            Marc%Puyraveau%NULL%1,            Stephanie%Perrier%NULL%1,            Pierre-Olivier%Ludes%NULL%1,            Anne%Olland%NULL%1,            Paul-Michel%Mertes%NULL%2,            Francis%Schneider%NULL%2,            Julie%Helms%NULL%3,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,     Clark g.%Owyang%xref no email%1,     Jai%Madhok%xref no email%1,     Florent%Laverdure%xref no email%1,     Ma\u00efra%Gaillard%xref no email%1,     Antoine%Girault%xref no email%1,     Guillaume%Lebreton%xref no email%1,     Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,            Christophe%Beyls%NULL%2,            Christophe%Beyls%NULL%0,            Mathieu%Guilbart%NULL%1,            Alexandre%Coquet%NULL%1,            Pascal%Berna%NULL%1,            Guillaume%Haye%NULL%1,            Pierre-Alexandre%Roger%NULL%1,            Patricia%Besserve%NULL%1,            Michael%Bernasinski%NULL%1,            Hervé%Dupont%NULL%1,            Osama%Abou-Arab%NULL%1,            Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,            Jonathan%Rilinger%NULL%2,            Jonathan%Rilinger%NULL%0,            Corinna Nadine%Lang%NULL%2,            Corinna Nadine%Lang%NULL%0,            Viviane%Zotzmann%NULL%1,            Klaus%Kaier%NULL%1,            Peter%Stachon%NULL%1,            Paul Marc%Biever%NULL%1,            Tobias%Wengenmayer%NULL%1,            Daniel%Duerschmied%NULL%1,            Christoph%Bode%NULL%1,            Dawid Leander%Staudacher%NULL%1,            Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,            JaeBum%Kim%NULL%1,            Jonghyun%Baek%NULL%1,            Hanna%Jung%NULL%1,            Jae Seok%Jang%NULL%1,            Jae Seok%Park%NULL%0,            Tak-Hyuk%Oh%NULL%1,            Se Yong%Jang%NULL%1,            Yun Seok%Kim%NULL%1,            Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,            S.%Besset%NULL%1,            S.%Freita-Ramos%NULL%1,            M.%Amouretti%NULL%1,            P.A.%Billiet%NULL%1,            M.%Dao%NULL%1,            L.M.%Dumont%NULL%1,            L.%Federici%NULL%1,            B.%Gaborieau%NULL%1,            D.%Longrois%NULL%1,            P.%Postel-Vinay%NULL%1,            C.%Vuillard%NULL%1,            N.%Zucman%NULL%1,            G.%Lebreton%NULL%1,            A.%Combes%NULL%1,            D.%Dreyfuss%NULL%1,            J.D.%Ricard%NULL%1,            D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,            Jean-Daniel%Chiche%NULL%1,            Julien%Charpentier%NULL%1,            Zakaria%Ait Hamou%NULL%1,            Paul%Jaubert%NULL%1,            Sarah%Benghanem%NULL%1,            Pierre%Dupland%NULL%1,            Ariane%Gavaud%NULL%1,            Frédéric%Péne%NULL%1,            Alain%Cariou%NULL%1,            Jean-Paul%Mira%NULL%1,            Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,     C.W.%Freeman%xref no email%1,     S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,            Dominik%Jarczak%NULL%1,            Liina%Thasler%NULL%1,            Martin%Bachmann%NULL%1,            Frank%Schulte%NULL%1,            Berthold%Bein%NULL%1,            Christian Friedrich%Weber%NULL%1,            Ulrich%Schäfer%NULL%1,            Carsten%Veit%NULL%1,            Hans-Peter%Hauber%NULL%1,            Sebastian%Kopp%NULL%1,            Karsten%Sydow%NULL%1,            Andreas%de Weerth%NULL%1,            Marc%Bota%NULL%1,            Rüdiger%Schreiber%NULL%1,            Oliver%Detsch%NULL%1,            Jan-Peer%Rogmann%NULL%1,            Daniel%Frings%NULL%1,            Barbara%Sensen%NULL%1,            Christoph%Burdelski%NULL%1,            Olaf%Boenisch%NULL%1,            Axel%Nierhaus%NULL%1,            Geraldine%de Heer%NULL%1,            Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,            J. Michael%DiMaio%NULL%1,            John J.%Squiers%NULL%1,            Jasjit K.%Banwait%NULL%1,            Dan M.%Meyer%NULL%1,            Timothy J.%George%NULL%1,            Gary S.%Schwartz%NULL%1,            Britton A.%Blough%NULL%1,            Robert L.%Gottlieb%NULL%1,            Gonzo%Gonzalez-Stawinski%NULL%1,            Anita R.%Krueger%NULL%1,            Kara%Monday%NULL%1,            Ramachandra C.%Reddy%NULL%1,            Jorge F.%Velazco%NULL%1,            Omar%Hernandez%NULL%1,            Chris%Martin%NULL%1,            Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,            Blair%Merrick%NULL%2,            Blair%Merrick%NULL%0,            Genex L.%Correa%NULL%1,            Luigi%Camporota%NULL%1,            Andrew%Retter%NULL%1,            Andrew%Doyle%NULL%1,            Guy W.%Glover%NULL%2,            Guy W.%Glover%NULL%0,            Peter B.%Sherren%NULL%1,            Stephen J.%Tricklebank%NULL%1,            Sangita%Agarwal%NULL%1,            Boris E.%Lams%NULL%1,            Nicholas A.%Barrett%NULL%1,            Nicholas%Ioannou%NULL%1,            Jonathan%Edgeworth%NULL%1,            Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,            Akshay%Kohli%coreGivesNoEmail%1,            Alexandra%Pratt%coreGivesNoEmail%1,            Emil%Oweis%coreGivesNoEmail%1,            Eric%Kriner%coreGivesNoEmail%1,            Ezequiel%Molina%coreGivesNoEmail%1,            Fatima%Hayat%coreGivesNoEmail%1,            Karthik%Vedantam%coreGivesNoEmail%1,            Makdisi%G%coreGivesNoEmail%1,            Muhammad%D Hashmi%coreGivesNoEmail%1,            Muhtadi%Alnababteh%coreGivesNoEmail%1,            Rajus%Chopra%coreGivesNoEmail%1,            World%Health Organization%coreGivesNoEmail%1,            Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,             Olusegun%Olusanya%NULL%2,             Olusegun%Olusanya%NULL%0,             Marta Montero%Baladia%NULL%1,             Harriet%Young%NULL%1,             Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,             Graeme%MacLaren%NULL%1,             Philip S%Boonstra%NULL%1,             Theodore J%Iwashyna%NULL%1,             Arthur S%Slutsky%NULL%1,             Eddy%Fan%NULL%1,             Robert H%Bartlett%NULL%1,             Joseph E%Tonna%NULL%1,             Robert%Hyslop%NULL%1,             Jeffrey J%Fanning%NULL%1,             Peter T%Rycus%NULL%1,             Steve J%Hyer%NULL%1,             Marc M%Anders%NULL%1,             Cara L%Agerstrand%NULL%1,             Katarzyna%Hryniewicz%NULL%1,             Rodrigo%Diaz%NULL%1,             Roberto%Lorusso%NULL%1,             Alain%Combes%NULL%1,             Daniel%Brodie%NULL%0,             Peta%Alexander%NULL%1,             Nicholas%Barrett%NULL%0,             Jan%Bělohlávek%NULL%1,             Dale%Fisher%NULL%1,             John%Fraser%NULL%1,             Ali Ait%Hssain%NULL%0,             Jae Sung%Jung%NULL%1,             Michael%McMullan%NULL%1,             Yatin%Mehta%NULL%1,             Mark T.%Ogino%NULL%1,             Matthew L.%Paden%NULL%1,             Kiran%Shekar%NULL%1,             Christine%Stead%NULL%1,             Yasir%Abu-Omar%NULL%1,             Vanni%Agnoletti%NULL%1,             Anzila%Akbar%NULL%1,             Huda%Alfoudri%NULL%1,             Carlos%Alviar%NULL%1,             Vladimir%Aronsky%NULL%1,             Erin%August%NULL%1,             Georg%Auzinger%NULL%1,             Hilda%Aveja%NULL%1,             Rhonda%Bakken%NULL%1,             Joan%Balcells%NULL%1,             Sripal%Bangalore%NULL%1,             Bernard W.%Barnes%NULL%1,             Alaiza%Bautista%NULL%1,             Lorraine L.%Bellows%NULL%1,             Felipe%Beltran%NULL%1,             Peyman%Benharash%NULL%1,             Marco%Benni%NULL%1,             Jennifer%Berg%NULL%1,             Pietro%Bertini%NULL%1,             Pablo%Blanco-Schweizer%NULL%1,             Melissa%Brunsvold%NULL%1,             Jenny%Budd%NULL%1,             Debra%Camp%NULL%1,             Mark%Caridi-Scheible%NULL%0,             Edmund%Carton%NULL%1,             Elena%Casanova-Ghosh%NULL%1,             Anthony%Castleberry%NULL%1,             Christopher T.%Chipongian%NULL%1,             Chang Woo%Choi%NULL%1,             Alessandro%Circelli%NULL%1,             Elliott%Cohen%NULL%1,             Michael%Collins%NULL%1,             Scott%Copus%NULL%1,             Jill%Coy%NULL%1,             Brandon%Crist%NULL%1,             Leonora%Cruz%NULL%1,             Mirosław%Czuczwar%NULL%1,             Mani%Daneshmand%NULL%1,             Daniel%Davis II%NULL%1,             Kim%De la Cruz%NULL%1,             Cyndie%Devers%NULL%1,             Toni%Duculan%NULL%1,             Lucian%Durham%NULL%1,             Subbarao%Elapavaluru%NULL%1,             Carlos V.%Elzo Kraemer%NULL%1,             EDMÍLSON CARDOSO%Filho%NULL%1,             Jillian%Fitzgerald%NULL%1,             Giuseppe%Foti%NULL%1,             Matthew%Fox%NULL%1,             David%Fritschen%NULL%1,             David%Fullerton%NULL%1,             Elton%Gelandt%NULL%1,             Stacy%Gerle%NULL%1,             Marco%Giani%NULL%1,             Si Guim%Goh%NULL%1,             Sara%Govener%NULL%1,             Julie%Grone%NULL%1,             Miles%Guber%NULL%1,             Vadim%Gudzenko%NULL%1,             Daniel%Gutteridge%NULL%1,             Jennifer%Guy%NULL%1,             Jonathan%Haft%NULL%1,             Cameron%Hall%NULL%1,             Ibrahim Fawzy%Hassan%NULL%1,             Rubén%Herrán%NULL%1,             Hitoshi%Hirose%NULL%0,             Abdulsalam Saif%Ibrahim%NULL%1,             Don%Igielski%NULL%1,             Felicia A.%Ivascu%NULL%1,             Jaume%Izquierdo Blasco%NULL%1,             Julie%Jackson%NULL%1,             Harsh%Jain%NULL%1,             Bhavini%Jaiswal%NULL%1,             Andrea C.%Johnson%NULL%1,             Jenniver A.%Jurynec%NULL%1,             Norma M%Kellter%NULL%1,             Adam%Kohl%NULL%1,             Zachary%Kon%NULL%1,             Markus%Kredel%NULL%1,             Karen%Kriska%NULL%1,             Chandra%Kunavarapu%NULL%1,             Oude%Lansink-Hartgring%NULL%1,             Jeliene%LaRocque%NULL%1,             Sharon Beth%Larson%NULL%1,             Tracie%Layne%NULL%1,             Stephane%Ledot%NULL%1,             Napolitan%Lena%NULL%1,             Jonathan%Lillie%NULL%1,             Gösta%Lotz%NULL%1,             Mark%Lucas%NULL%1,             Lee%Ludwigson%NULL%1,             Jacinta J.%Maas%NULL%1,             Joanna%Maertens%NULL%1,             David%Mast%NULL%1,             Scott%McCardle%NULL%1,             Bernard%McDonald%NULL%1,             Allison%McLarty%NULL%1,             Chelsea%McMahon%NULL%1,             Patrick%Meybohm%NULL%1,             Bart%Meyns%NULL%1,             Casey%Miller%NULL%1,             Fernando%Moraes Neto%NULL%1,             Kelly%Morris%NULL%1,             Ralf%Muellenbach%NULL%1,             Meghan%Nicholson%NULL%1,             Serena%O'Brien%NULL%1,             Kathryn%O'Keefe%NULL%1,             Tawnya%Ogston%NULL%1,             Gary%Oldenburg%NULL%1,             Fabiana M.%Oliveira%NULL%1,             Emily%Oppel%NULL%1,             Diego%Pardo%NULL%2,             Diego%Pardo%NULL%0,             Sara J.%Parker%NULL%1,             Finn M.%Pedersen%NULL%1,             Crescens%Pellecchia%NULL%1,             Jose A.S.%Pelligrini%NULL%1,             Thao T.N.%Pham%NULL%1,             Ann R.%Phillips%NULL%1,             Tasneem%Pirani%NULL%1,             Paweł%Piwowarczyk%NULL%1,             Robert%Plambeck%NULL%1,             William%Pruett%NULL%1,             Brittany%Quandt%NULL%1,             Kollengode%Ramanathan%NULL%1,             Alejandro%Rey%NULL%1,             Christian%Reyher%NULL%1,             Jordi%Riera del Brio%NULL%1,             Rachel%Roberts%NULL%1,             David%Roe%NULL%1,             Peter P.%Roeleveld%NULL%1,             Janet%Rudy%NULL%1,             Luis F.%Rueda%NULL%1,             Emanuele%Russo%NULL%1,             Jesús%Sánchez Ballesteros%NULL%1,             Nancy%Satou%NULL%1,             Mauricio Guidi%Saueressig%NULL%1,             Paul C.%Saunders%NULL%1,             Margaret%Schlotterbeck%NULL%1,             Patricia%Schwarz%NULL%1,             Nicole%Scriven%NULL%1,             Alexis%Serra%NULL%1,             Mohammad%Shamsah%NULL%1,             Lucy%Sim%NULL%1,             Alexandra%Smart%NULL%1,             Adam%Smith%NULL%1,             Deane%Smith%NULL%1,             Maggie%Smith%NULL%1,             Neel%Sodha%NULL%1,             Michael%Sonntagbauer%NULL%1,             Marc%Sorenson%NULL%1,             Eric B%Stallkamp%NULL%1,             Allison%Stewart%NULL%1,             Kathy%Swartz%NULL%1,             Koji%Takeda%NULL%1,             Shaun%Thompson%NULL%1,             Bridget%Toy%NULL%1,             Divina%Tuazon%NULL%1,             Makoto%Uchiyama%NULL%1,             Obiora I.%Udeozo%NULL%1,             Scott%van Poppel%NULL%1,             Corey%Ventetuolo%NULL%1,             Leen%Vercaemst%NULL%1,             Nguyen V.%Vinh Chau%NULL%1,             I-Wen%Wang%NULL%1,             Carrie%Williamson%NULL%1,             Brock%Wilson%NULL%1,             Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,             Susan%Dashey%NULL%1,             Abigail%Stubbs%NULL%1,             Florence YL%Lai%NULL%1,             Paul W%Bird%NULL%1,             Vinay%Badhwar%NULL%1,             Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,             Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,             Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,             Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,             Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,             Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,             Elise%Godeau%elisegodeau@gmail.com%1,             Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,             Steven%Grange%Steven.Grange@chu-rouen.fr%1,             Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,             Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,             Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,             Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,             Alexandra%Monnier%NULL%1,             Marc%Puyraveau%NULL%1,             Stephanie%Perrier%NULL%1,             Pierre-Olivier%Ludes%NULL%1,             Anne%Olland%NULL%1,             Paul-Michel%Mertes%NULL%2,             Francis%Schneider%NULL%2,             Julie%Helms%NULL%3,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,      Clark g.%Owyang%xref no email%1,      Jai%Madhok%xref no email%1,      Florent%Laverdure%xref no email%1,      Ma\u00efra%Gaillard%xref no email%1,      Antoine%Girault%xref no email%1,      Guillaume%Lebreton%xref no email%1,      Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,             Christophe%Beyls%NULL%2,             Christophe%Beyls%NULL%0,             Mathieu%Guilbart%NULL%1,             Alexandre%Coquet%NULL%1,             Pascal%Berna%NULL%1,             Guillaume%Haye%NULL%1,             Pierre-Alexandre%Roger%NULL%1,             Patricia%Besserve%NULL%1,             Michael%Bernasinski%NULL%1,             Hervé%Dupont%NULL%1,             Osama%Abou-Arab%NULL%1,             Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,             Jonathan%Rilinger%NULL%2,             Jonathan%Rilinger%NULL%0,             Corinna Nadine%Lang%NULL%2,             Corinna Nadine%Lang%NULL%0,             Viviane%Zotzmann%NULL%1,             Klaus%Kaier%NULL%1,             Peter%Stachon%NULL%1,             Paul Marc%Biever%NULL%1,             Tobias%Wengenmayer%NULL%1,             Daniel%Duerschmied%NULL%1,             Christoph%Bode%NULL%1,             Dawid Leander%Staudacher%NULL%1,             Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,             JaeBum%Kim%NULL%1,             Jonghyun%Baek%NULL%1,             Hanna%Jung%NULL%1,             Jae Seok%Jang%NULL%1,             Jae Seok%Park%NULL%0,             Tak-Hyuk%Oh%NULL%1,             Se Yong%Jang%NULL%1,             Yun Seok%Kim%NULL%1,             Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,             S.%Besset%NULL%1,             S.%Freita-Ramos%NULL%1,             M.%Amouretti%NULL%1,             P.A.%Billiet%NULL%1,             M.%Dao%NULL%1,             L.M.%Dumont%NULL%1,             L.%Federici%NULL%1,             B.%Gaborieau%NULL%1,             D.%Longrois%NULL%1,             P.%Postel-Vinay%NULL%1,             C.%Vuillard%NULL%1,             N.%Zucman%NULL%1,             G.%Lebreton%NULL%1,             A.%Combes%NULL%1,             D.%Dreyfuss%NULL%1,             J.D.%Ricard%NULL%1,             D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,             Jean-Daniel%Chiche%NULL%1,             Julien%Charpentier%NULL%1,             Zakaria%Ait Hamou%NULL%1,             Paul%Jaubert%NULL%1,             Sarah%Benghanem%NULL%1,             Pierre%Dupland%NULL%1,             Ariane%Gavaud%NULL%1,             Frédéric%Péne%NULL%1,             Alain%Cariou%NULL%1,             Jean-Paul%Mira%NULL%1,             Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,      C.W.%Freeman%xref no email%1,      S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,             Dominik%Jarczak%NULL%1,             Liina%Thasler%NULL%1,             Martin%Bachmann%NULL%1,             Frank%Schulte%NULL%1,             Berthold%Bein%NULL%1,             Christian Friedrich%Weber%NULL%1,             Ulrich%Schäfer%NULL%1,             Carsten%Veit%NULL%1,             Hans-Peter%Hauber%NULL%1,             Sebastian%Kopp%NULL%1,             Karsten%Sydow%NULL%1,             Andreas%de Weerth%NULL%1,             Marc%Bota%NULL%1,             Rüdiger%Schreiber%NULL%1,             Oliver%Detsch%NULL%1,             Jan-Peer%Rogmann%NULL%1,             Daniel%Frings%NULL%1,             Barbara%Sensen%NULL%1,             Christoph%Burdelski%NULL%1,             Olaf%Boenisch%NULL%1,             Axel%Nierhaus%NULL%1,             Geraldine%de Heer%NULL%1,             Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,             J. Michael%DiMaio%NULL%1,             John J.%Squiers%NULL%1,             Jasjit K.%Banwait%NULL%1,             Dan M.%Meyer%NULL%1,             Timothy J.%George%NULL%1,             Gary S.%Schwartz%NULL%1,             Britton A.%Blough%NULL%1,             Robert L.%Gottlieb%NULL%1,             Gonzo%Gonzalez-Stawinski%NULL%1,             Anita R.%Krueger%NULL%1,             Kara%Monday%NULL%1,             Ramachandra C.%Reddy%NULL%1,             Jorge F.%Velazco%NULL%1,             Omar%Hernandez%NULL%1,             Chris%Martin%NULL%1,             Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,             Blair%Merrick%NULL%2,             Blair%Merrick%NULL%0,             Genex L.%Correa%NULL%1,             Luigi%Camporota%NULL%1,             Andrew%Retter%NULL%1,             Andrew%Doyle%NULL%1,             Guy W.%Glover%NULL%2,             Guy W.%Glover%NULL%0,             Peter B.%Sherren%NULL%1,             Stephen J.%Tricklebank%NULL%1,             Sangita%Agarwal%NULL%1,             Boris E.%Lams%NULL%1,             Nicholas A.%Barrett%NULL%1,             Nicholas%Ioannou%NULL%1,             Jonathan%Edgeworth%NULL%1,             Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1367,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1275,10 +1393,10 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1307,7 +1425,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1336,7 +1454,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1365,7 +1483,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1394,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1423,7 +1541,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1452,7 +1570,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1481,7 +1599,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1510,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1539,7 +1657,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1568,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1597,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1626,7 +1744,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1655,7 +1773,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1684,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="302">
   <si>
     <t>Doi</t>
   </si>
@@ -1028,6 +1028,54 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,             Blair%Merrick%NULL%2,             Blair%Merrick%NULL%0,             Genex L.%Correa%NULL%1,             Luigi%Camporota%NULL%1,             Andrew%Retter%NULL%1,             Andrew%Doyle%NULL%1,             Guy W.%Glover%NULL%2,             Guy W.%Glover%NULL%0,             Peter B.%Sherren%NULL%1,             Stephen J.%Tricklebank%NULL%1,             Sangita%Agarwal%NULL%1,             Boris E.%Lams%NULL%1,             Nicholas A.%Barrett%NULL%1,             Nicholas%Ioannou%NULL%1,             Jonathan%Edgeworth%NULL%1,             Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,             Akshay%Kohli%coreGivesNoEmail%1,             Alexandra%Pratt%coreGivesNoEmail%1,             Emil%Oweis%coreGivesNoEmail%1,             Eric%Kriner%coreGivesNoEmail%1,             Ezequiel%Molina%coreGivesNoEmail%1,             Fatima%Hayat%coreGivesNoEmail%1,             Karthik%Vedantam%coreGivesNoEmail%1,             Makdisi%G%coreGivesNoEmail%1,             Muhammad%D Hashmi%coreGivesNoEmail%1,             Muhtadi%Alnababteh%coreGivesNoEmail%1,             Rajus%Chopra%coreGivesNoEmail%1,             World%Health Organization%coreGivesNoEmail%1,             Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,              Olusegun%Olusanya%NULL%2,              Olusegun%Olusanya%NULL%0,              Marta Montero%Baladia%NULL%1,              Harriet%Young%NULL%1,              Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,              Graeme%MacLaren%NULL%1,              Philip S%Boonstra%NULL%1,              Theodore J%Iwashyna%NULL%1,              Arthur S%Slutsky%NULL%1,              Eddy%Fan%NULL%1,              Robert H%Bartlett%NULL%1,              Joseph E%Tonna%NULL%1,              Robert%Hyslop%NULL%1,              Jeffrey J%Fanning%NULL%1,              Peter T%Rycus%NULL%1,              Steve J%Hyer%NULL%1,              Marc M%Anders%NULL%1,              Cara L%Agerstrand%NULL%1,              Katarzyna%Hryniewicz%NULL%1,              Rodrigo%Diaz%NULL%1,              Roberto%Lorusso%NULL%1,              Alain%Combes%NULL%1,              Daniel%Brodie%NULL%0,              Peta%Alexander%NULL%1,              Nicholas%Barrett%NULL%0,              Jan%Bělohlávek%NULL%1,              Dale%Fisher%NULL%1,              John%Fraser%NULL%1,              Ali Ait%Hssain%NULL%0,              Jae Sung%Jung%NULL%1,              Michael%McMullan%NULL%1,              Yatin%Mehta%NULL%1,              Mark T.%Ogino%NULL%1,              Matthew L.%Paden%NULL%1,              Kiran%Shekar%NULL%1,              Christine%Stead%NULL%1,              Yasir%Abu-Omar%NULL%1,              Vanni%Agnoletti%NULL%1,              Anzila%Akbar%NULL%1,              Huda%Alfoudri%NULL%1,              Carlos%Alviar%NULL%1,              Vladimir%Aronsky%NULL%1,              Erin%August%NULL%1,              Georg%Auzinger%NULL%1,              Hilda%Aveja%NULL%1,              Rhonda%Bakken%NULL%1,              Joan%Balcells%NULL%1,              Sripal%Bangalore%NULL%1,              Bernard W.%Barnes%NULL%1,              Alaiza%Bautista%NULL%1,              Lorraine L.%Bellows%NULL%1,              Felipe%Beltran%NULL%1,              Peyman%Benharash%NULL%1,              Marco%Benni%NULL%1,              Jennifer%Berg%NULL%1,              Pietro%Bertini%NULL%1,              Pablo%Blanco-Schweizer%NULL%1,              Melissa%Brunsvold%NULL%1,              Jenny%Budd%NULL%1,              Debra%Camp%NULL%1,              Mark%Caridi-Scheible%NULL%0,              Edmund%Carton%NULL%1,              Elena%Casanova-Ghosh%NULL%1,              Anthony%Castleberry%NULL%1,              Christopher T.%Chipongian%NULL%1,              Chang Woo%Choi%NULL%1,              Alessandro%Circelli%NULL%1,              Elliott%Cohen%NULL%1,              Michael%Collins%NULL%1,              Scott%Copus%NULL%1,              Jill%Coy%NULL%1,              Brandon%Crist%NULL%1,              Leonora%Cruz%NULL%1,              Mirosław%Czuczwar%NULL%1,              Mani%Daneshmand%NULL%1,              Daniel%Davis II%NULL%1,              Kim%De la Cruz%NULL%1,              Cyndie%Devers%NULL%1,              Toni%Duculan%NULL%1,              Lucian%Durham%NULL%1,              Subbarao%Elapavaluru%NULL%1,              Carlos V.%Elzo Kraemer%NULL%1,              EDMÍLSON CARDOSO%Filho%NULL%1,              Jillian%Fitzgerald%NULL%1,              Giuseppe%Foti%NULL%1,              Matthew%Fox%NULL%1,              David%Fritschen%NULL%1,              David%Fullerton%NULL%1,              Elton%Gelandt%NULL%1,              Stacy%Gerle%NULL%1,              Marco%Giani%NULL%1,              Si Guim%Goh%NULL%1,              Sara%Govener%NULL%1,              Julie%Grone%NULL%1,              Miles%Guber%NULL%1,              Vadim%Gudzenko%NULL%1,              Daniel%Gutteridge%NULL%1,              Jennifer%Guy%NULL%1,              Jonathan%Haft%NULL%1,              Cameron%Hall%NULL%1,              Ibrahim Fawzy%Hassan%NULL%1,              Rubén%Herrán%NULL%1,              Hitoshi%Hirose%NULL%0,              Abdulsalam Saif%Ibrahim%NULL%1,              Don%Igielski%NULL%1,              Felicia A.%Ivascu%NULL%1,              Jaume%Izquierdo Blasco%NULL%1,              Julie%Jackson%NULL%1,              Harsh%Jain%NULL%1,              Bhavini%Jaiswal%NULL%1,              Andrea C.%Johnson%NULL%1,              Jenniver A.%Jurynec%NULL%1,              Norma M%Kellter%NULL%1,              Adam%Kohl%NULL%1,              Zachary%Kon%NULL%1,              Markus%Kredel%NULL%1,              Karen%Kriska%NULL%1,              Chandra%Kunavarapu%NULL%1,              Oude%Lansink-Hartgring%NULL%1,              Jeliene%LaRocque%NULL%1,              Sharon Beth%Larson%NULL%1,              Tracie%Layne%NULL%1,              Stephane%Ledot%NULL%1,              Napolitan%Lena%NULL%1,              Jonathan%Lillie%NULL%1,              Gösta%Lotz%NULL%1,              Mark%Lucas%NULL%1,              Lee%Ludwigson%NULL%1,              Jacinta J.%Maas%NULL%1,              Joanna%Maertens%NULL%1,              David%Mast%NULL%1,              Scott%McCardle%NULL%1,              Bernard%McDonald%NULL%1,              Allison%McLarty%NULL%1,              Chelsea%McMahon%NULL%1,              Patrick%Meybohm%NULL%1,              Bart%Meyns%NULL%1,              Casey%Miller%NULL%1,              Fernando%Moraes Neto%NULL%1,              Kelly%Morris%NULL%1,              Ralf%Muellenbach%NULL%1,              Meghan%Nicholson%NULL%1,              Serena%O'Brien%NULL%1,              Kathryn%O'Keefe%NULL%1,              Tawnya%Ogston%NULL%1,              Gary%Oldenburg%NULL%1,              Fabiana M.%Oliveira%NULL%1,              Emily%Oppel%NULL%1,              Diego%Pardo%NULL%2,              Diego%Pardo%NULL%0,              Sara J.%Parker%NULL%1,              Finn M.%Pedersen%NULL%1,              Crescens%Pellecchia%NULL%1,              Jose A.S.%Pelligrini%NULL%1,              Thao T.N.%Pham%NULL%1,              Ann R.%Phillips%NULL%1,              Tasneem%Pirani%NULL%1,              Paweł%Piwowarczyk%NULL%1,              Robert%Plambeck%NULL%1,              William%Pruett%NULL%1,              Brittany%Quandt%NULL%1,              Kollengode%Ramanathan%NULL%1,              Alejandro%Rey%NULL%1,              Christian%Reyher%NULL%1,              Jordi%Riera del Brio%NULL%1,              Rachel%Roberts%NULL%1,              David%Roe%NULL%1,              Peter P.%Roeleveld%NULL%1,              Janet%Rudy%NULL%1,              Luis F.%Rueda%NULL%1,              Emanuele%Russo%NULL%1,              Jesús%Sánchez Ballesteros%NULL%1,              Nancy%Satou%NULL%1,              Mauricio Guidi%Saueressig%NULL%1,              Paul C.%Saunders%NULL%1,              Margaret%Schlotterbeck%NULL%1,              Patricia%Schwarz%NULL%1,              Nicole%Scriven%NULL%1,              Alexis%Serra%NULL%1,              Mohammad%Shamsah%NULL%1,              Lucy%Sim%NULL%1,              Alexandra%Smart%NULL%1,              Adam%Smith%NULL%1,              Deane%Smith%NULL%1,              Maggie%Smith%NULL%1,              Neel%Sodha%NULL%1,              Michael%Sonntagbauer%NULL%1,              Marc%Sorenson%NULL%1,              Eric B%Stallkamp%NULL%1,              Allison%Stewart%NULL%1,              Kathy%Swartz%NULL%1,              Koji%Takeda%NULL%1,              Shaun%Thompson%NULL%1,              Bridget%Toy%NULL%1,              Divina%Tuazon%NULL%1,              Makoto%Uchiyama%NULL%1,              Obiora I.%Udeozo%NULL%1,              Scott%van Poppel%NULL%1,              Corey%Ventetuolo%NULL%1,              Leen%Vercaemst%NULL%1,              Nguyen V.%Vinh Chau%NULL%1,              I-Wen%Wang%NULL%1,              Carrie%Williamson%NULL%1,              Brock%Wilson%NULL%1,              Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,              Susan%Dashey%NULL%1,              Abigail%Stubbs%NULL%1,              Florence YL%Lai%NULL%1,              Paul W%Bird%NULL%1,              Vinay%Badhwar%NULL%1,              Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,              Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,              Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,              Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,              Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,              Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,              Elise%Godeau%elisegodeau@gmail.com%1,              Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,              Steven%Grange%Steven.Grange@chu-rouen.fr%1,              Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,              Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,              Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,              Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,              Alexandra%Monnier%NULL%1,              Marc%Puyraveau%NULL%1,              Stephanie%Perrier%NULL%1,              Pierre-Olivier%Ludes%NULL%1,              Anne%Olland%NULL%1,              Paul-Michel%Mertes%NULL%2,              Francis%Schneider%NULL%2,              Julie%Helms%NULL%3,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,       Clark g.%Owyang%xref no email%1,       Jai%Madhok%xref no email%1,       Florent%Laverdure%xref no email%1,       Ma\u00efra%Gaillard%xref no email%1,       Antoine%Girault%xref no email%1,       Guillaume%Lebreton%xref no email%1,       Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,              Christophe%Beyls%NULL%2,              Christophe%Beyls%NULL%0,              Mathieu%Guilbart%NULL%1,              Alexandre%Coquet%NULL%1,              Pascal%Berna%NULL%1,              Guillaume%Haye%NULL%1,              Pierre-Alexandre%Roger%NULL%1,              Patricia%Besserve%NULL%1,              Michael%Bernasinski%NULL%1,              Hervé%Dupont%NULL%1,              Osama%Abou-Arab%NULL%1,              Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,              Jonathan%Rilinger%NULL%2,              Jonathan%Rilinger%NULL%0,              Corinna Nadine%Lang%NULL%2,              Corinna Nadine%Lang%NULL%0,              Viviane%Zotzmann%NULL%1,              Klaus%Kaier%NULL%1,              Peter%Stachon%NULL%1,              Paul Marc%Biever%NULL%1,              Tobias%Wengenmayer%NULL%1,              Daniel%Duerschmied%NULL%1,              Christoph%Bode%NULL%1,              Dawid Leander%Staudacher%NULL%1,              Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,              JaeBum%Kim%NULL%1,              Jonghyun%Baek%NULL%1,              Hanna%Jung%NULL%1,              Jae Seok%Jang%NULL%1,              Jae Seok%Park%NULL%0,              Tak-Hyuk%Oh%NULL%1,              Se Yong%Jang%NULL%1,              Yun Seok%Kim%NULL%1,              Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,              S.%Besset%NULL%1,              S.%Freita-Ramos%NULL%1,              M.%Amouretti%NULL%1,              P.A.%Billiet%NULL%1,              M.%Dao%NULL%1,              L.M.%Dumont%NULL%1,              L.%Federici%NULL%1,              B.%Gaborieau%NULL%1,              D.%Longrois%NULL%1,              P.%Postel-Vinay%NULL%1,              C.%Vuillard%NULL%1,              N.%Zucman%NULL%1,              G.%Lebreton%NULL%1,              A.%Combes%NULL%1,              D.%Dreyfuss%NULL%1,              J.D.%Ricard%NULL%1,              D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,              Jean-Daniel%Chiche%NULL%1,              Julien%Charpentier%NULL%1,              Zakaria%Ait Hamou%NULL%1,              Paul%Jaubert%NULL%1,              Sarah%Benghanem%NULL%1,              Pierre%Dupland%NULL%1,              Ariane%Gavaud%NULL%1,              Frédéric%Péne%NULL%1,              Alain%Cariou%NULL%1,              Jean-Paul%Mira%NULL%1,              Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,       C.W.%Freeman%xref no email%1,       S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,              Dominik%Jarczak%NULL%1,              Liina%Thasler%NULL%1,              Martin%Bachmann%NULL%1,              Frank%Schulte%NULL%1,              Berthold%Bein%NULL%1,              Christian Friedrich%Weber%NULL%1,              Ulrich%Schäfer%NULL%1,              Carsten%Veit%NULL%1,              Hans-Peter%Hauber%NULL%1,              Sebastian%Kopp%NULL%1,              Karsten%Sydow%NULL%1,              Andreas%de Weerth%NULL%1,              Marc%Bota%NULL%1,              Rüdiger%Schreiber%NULL%1,              Oliver%Detsch%NULL%1,              Jan-Peer%Rogmann%NULL%1,              Daniel%Frings%NULL%1,              Barbara%Sensen%NULL%1,              Christoph%Burdelski%NULL%1,              Olaf%Boenisch%NULL%1,              Axel%Nierhaus%NULL%1,              Geraldine%de Heer%NULL%1,              Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,              J. Michael%DiMaio%NULL%1,              John J.%Squiers%NULL%1,              Jasjit K.%Banwait%NULL%1,              Dan M.%Meyer%NULL%1,              Timothy J.%George%NULL%1,              Gary S.%Schwartz%NULL%1,              Britton A.%Blough%NULL%1,              Robert L.%Gottlieb%NULL%1,              Gonzo%Gonzalez-Stawinski%NULL%1,              Anita R.%Krueger%NULL%1,              Kara%Monday%NULL%1,              Ramachandra C.%Reddy%NULL%1,              Jorge F.%Velazco%NULL%1,              Omar%Hernandez%NULL%1,              Chris%Martin%NULL%1,              Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,              Blair%Merrick%NULL%2,              Blair%Merrick%NULL%0,              Genex L.%Correa%NULL%1,              Luigi%Camporota%NULL%1,              Andrew%Retter%NULL%1,              Andrew%Doyle%NULL%1,              Guy W.%Glover%NULL%2,              Guy W.%Glover%NULL%0,              Peter B.%Sherren%NULL%1,              Stephen J.%Tricklebank%NULL%1,              Sangita%Agarwal%NULL%1,              Boris E.%Lams%NULL%1,              Nicholas A.%Barrett%NULL%1,              Nicholas%Ioannou%NULL%1,              Jonathan%Edgeworth%NULL%1,              Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1415,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1396,7 +1444,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1425,7 +1473,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1454,7 +1502,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1483,7 +1531,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1512,7 +1560,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1541,7 +1589,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1570,7 +1618,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1599,7 +1647,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1628,7 +1676,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1657,7 +1705,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1686,7 +1734,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1715,7 +1763,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1744,7 +1792,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1773,7 +1821,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1802,7 +1850,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="318">
   <si>
     <t>Doi</t>
   </si>
@@ -1076,6 +1076,54 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,              Blair%Merrick%NULL%2,              Blair%Merrick%NULL%0,              Genex L.%Correa%NULL%1,              Luigi%Camporota%NULL%1,              Andrew%Retter%NULL%1,              Andrew%Doyle%NULL%1,              Guy W.%Glover%NULL%2,              Guy W.%Glover%NULL%0,              Peter B.%Sherren%NULL%1,              Stephen J.%Tricklebank%NULL%1,              Sangita%Agarwal%NULL%1,              Boris E.%Lams%NULL%1,              Nicholas A.%Barrett%NULL%1,              Nicholas%Ioannou%NULL%1,              Jonathan%Edgeworth%NULL%1,              Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,              Akshay%Kohli%coreGivesNoEmail%1,              Alexandra%Pratt%coreGivesNoEmail%1,              Emil%Oweis%coreGivesNoEmail%1,              Eric%Kriner%coreGivesNoEmail%1,              Ezequiel%Molina%coreGivesNoEmail%1,              Fatima%Hayat%coreGivesNoEmail%1,              Karthik%Vedantam%coreGivesNoEmail%1,              Makdisi%G%coreGivesNoEmail%1,              Muhammad%D Hashmi%coreGivesNoEmail%1,              Muhtadi%Alnababteh%coreGivesNoEmail%1,              Rajus%Chopra%coreGivesNoEmail%1,              World%Health Organization%coreGivesNoEmail%1,              Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,               Olusegun%Olusanya%NULL%2,               Olusegun%Olusanya%NULL%0,               Marta Montero%Baladia%NULL%1,               Harriet%Young%NULL%1,               Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,               Graeme%MacLaren%NULL%1,               Philip S%Boonstra%NULL%1,               Theodore J%Iwashyna%NULL%1,               Arthur S%Slutsky%NULL%1,               Eddy%Fan%NULL%1,               Robert H%Bartlett%NULL%1,               Joseph E%Tonna%NULL%1,               Robert%Hyslop%NULL%1,               Jeffrey J%Fanning%NULL%1,               Peter T%Rycus%NULL%1,               Steve J%Hyer%NULL%1,               Marc M%Anders%NULL%1,               Cara L%Agerstrand%NULL%1,               Katarzyna%Hryniewicz%NULL%1,               Rodrigo%Diaz%NULL%1,               Roberto%Lorusso%NULL%1,               Alain%Combes%NULL%1,               Daniel%Brodie%NULL%0,               Peta%Alexander%NULL%1,               Nicholas%Barrett%NULL%0,               Jan%Bělohlávek%NULL%1,               Dale%Fisher%NULL%1,               John%Fraser%NULL%1,               Ali Ait%Hssain%NULL%0,               Jae Sung%Jung%NULL%1,               Michael%McMullan%NULL%1,               Yatin%Mehta%NULL%1,               Mark T.%Ogino%NULL%1,               Matthew L.%Paden%NULL%1,               Kiran%Shekar%NULL%1,               Christine%Stead%NULL%1,               Yasir%Abu-Omar%NULL%1,               Vanni%Agnoletti%NULL%1,               Anzila%Akbar%NULL%1,               Huda%Alfoudri%NULL%1,               Carlos%Alviar%NULL%1,               Vladimir%Aronsky%NULL%1,               Erin%August%NULL%1,               Georg%Auzinger%NULL%1,               Hilda%Aveja%NULL%1,               Rhonda%Bakken%NULL%1,               Joan%Balcells%NULL%1,               Sripal%Bangalore%NULL%1,               Bernard W.%Barnes%NULL%1,               Alaiza%Bautista%NULL%1,               Lorraine L.%Bellows%NULL%1,               Felipe%Beltran%NULL%1,               Peyman%Benharash%NULL%1,               Marco%Benni%NULL%1,               Jennifer%Berg%NULL%1,               Pietro%Bertini%NULL%1,               Pablo%Blanco-Schweizer%NULL%1,               Melissa%Brunsvold%NULL%1,               Jenny%Budd%NULL%1,               Debra%Camp%NULL%1,               Mark%Caridi-Scheible%NULL%0,               Edmund%Carton%NULL%1,               Elena%Casanova-Ghosh%NULL%1,               Anthony%Castleberry%NULL%1,               Christopher T.%Chipongian%NULL%1,               Chang Woo%Choi%NULL%1,               Alessandro%Circelli%NULL%1,               Elliott%Cohen%NULL%1,               Michael%Collins%NULL%1,               Scott%Copus%NULL%1,               Jill%Coy%NULL%1,               Brandon%Crist%NULL%1,               Leonora%Cruz%NULL%1,               Mirosław%Czuczwar%NULL%1,               Mani%Daneshmand%NULL%1,               Daniel%Davis II%NULL%1,               Kim%De la Cruz%NULL%1,               Cyndie%Devers%NULL%1,               Toni%Duculan%NULL%1,               Lucian%Durham%NULL%1,               Subbarao%Elapavaluru%NULL%1,               Carlos V.%Elzo Kraemer%NULL%1,               EDMÍLSON CARDOSO%Filho%NULL%1,               Jillian%Fitzgerald%NULL%1,               Giuseppe%Foti%NULL%1,               Matthew%Fox%NULL%1,               David%Fritschen%NULL%1,               David%Fullerton%NULL%1,               Elton%Gelandt%NULL%1,               Stacy%Gerle%NULL%1,               Marco%Giani%NULL%1,               Si Guim%Goh%NULL%1,               Sara%Govener%NULL%1,               Julie%Grone%NULL%1,               Miles%Guber%NULL%1,               Vadim%Gudzenko%NULL%1,               Daniel%Gutteridge%NULL%1,               Jennifer%Guy%NULL%1,               Jonathan%Haft%NULL%1,               Cameron%Hall%NULL%1,               Ibrahim Fawzy%Hassan%NULL%1,               Rubén%Herrán%NULL%1,               Hitoshi%Hirose%NULL%0,               Abdulsalam Saif%Ibrahim%NULL%1,               Don%Igielski%NULL%1,               Felicia A.%Ivascu%NULL%1,               Jaume%Izquierdo Blasco%NULL%1,               Julie%Jackson%NULL%1,               Harsh%Jain%NULL%1,               Bhavini%Jaiswal%NULL%1,               Andrea C.%Johnson%NULL%1,               Jenniver A.%Jurynec%NULL%1,               Norma M%Kellter%NULL%1,               Adam%Kohl%NULL%1,               Zachary%Kon%NULL%1,               Markus%Kredel%NULL%1,               Karen%Kriska%NULL%1,               Chandra%Kunavarapu%NULL%1,               Oude%Lansink-Hartgring%NULL%1,               Jeliene%LaRocque%NULL%1,               Sharon Beth%Larson%NULL%1,               Tracie%Layne%NULL%1,               Stephane%Ledot%NULL%1,               Napolitan%Lena%NULL%1,               Jonathan%Lillie%NULL%1,               Gösta%Lotz%NULL%1,               Mark%Lucas%NULL%1,               Lee%Ludwigson%NULL%1,               Jacinta J.%Maas%NULL%1,               Joanna%Maertens%NULL%1,               David%Mast%NULL%1,               Scott%McCardle%NULL%1,               Bernard%McDonald%NULL%1,               Allison%McLarty%NULL%1,               Chelsea%McMahon%NULL%1,               Patrick%Meybohm%NULL%1,               Bart%Meyns%NULL%1,               Casey%Miller%NULL%1,               Fernando%Moraes Neto%NULL%1,               Kelly%Morris%NULL%1,               Ralf%Muellenbach%NULL%1,               Meghan%Nicholson%NULL%1,               Serena%O'Brien%NULL%1,               Kathryn%O'Keefe%NULL%1,               Tawnya%Ogston%NULL%1,               Gary%Oldenburg%NULL%1,               Fabiana M.%Oliveira%NULL%1,               Emily%Oppel%NULL%1,               Diego%Pardo%NULL%2,               Diego%Pardo%NULL%0,               Sara J.%Parker%NULL%1,               Finn M.%Pedersen%NULL%1,               Crescens%Pellecchia%NULL%1,               Jose A.S.%Pelligrini%NULL%1,               Thao T.N.%Pham%NULL%1,               Ann R.%Phillips%NULL%1,               Tasneem%Pirani%NULL%1,               Paweł%Piwowarczyk%NULL%1,               Robert%Plambeck%NULL%1,               William%Pruett%NULL%1,               Brittany%Quandt%NULL%1,               Kollengode%Ramanathan%NULL%1,               Alejandro%Rey%NULL%1,               Christian%Reyher%NULL%1,               Jordi%Riera del Brio%NULL%1,               Rachel%Roberts%NULL%1,               David%Roe%NULL%1,               Peter P.%Roeleveld%NULL%1,               Janet%Rudy%NULL%1,               Luis F.%Rueda%NULL%1,               Emanuele%Russo%NULL%1,               Jesús%Sánchez Ballesteros%NULL%1,               Nancy%Satou%NULL%1,               Mauricio Guidi%Saueressig%NULL%1,               Paul C.%Saunders%NULL%1,               Margaret%Schlotterbeck%NULL%1,               Patricia%Schwarz%NULL%1,               Nicole%Scriven%NULL%1,               Alexis%Serra%NULL%1,               Mohammad%Shamsah%NULL%1,               Lucy%Sim%NULL%1,               Alexandra%Smart%NULL%1,               Adam%Smith%NULL%1,               Deane%Smith%NULL%1,               Maggie%Smith%NULL%1,               Neel%Sodha%NULL%1,               Michael%Sonntagbauer%NULL%1,               Marc%Sorenson%NULL%1,               Eric B%Stallkamp%NULL%1,               Allison%Stewart%NULL%1,               Kathy%Swartz%NULL%1,               Koji%Takeda%NULL%1,               Shaun%Thompson%NULL%1,               Bridget%Toy%NULL%1,               Divina%Tuazon%NULL%1,               Makoto%Uchiyama%NULL%1,               Obiora I.%Udeozo%NULL%1,               Scott%van Poppel%NULL%1,               Corey%Ventetuolo%NULL%1,               Leen%Vercaemst%NULL%1,               Nguyen V.%Vinh Chau%NULL%1,               I-Wen%Wang%NULL%1,               Carrie%Williamson%NULL%1,               Brock%Wilson%NULL%1,               Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,               Susan%Dashey%NULL%1,               Abigail%Stubbs%NULL%1,               Florence YL%Lai%NULL%1,               Paul W%Bird%NULL%1,               Vinay%Badhwar%NULL%1,               Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,               Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,               Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,               Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,               Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,               Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,               Elise%Godeau%elisegodeau@gmail.com%1,               Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,               Steven%Grange%Steven.Grange@chu-rouen.fr%1,               Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,               Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,               Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,               Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,               Alexandra%Monnier%NULL%1,               Marc%Puyraveau%NULL%1,               Stephanie%Perrier%NULL%1,               Pierre-Olivier%Ludes%NULL%1,               Anne%Olland%NULL%1,               Paul-Michel%Mertes%NULL%2,               Francis%Schneider%NULL%2,               Julie%Helms%NULL%3,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,        Clark g.%Owyang%xref no email%1,        Jai%Madhok%xref no email%1,        Florent%Laverdure%xref no email%1,        Ma\u00efra%Gaillard%xref no email%1,        Antoine%Girault%xref no email%1,        Guillaume%Lebreton%xref no email%1,        Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,               Christophe%Beyls%NULL%2,               Christophe%Beyls%NULL%0,               Mathieu%Guilbart%NULL%1,               Alexandre%Coquet%NULL%1,               Pascal%Berna%NULL%1,               Guillaume%Haye%NULL%1,               Pierre-Alexandre%Roger%NULL%1,               Patricia%Besserve%NULL%1,               Michael%Bernasinski%NULL%1,               Hervé%Dupont%NULL%1,               Osama%Abou-Arab%NULL%1,               Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,               Jonathan%Rilinger%NULL%2,               Jonathan%Rilinger%NULL%0,               Corinna Nadine%Lang%NULL%2,               Corinna Nadine%Lang%NULL%0,               Viviane%Zotzmann%NULL%1,               Klaus%Kaier%NULL%1,               Peter%Stachon%NULL%1,               Paul Marc%Biever%NULL%1,               Tobias%Wengenmayer%NULL%1,               Daniel%Duerschmied%NULL%1,               Christoph%Bode%NULL%1,               Dawid Leander%Staudacher%NULL%1,               Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,               JaeBum%Kim%NULL%1,               Jonghyun%Baek%NULL%1,               Hanna%Jung%NULL%1,               Jae Seok%Jang%NULL%1,               Jae Seok%Park%NULL%0,               Tak-Hyuk%Oh%NULL%1,               Se Yong%Jang%NULL%1,               Yun Seok%Kim%NULL%1,               Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,               S.%Besset%NULL%1,               S.%Freita-Ramos%NULL%1,               M.%Amouretti%NULL%1,               P.A.%Billiet%NULL%1,               M.%Dao%NULL%1,               L.M.%Dumont%NULL%1,               L.%Federici%NULL%1,               B.%Gaborieau%NULL%1,               D.%Longrois%NULL%1,               P.%Postel-Vinay%NULL%1,               C.%Vuillard%NULL%1,               N.%Zucman%NULL%1,               G.%Lebreton%NULL%1,               A.%Combes%NULL%1,               D.%Dreyfuss%NULL%1,               J.D.%Ricard%NULL%1,               D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,               Jean-Daniel%Chiche%NULL%1,               Julien%Charpentier%NULL%1,               Zakaria%Ait Hamou%NULL%1,               Paul%Jaubert%NULL%1,               Sarah%Benghanem%NULL%1,               Pierre%Dupland%NULL%1,               Ariane%Gavaud%NULL%1,               Frédéric%Péne%NULL%1,               Alain%Cariou%NULL%1,               Jean-Paul%Mira%NULL%1,               Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,        C.W.%Freeman%xref no email%1,        S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,               Dominik%Jarczak%NULL%1,               Liina%Thasler%NULL%1,               Martin%Bachmann%NULL%1,               Frank%Schulte%NULL%1,               Berthold%Bein%NULL%1,               Christian Friedrich%Weber%NULL%1,               Ulrich%Schäfer%NULL%1,               Carsten%Veit%NULL%1,               Hans-Peter%Hauber%NULL%1,               Sebastian%Kopp%NULL%1,               Karsten%Sydow%NULL%1,               Andreas%de Weerth%NULL%1,               Marc%Bota%NULL%1,               Rüdiger%Schreiber%NULL%1,               Oliver%Detsch%NULL%1,               Jan-Peer%Rogmann%NULL%1,               Daniel%Frings%NULL%1,               Barbara%Sensen%NULL%1,               Christoph%Burdelski%NULL%1,               Olaf%Boenisch%NULL%1,               Axel%Nierhaus%NULL%1,               Geraldine%de Heer%NULL%1,               Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,               J. Michael%DiMaio%NULL%1,               John J.%Squiers%NULL%1,               Jasjit K.%Banwait%NULL%1,               Dan M.%Meyer%NULL%1,               Timothy J.%George%NULL%1,               Gary S.%Schwartz%NULL%1,               Britton A.%Blough%NULL%1,               Robert L.%Gottlieb%NULL%1,               Gonzo%Gonzalez-Stawinski%NULL%1,               Anita R.%Krueger%NULL%1,               Kara%Monday%NULL%1,               Ramachandra C.%Reddy%NULL%1,               Jorge F.%Velazco%NULL%1,               Omar%Hernandez%NULL%1,               Chris%Martin%NULL%1,               Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,               Blair%Merrick%NULL%2,               Blair%Merrick%NULL%0,               Genex L.%Correa%NULL%1,               Luigi%Camporota%NULL%1,               Andrew%Retter%NULL%1,               Andrew%Doyle%NULL%1,               Guy W.%Glover%NULL%2,               Guy W.%Glover%NULL%0,               Peter B.%Sherren%NULL%1,               Stephen J.%Tricklebank%NULL%1,               Sangita%Agarwal%NULL%1,               Boris E.%Lams%NULL%1,               Nicholas A.%Barrett%NULL%1,               Nicholas%Ioannou%NULL%1,               Jonathan%Edgeworth%NULL%1,               Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1463,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1444,7 +1492,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1473,7 +1521,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1502,7 +1550,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1531,7 +1579,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1560,7 +1608,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1589,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1618,7 +1666,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1647,7 +1695,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1676,7 +1724,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1705,7 +1753,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1734,7 +1782,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1763,7 +1811,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1792,7 +1840,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1821,7 +1869,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1850,7 +1898,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="350">
   <si>
     <t>Doi</t>
   </si>
@@ -1124,6 +1124,102 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,               Blair%Merrick%NULL%2,               Blair%Merrick%NULL%0,               Genex L.%Correa%NULL%1,               Luigi%Camporota%NULL%1,               Andrew%Retter%NULL%1,               Andrew%Doyle%NULL%1,               Guy W.%Glover%NULL%2,               Guy W.%Glover%NULL%0,               Peter B.%Sherren%NULL%1,               Stephen J.%Tricklebank%NULL%1,               Sangita%Agarwal%NULL%1,               Boris E.%Lams%NULL%1,               Nicholas A.%Barrett%NULL%1,               Nicholas%Ioannou%NULL%1,               Jonathan%Edgeworth%NULL%1,               Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,               Akshay%Kohli%coreGivesNoEmail%1,               Alexandra%Pratt%coreGivesNoEmail%1,               Emil%Oweis%coreGivesNoEmail%1,               Eric%Kriner%coreGivesNoEmail%1,               Ezequiel%Molina%coreGivesNoEmail%1,               Fatima%Hayat%coreGivesNoEmail%1,               Karthik%Vedantam%coreGivesNoEmail%1,               Makdisi%G%coreGivesNoEmail%1,               Muhammad%D Hashmi%coreGivesNoEmail%1,               Muhtadi%Alnababteh%coreGivesNoEmail%1,               Rajus%Chopra%coreGivesNoEmail%1,               World%Health Organization%coreGivesNoEmail%1,               Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                Olusegun%Olusanya%NULL%2,                Olusegun%Olusanya%NULL%0,                Marta Montero%Baladia%NULL%1,                Harriet%Young%NULL%1,                Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                Graeme%MacLaren%NULL%1,                Philip S%Boonstra%NULL%1,                Theodore J%Iwashyna%NULL%1,                Arthur S%Slutsky%NULL%1,                Eddy%Fan%NULL%1,                Robert H%Bartlett%NULL%1,                Joseph E%Tonna%NULL%1,                Robert%Hyslop%NULL%1,                Jeffrey J%Fanning%NULL%1,                Peter T%Rycus%NULL%1,                Steve J%Hyer%NULL%1,                Marc M%Anders%NULL%1,                Cara L%Agerstrand%NULL%1,                Katarzyna%Hryniewicz%NULL%1,                Rodrigo%Diaz%NULL%1,                Roberto%Lorusso%NULL%1,                Alain%Combes%NULL%1,                Daniel%Brodie%NULL%0,                Peta%Alexander%NULL%1,                Nicholas%Barrett%NULL%0,                Jan%Bělohlávek%NULL%1,                Dale%Fisher%NULL%1,                John%Fraser%NULL%1,                Ali Ait%Hssain%NULL%0,                Jae Sung%Jung%NULL%1,                Michael%McMullan%NULL%1,                Yatin%Mehta%NULL%1,                Mark T.%Ogino%NULL%1,                Matthew L.%Paden%NULL%1,                Kiran%Shekar%NULL%1,                Christine%Stead%NULL%1,                Yasir%Abu-Omar%NULL%1,                Vanni%Agnoletti%NULL%1,                Anzila%Akbar%NULL%1,                Huda%Alfoudri%NULL%1,                Carlos%Alviar%NULL%1,                Vladimir%Aronsky%NULL%1,                Erin%August%NULL%1,                Georg%Auzinger%NULL%1,                Hilda%Aveja%NULL%1,                Rhonda%Bakken%NULL%1,                Joan%Balcells%NULL%1,                Sripal%Bangalore%NULL%1,                Bernard W.%Barnes%NULL%1,                Alaiza%Bautista%NULL%1,                Lorraine L.%Bellows%NULL%1,                Felipe%Beltran%NULL%1,                Peyman%Benharash%NULL%1,                Marco%Benni%NULL%1,                Jennifer%Berg%NULL%1,                Pietro%Bertini%NULL%1,                Pablo%Blanco-Schweizer%NULL%1,                Melissa%Brunsvold%NULL%1,                Jenny%Budd%NULL%1,                Debra%Camp%NULL%1,                Mark%Caridi-Scheible%NULL%0,                Edmund%Carton%NULL%1,                Elena%Casanova-Ghosh%NULL%1,                Anthony%Castleberry%NULL%1,                Christopher T.%Chipongian%NULL%1,                Chang Woo%Choi%NULL%1,                Alessandro%Circelli%NULL%1,                Elliott%Cohen%NULL%1,                Michael%Collins%NULL%1,                Scott%Copus%NULL%1,                Jill%Coy%NULL%1,                Brandon%Crist%NULL%1,                Leonora%Cruz%NULL%1,                Mirosław%Czuczwar%NULL%1,                Mani%Daneshmand%NULL%1,                Daniel%Davis II%NULL%1,                Kim%De la Cruz%NULL%1,                Cyndie%Devers%NULL%1,                Toni%Duculan%NULL%1,                Lucian%Durham%NULL%1,                Subbarao%Elapavaluru%NULL%1,                Carlos V.%Elzo Kraemer%NULL%1,                EDMÍLSON CARDOSO%Filho%NULL%1,                Jillian%Fitzgerald%NULL%1,                Giuseppe%Foti%NULL%1,                Matthew%Fox%NULL%1,                David%Fritschen%NULL%1,                David%Fullerton%NULL%1,                Elton%Gelandt%NULL%1,                Stacy%Gerle%NULL%1,                Marco%Giani%NULL%1,                Si Guim%Goh%NULL%1,                Sara%Govener%NULL%1,                Julie%Grone%NULL%1,                Miles%Guber%NULL%1,                Vadim%Gudzenko%NULL%1,                Daniel%Gutteridge%NULL%1,                Jennifer%Guy%NULL%1,                Jonathan%Haft%NULL%1,                Cameron%Hall%NULL%1,                Ibrahim Fawzy%Hassan%NULL%1,                Rubén%Herrán%NULL%1,                Hitoshi%Hirose%NULL%0,                Abdulsalam Saif%Ibrahim%NULL%1,                Don%Igielski%NULL%1,                Felicia A.%Ivascu%NULL%1,                Jaume%Izquierdo Blasco%NULL%1,                Julie%Jackson%NULL%1,                Harsh%Jain%NULL%1,                Bhavini%Jaiswal%NULL%1,                Andrea C.%Johnson%NULL%1,                Jenniver A.%Jurynec%NULL%1,                Norma M%Kellter%NULL%1,                Adam%Kohl%NULL%1,                Zachary%Kon%NULL%1,                Markus%Kredel%NULL%1,                Karen%Kriska%NULL%1,                Chandra%Kunavarapu%NULL%1,                Oude%Lansink-Hartgring%NULL%1,                Jeliene%LaRocque%NULL%1,                Sharon Beth%Larson%NULL%1,                Tracie%Layne%NULL%1,                Stephane%Ledot%NULL%1,                Napolitan%Lena%NULL%1,                Jonathan%Lillie%NULL%1,                Gösta%Lotz%NULL%1,                Mark%Lucas%NULL%1,                Lee%Ludwigson%NULL%1,                Jacinta J.%Maas%NULL%1,                Joanna%Maertens%NULL%1,                David%Mast%NULL%1,                Scott%McCardle%NULL%1,                Bernard%McDonald%NULL%1,                Allison%McLarty%NULL%1,                Chelsea%McMahon%NULL%1,                Patrick%Meybohm%NULL%1,                Bart%Meyns%NULL%1,                Casey%Miller%NULL%1,                Fernando%Moraes Neto%NULL%1,                Kelly%Morris%NULL%1,                Ralf%Muellenbach%NULL%1,                Meghan%Nicholson%NULL%1,                Serena%O'Brien%NULL%1,                Kathryn%O'Keefe%NULL%1,                Tawnya%Ogston%NULL%1,                Gary%Oldenburg%NULL%1,                Fabiana M.%Oliveira%NULL%1,                Emily%Oppel%NULL%1,                Diego%Pardo%NULL%2,                Diego%Pardo%NULL%0,                Sara J.%Parker%NULL%1,                Finn M.%Pedersen%NULL%1,                Crescens%Pellecchia%NULL%1,                Jose A.S.%Pelligrini%NULL%1,                Thao T.N.%Pham%NULL%1,                Ann R.%Phillips%NULL%1,                Tasneem%Pirani%NULL%1,                Paweł%Piwowarczyk%NULL%1,                Robert%Plambeck%NULL%1,                William%Pruett%NULL%1,                Brittany%Quandt%NULL%1,                Kollengode%Ramanathan%NULL%1,                Alejandro%Rey%NULL%1,                Christian%Reyher%NULL%1,                Jordi%Riera del Brio%NULL%1,                Rachel%Roberts%NULL%1,                David%Roe%NULL%1,                Peter P.%Roeleveld%NULL%1,                Janet%Rudy%NULL%1,                Luis F.%Rueda%NULL%1,                Emanuele%Russo%NULL%1,                Jesús%Sánchez Ballesteros%NULL%1,                Nancy%Satou%NULL%1,                Mauricio Guidi%Saueressig%NULL%1,                Paul C.%Saunders%NULL%1,                Margaret%Schlotterbeck%NULL%1,                Patricia%Schwarz%NULL%1,                Nicole%Scriven%NULL%1,                Alexis%Serra%NULL%1,                Mohammad%Shamsah%NULL%1,                Lucy%Sim%NULL%1,                Alexandra%Smart%NULL%1,                Adam%Smith%NULL%1,                Deane%Smith%NULL%1,                Maggie%Smith%NULL%1,                Neel%Sodha%NULL%1,                Michael%Sonntagbauer%NULL%1,                Marc%Sorenson%NULL%1,                Eric B%Stallkamp%NULL%1,                Allison%Stewart%NULL%1,                Kathy%Swartz%NULL%1,                Koji%Takeda%NULL%1,                Shaun%Thompson%NULL%1,                Bridget%Toy%NULL%1,                Divina%Tuazon%NULL%1,                Makoto%Uchiyama%NULL%1,                Obiora I.%Udeozo%NULL%1,                Scott%van Poppel%NULL%1,                Corey%Ventetuolo%NULL%1,                Leen%Vercaemst%NULL%1,                Nguyen V.%Vinh Chau%NULL%1,                I-Wen%Wang%NULL%1,                Carrie%Williamson%NULL%1,                Brock%Wilson%NULL%1,                Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                Susan%Dashey%NULL%1,                Abigail%Stubbs%NULL%1,                Florence YL%Lai%NULL%1,                Paul W%Bird%NULL%1,                Vinay%Badhwar%NULL%1,                Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                Elise%Godeau%elisegodeau@gmail.com%1,                Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                Steven%Grange%Steven.Grange@chu-rouen.fr%1,                Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                Alexandra%Monnier%NULL%1,                Marc%Puyraveau%NULL%1,                Stephanie%Perrier%NULL%1,                Pierre-Olivier%Ludes%NULL%1,                Anne%Olland%NULL%1,                Paul-Michel%Mertes%NULL%2,                Francis%Schneider%NULL%2,                Julie%Helms%NULL%3,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,         Clark g.%Owyang%xref no email%1,         Jai%Madhok%xref no email%1,         Florent%Laverdure%xref no email%1,         Ma\u00efra%Gaillard%xref no email%1,         Antoine%Girault%xref no email%1,         Guillaume%Lebreton%xref no email%1,         Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                Christophe%Beyls%NULL%2,                Christophe%Beyls%NULL%0,                Mathieu%Guilbart%NULL%1,                Alexandre%Coquet%NULL%1,                Pascal%Berna%NULL%1,                Guillaume%Haye%NULL%1,                Pierre-Alexandre%Roger%NULL%1,                Patricia%Besserve%NULL%1,                Michael%Bernasinski%NULL%1,                Hervé%Dupont%NULL%1,                Osama%Abou-Arab%NULL%1,                Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                Jonathan%Rilinger%NULL%2,                Jonathan%Rilinger%NULL%0,                Corinna Nadine%Lang%NULL%2,                Corinna Nadine%Lang%NULL%0,                Viviane%Zotzmann%NULL%1,                Klaus%Kaier%NULL%1,                Peter%Stachon%NULL%1,                Paul Marc%Biever%NULL%1,                Tobias%Wengenmayer%NULL%1,                Daniel%Duerschmied%NULL%1,                Christoph%Bode%NULL%1,                Dawid Leander%Staudacher%NULL%1,                Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                JaeBum%Kim%NULL%1,                Jonghyun%Baek%NULL%1,                Hanna%Jung%NULL%1,                Jae Seok%Jang%NULL%1,                Jae Seok%Park%NULL%0,                Tak-Hyuk%Oh%NULL%1,                Se Yong%Jang%NULL%1,                Yun Seok%Kim%NULL%1,                Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                S.%Besset%NULL%1,                S.%Freita-Ramos%NULL%1,                M.%Amouretti%NULL%1,                P.A.%Billiet%NULL%1,                M.%Dao%NULL%1,                L.M.%Dumont%NULL%1,                L.%Federici%NULL%1,                B.%Gaborieau%NULL%1,                D.%Longrois%NULL%1,                P.%Postel-Vinay%NULL%1,                C.%Vuillard%NULL%1,                N.%Zucman%NULL%1,                G.%Lebreton%NULL%1,                A.%Combes%NULL%1,                D.%Dreyfuss%NULL%1,                J.D.%Ricard%NULL%1,                D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                Jean-Daniel%Chiche%NULL%1,                Julien%Charpentier%NULL%1,                Zakaria%Ait Hamou%NULL%1,                Paul%Jaubert%NULL%1,                Sarah%Benghanem%NULL%1,                Pierre%Dupland%NULL%1,                Ariane%Gavaud%NULL%1,                Frédéric%Péne%NULL%1,                Alain%Cariou%NULL%1,                Jean-Paul%Mira%NULL%1,                Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,         C.W.%Freeman%xref no email%1,         S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                Dominik%Jarczak%NULL%1,                Liina%Thasler%NULL%1,                Martin%Bachmann%NULL%1,                Frank%Schulte%NULL%1,                Berthold%Bein%NULL%1,                Christian Friedrich%Weber%NULL%1,                Ulrich%Schäfer%NULL%1,                Carsten%Veit%NULL%1,                Hans-Peter%Hauber%NULL%1,                Sebastian%Kopp%NULL%1,                Karsten%Sydow%NULL%1,                Andreas%de Weerth%NULL%1,                Marc%Bota%NULL%1,                Rüdiger%Schreiber%NULL%1,                Oliver%Detsch%NULL%1,                Jan-Peer%Rogmann%NULL%1,                Daniel%Frings%NULL%1,                Barbara%Sensen%NULL%1,                Christoph%Burdelski%NULL%1,                Olaf%Boenisch%NULL%1,                Axel%Nierhaus%NULL%1,                Geraldine%de Heer%NULL%1,                Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                J. Michael%DiMaio%NULL%1,                John J.%Squiers%NULL%1,                Jasjit K.%Banwait%NULL%1,                Dan M.%Meyer%NULL%1,                Timothy J.%George%NULL%1,                Gary S.%Schwartz%NULL%1,                Britton A.%Blough%NULL%1,                Robert L.%Gottlieb%NULL%1,                Gonzo%Gonzalez-Stawinski%NULL%1,                Anita R.%Krueger%NULL%1,                Kara%Monday%NULL%1,                Ramachandra C.%Reddy%NULL%1,                Jorge F.%Velazco%NULL%1,                Omar%Hernandez%NULL%1,                Chris%Martin%NULL%1,                Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                Blair%Merrick%NULL%2,                Blair%Merrick%NULL%0,                Genex L.%Correa%NULL%1,                Luigi%Camporota%NULL%1,                Andrew%Retter%NULL%1,                Andrew%Doyle%NULL%1,                Guy W.%Glover%NULL%2,                Guy W.%Glover%NULL%0,                Peter B.%Sherren%NULL%1,                Stephen J.%Tricklebank%NULL%1,                Sangita%Agarwal%NULL%1,                Boris E.%Lams%NULL%1,                Nicholas A.%Barrett%NULL%1,                Nicholas%Ioannou%NULL%1,                Jonathan%Edgeworth%NULL%1,                Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                Akshay%Kohli%coreGivesNoEmail%1,                Alexandra%Pratt%coreGivesNoEmail%1,                Emil%Oweis%coreGivesNoEmail%1,                Eric%Kriner%coreGivesNoEmail%1,                Ezequiel%Molina%coreGivesNoEmail%1,                Fatima%Hayat%coreGivesNoEmail%1,                Karthik%Vedantam%coreGivesNoEmail%1,                Makdisi%G%coreGivesNoEmail%1,                Muhammad%D Hashmi%coreGivesNoEmail%1,                Muhtadi%Alnababteh%coreGivesNoEmail%1,                Rajus%Chopra%coreGivesNoEmail%1,                World%Health Organization%coreGivesNoEmail%1,                Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                 Olusegun%Olusanya%NULL%2,                 Olusegun%Olusanya%NULL%0,                 Marta Montero%Baladia%NULL%1,                 Harriet%Young%NULL%1,                 Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                 Graeme%MacLaren%NULL%1,                 Philip S%Boonstra%NULL%1,                 Theodore J%Iwashyna%NULL%1,                 Arthur S%Slutsky%NULL%1,                 Eddy%Fan%NULL%1,                 Robert H%Bartlett%NULL%1,                 Joseph E%Tonna%NULL%1,                 Robert%Hyslop%NULL%1,                 Jeffrey J%Fanning%NULL%1,                 Peter T%Rycus%NULL%1,                 Steve J%Hyer%NULL%1,                 Marc M%Anders%NULL%1,                 Cara L%Agerstrand%NULL%1,                 Katarzyna%Hryniewicz%NULL%1,                 Rodrigo%Diaz%NULL%1,                 Roberto%Lorusso%NULL%1,                 Alain%Combes%NULL%1,                 Daniel%Brodie%NULL%0,                 Peta%Alexander%NULL%1,                 Nicholas%Barrett%NULL%0,                 Jan%Bělohlávek%NULL%1,                 Dale%Fisher%NULL%1,                 John%Fraser%NULL%1,                 Ali Ait%Hssain%NULL%0,                 Jae Sung%Jung%NULL%1,                 Michael%McMullan%NULL%1,                 Yatin%Mehta%NULL%1,                 Mark T.%Ogino%NULL%1,                 Matthew L.%Paden%NULL%1,                 Kiran%Shekar%NULL%1,                 Christine%Stead%NULL%1,                 Yasir%Abu-Omar%NULL%1,                 Vanni%Agnoletti%NULL%1,                 Anzila%Akbar%NULL%1,                 Huda%Alfoudri%NULL%1,                 Carlos%Alviar%NULL%1,                 Vladimir%Aronsky%NULL%1,                 Erin%August%NULL%1,                 Georg%Auzinger%NULL%1,                 Hilda%Aveja%NULL%1,                 Rhonda%Bakken%NULL%1,                 Joan%Balcells%NULL%1,                 Sripal%Bangalore%NULL%1,                 Bernard W.%Barnes%NULL%1,                 Alaiza%Bautista%NULL%1,                 Lorraine L.%Bellows%NULL%1,                 Felipe%Beltran%NULL%1,                 Peyman%Benharash%NULL%1,                 Marco%Benni%NULL%1,                 Jennifer%Berg%NULL%1,                 Pietro%Bertini%NULL%1,                 Pablo%Blanco-Schweizer%NULL%1,                 Melissa%Brunsvold%NULL%1,                 Jenny%Budd%NULL%1,                 Debra%Camp%NULL%1,                 Mark%Caridi-Scheible%NULL%0,                 Edmund%Carton%NULL%1,                 Elena%Casanova-Ghosh%NULL%1,                 Anthony%Castleberry%NULL%1,                 Christopher T.%Chipongian%NULL%1,                 Chang Woo%Choi%NULL%1,                 Alessandro%Circelli%NULL%1,                 Elliott%Cohen%NULL%1,                 Michael%Collins%NULL%1,                 Scott%Copus%NULL%1,                 Jill%Coy%NULL%1,                 Brandon%Crist%NULL%1,                 Leonora%Cruz%NULL%1,                 Mirosław%Czuczwar%NULL%1,                 Mani%Daneshmand%NULL%1,                 Daniel%Davis II%NULL%1,                 Kim%De la Cruz%NULL%1,                 Cyndie%Devers%NULL%1,                 Toni%Duculan%NULL%1,                 Lucian%Durham%NULL%1,                 Subbarao%Elapavaluru%NULL%1,                 Carlos V.%Elzo Kraemer%NULL%1,                 EDMÍLSON CARDOSO%Filho%NULL%1,                 Jillian%Fitzgerald%NULL%1,                 Giuseppe%Foti%NULL%1,                 Matthew%Fox%NULL%1,                 David%Fritschen%NULL%1,                 David%Fullerton%NULL%1,                 Elton%Gelandt%NULL%1,                 Stacy%Gerle%NULL%1,                 Marco%Giani%NULL%1,                 Si Guim%Goh%NULL%1,                 Sara%Govener%NULL%1,                 Julie%Grone%NULL%1,                 Miles%Guber%NULL%1,                 Vadim%Gudzenko%NULL%1,                 Daniel%Gutteridge%NULL%1,                 Jennifer%Guy%NULL%1,                 Jonathan%Haft%NULL%1,                 Cameron%Hall%NULL%1,                 Ibrahim Fawzy%Hassan%NULL%1,                 Rubén%Herrán%NULL%1,                 Hitoshi%Hirose%NULL%0,                 Abdulsalam Saif%Ibrahim%NULL%1,                 Don%Igielski%NULL%1,                 Felicia A.%Ivascu%NULL%1,                 Jaume%Izquierdo Blasco%NULL%1,                 Julie%Jackson%NULL%1,                 Harsh%Jain%NULL%1,                 Bhavini%Jaiswal%NULL%1,                 Andrea C.%Johnson%NULL%1,                 Jenniver A.%Jurynec%NULL%1,                 Norma M%Kellter%NULL%1,                 Adam%Kohl%NULL%1,                 Zachary%Kon%NULL%1,                 Markus%Kredel%NULL%1,                 Karen%Kriska%NULL%1,                 Chandra%Kunavarapu%NULL%1,                 Oude%Lansink-Hartgring%NULL%1,                 Jeliene%LaRocque%NULL%1,                 Sharon Beth%Larson%NULL%1,                 Tracie%Layne%NULL%1,                 Stephane%Ledot%NULL%1,                 Napolitan%Lena%NULL%1,                 Jonathan%Lillie%NULL%1,                 Gösta%Lotz%NULL%1,                 Mark%Lucas%NULL%1,                 Lee%Ludwigson%NULL%1,                 Jacinta J.%Maas%NULL%1,                 Joanna%Maertens%NULL%1,                 David%Mast%NULL%1,                 Scott%McCardle%NULL%1,                 Bernard%McDonald%NULL%1,                 Allison%McLarty%NULL%1,                 Chelsea%McMahon%NULL%1,                 Patrick%Meybohm%NULL%1,                 Bart%Meyns%NULL%1,                 Casey%Miller%NULL%1,                 Fernando%Moraes Neto%NULL%1,                 Kelly%Morris%NULL%1,                 Ralf%Muellenbach%NULL%1,                 Meghan%Nicholson%NULL%1,                 Serena%O'Brien%NULL%1,                 Kathryn%O'Keefe%NULL%1,                 Tawnya%Ogston%NULL%1,                 Gary%Oldenburg%NULL%1,                 Fabiana M.%Oliveira%NULL%1,                 Emily%Oppel%NULL%1,                 Diego%Pardo%NULL%2,                 Diego%Pardo%NULL%0,                 Sara J.%Parker%NULL%1,                 Finn M.%Pedersen%NULL%1,                 Crescens%Pellecchia%NULL%1,                 Jose A.S.%Pelligrini%NULL%1,                 Thao T.N.%Pham%NULL%1,                 Ann R.%Phillips%NULL%1,                 Tasneem%Pirani%NULL%1,                 Paweł%Piwowarczyk%NULL%1,                 Robert%Plambeck%NULL%1,                 William%Pruett%NULL%1,                 Brittany%Quandt%NULL%1,                 Kollengode%Ramanathan%NULL%1,                 Alejandro%Rey%NULL%1,                 Christian%Reyher%NULL%1,                 Jordi%Riera del Brio%NULL%1,                 Rachel%Roberts%NULL%1,                 David%Roe%NULL%1,                 Peter P.%Roeleveld%NULL%1,                 Janet%Rudy%NULL%1,                 Luis F.%Rueda%NULL%1,                 Emanuele%Russo%NULL%1,                 Jesús%Sánchez Ballesteros%NULL%1,                 Nancy%Satou%NULL%1,                 Mauricio Guidi%Saueressig%NULL%1,                 Paul C.%Saunders%NULL%1,                 Margaret%Schlotterbeck%NULL%1,                 Patricia%Schwarz%NULL%1,                 Nicole%Scriven%NULL%1,                 Alexis%Serra%NULL%1,                 Mohammad%Shamsah%NULL%1,                 Lucy%Sim%NULL%1,                 Alexandra%Smart%NULL%1,                 Adam%Smith%NULL%1,                 Deane%Smith%NULL%1,                 Maggie%Smith%NULL%1,                 Neel%Sodha%NULL%1,                 Michael%Sonntagbauer%NULL%1,                 Marc%Sorenson%NULL%1,                 Eric B%Stallkamp%NULL%1,                 Allison%Stewart%NULL%1,                 Kathy%Swartz%NULL%1,                 Koji%Takeda%NULL%1,                 Shaun%Thompson%NULL%1,                 Bridget%Toy%NULL%1,                 Divina%Tuazon%NULL%1,                 Makoto%Uchiyama%NULL%1,                 Obiora I.%Udeozo%NULL%1,                 Scott%van Poppel%NULL%1,                 Corey%Ventetuolo%NULL%1,                 Leen%Vercaemst%NULL%1,                 Nguyen V.%Vinh Chau%NULL%1,                 I-Wen%Wang%NULL%1,                 Carrie%Williamson%NULL%1,                 Brock%Wilson%NULL%1,                 Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                 Susan%Dashey%NULL%1,                 Abigail%Stubbs%NULL%1,                 Florence YL%Lai%NULL%1,                 Paul W%Bird%NULL%1,                 Vinay%Badhwar%NULL%1,                 Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                 Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                 Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                 Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                 Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                 Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                 Elise%Godeau%elisegodeau@gmail.com%1,                 Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                 Steven%Grange%Steven.Grange@chu-rouen.fr%1,                 Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                 Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                 Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                 Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                 Alexandra%Monnier%NULL%1,                 Marc%Puyraveau%NULL%1,                 Stephanie%Perrier%NULL%1,                 Pierre-Olivier%Ludes%NULL%1,                 Anne%Olland%NULL%1,                 Paul-Michel%Mertes%NULL%2,                 Francis%Schneider%NULL%2,                 Julie%Helms%NULL%3,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,          Clark g.%Owyang%xref no email%1,          Jai%Madhok%xref no email%1,          Florent%Laverdure%xref no email%1,          Ma\u00efra%Gaillard%xref no email%1,          Antoine%Girault%xref no email%1,          Guillaume%Lebreton%xref no email%1,          Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                 Christophe%Beyls%NULL%2,                 Christophe%Beyls%NULL%0,                 Mathieu%Guilbart%NULL%1,                 Alexandre%Coquet%NULL%1,                 Pascal%Berna%NULL%1,                 Guillaume%Haye%NULL%1,                 Pierre-Alexandre%Roger%NULL%1,                 Patricia%Besserve%NULL%1,                 Michael%Bernasinski%NULL%1,                 Hervé%Dupont%NULL%1,                 Osama%Abou-Arab%NULL%1,                 Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                 Jonathan%Rilinger%NULL%2,                 Jonathan%Rilinger%NULL%0,                 Corinna Nadine%Lang%NULL%2,                 Corinna Nadine%Lang%NULL%0,                 Viviane%Zotzmann%NULL%1,                 Klaus%Kaier%NULL%1,                 Peter%Stachon%NULL%1,                 Paul Marc%Biever%NULL%1,                 Tobias%Wengenmayer%NULL%1,                 Daniel%Duerschmied%NULL%1,                 Christoph%Bode%NULL%1,                 Dawid Leander%Staudacher%NULL%1,                 Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                 JaeBum%Kim%NULL%1,                 Jonghyun%Baek%NULL%1,                 Hanna%Jung%NULL%1,                 Jae Seok%Jang%NULL%1,                 Jae Seok%Park%NULL%0,                 Tak-Hyuk%Oh%NULL%1,                 Se Yong%Jang%NULL%1,                 Yun Seok%Kim%NULL%1,                 Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                 S.%Besset%NULL%1,                 S.%Freita-Ramos%NULL%1,                 M.%Amouretti%NULL%1,                 P.A.%Billiet%NULL%1,                 M.%Dao%NULL%1,                 L.M.%Dumont%NULL%1,                 L.%Federici%NULL%1,                 B.%Gaborieau%NULL%1,                 D.%Longrois%NULL%1,                 P.%Postel-Vinay%NULL%1,                 C.%Vuillard%NULL%1,                 N.%Zucman%NULL%1,                 G.%Lebreton%NULL%1,                 A.%Combes%NULL%1,                 D.%Dreyfuss%NULL%1,                 J.D.%Ricard%NULL%1,                 D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                 Jean-Daniel%Chiche%NULL%1,                 Julien%Charpentier%NULL%1,                 Zakaria%Ait Hamou%NULL%1,                 Paul%Jaubert%NULL%1,                 Sarah%Benghanem%NULL%1,                 Pierre%Dupland%NULL%1,                 Ariane%Gavaud%NULL%1,                 Frédéric%Péne%NULL%1,                 Alain%Cariou%NULL%1,                 Jean-Paul%Mira%NULL%1,                 Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,          C.W.%Freeman%xref no email%1,          S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                 Dominik%Jarczak%NULL%1,                 Liina%Thasler%NULL%1,                 Martin%Bachmann%NULL%1,                 Frank%Schulte%NULL%1,                 Berthold%Bein%NULL%1,                 Christian Friedrich%Weber%NULL%1,                 Ulrich%Schäfer%NULL%1,                 Carsten%Veit%NULL%1,                 Hans-Peter%Hauber%NULL%1,                 Sebastian%Kopp%NULL%1,                 Karsten%Sydow%NULL%1,                 Andreas%de Weerth%NULL%1,                 Marc%Bota%NULL%1,                 Rüdiger%Schreiber%NULL%1,                 Oliver%Detsch%NULL%1,                 Jan-Peer%Rogmann%NULL%1,                 Daniel%Frings%NULL%1,                 Barbara%Sensen%NULL%1,                 Christoph%Burdelski%NULL%1,                 Olaf%Boenisch%NULL%1,                 Axel%Nierhaus%NULL%1,                 Geraldine%de Heer%NULL%1,                 Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                 J. Michael%DiMaio%NULL%1,                 John J.%Squiers%NULL%1,                 Jasjit K.%Banwait%NULL%1,                 Dan M.%Meyer%NULL%1,                 Timothy J.%George%NULL%1,                 Gary S.%Schwartz%NULL%1,                 Britton A.%Blough%NULL%1,                 Robert L.%Gottlieb%NULL%1,                 Gonzo%Gonzalez-Stawinski%NULL%1,                 Anita R.%Krueger%NULL%1,                 Kara%Monday%NULL%1,                 Ramachandra C.%Reddy%NULL%1,                 Jorge F.%Velazco%NULL%1,                 Omar%Hernandez%NULL%1,                 Chris%Martin%NULL%1,                 Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                 Blair%Merrick%NULL%2,                 Blair%Merrick%NULL%0,                 Genex L.%Correa%NULL%1,                 Luigi%Camporota%NULL%1,                 Andrew%Retter%NULL%1,                 Andrew%Doyle%NULL%1,                 Guy W.%Glover%NULL%2,                 Guy W.%Glover%NULL%0,                 Peter B.%Sherren%NULL%1,                 Stephen J.%Tricklebank%NULL%1,                 Sangita%Agarwal%NULL%1,                 Boris E.%Lams%NULL%1,                 Nicholas A.%Barrett%NULL%1,                 Nicholas%Ioannou%NULL%1,                 Jonathan%Edgeworth%NULL%1,                 Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1492,7 +1588,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1521,7 +1617,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1550,7 +1646,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1579,7 +1675,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1608,7 +1704,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1637,7 +1733,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1666,7 +1762,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1695,7 +1791,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1724,7 +1820,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1753,7 +1849,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1782,7 +1878,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1811,7 +1907,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1840,7 +1936,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1869,7 +1965,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1898,7 +1994,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="366">
   <si>
     <t>Doi</t>
   </si>
@@ -1220,6 +1220,54 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,                 Blair%Merrick%NULL%2,                 Blair%Merrick%NULL%0,                 Genex L.%Correa%NULL%1,                 Luigi%Camporota%NULL%1,                 Andrew%Retter%NULL%1,                 Andrew%Doyle%NULL%1,                 Guy W.%Glover%NULL%2,                 Guy W.%Glover%NULL%0,                 Peter B.%Sherren%NULL%1,                 Stephen J.%Tricklebank%NULL%1,                 Sangita%Agarwal%NULL%1,                 Boris E.%Lams%NULL%1,                 Nicholas A.%Barrett%NULL%1,                 Nicholas%Ioannou%NULL%1,                 Jonathan%Edgeworth%NULL%1,                 Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                 Akshay%Kohli%coreGivesNoEmail%1,                 Alexandra%Pratt%coreGivesNoEmail%1,                 Emil%Oweis%coreGivesNoEmail%1,                 Eric%Kriner%coreGivesNoEmail%1,                 Ezequiel%Molina%coreGivesNoEmail%1,                 Fatima%Hayat%coreGivesNoEmail%1,                 Karthik%Vedantam%coreGivesNoEmail%1,                 Makdisi%G%coreGivesNoEmail%1,                 Muhammad%D Hashmi%coreGivesNoEmail%1,                 Muhtadi%Alnababteh%coreGivesNoEmail%1,                 Rajus%Chopra%coreGivesNoEmail%1,                 World%Health Organization%coreGivesNoEmail%1,                 Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                  Olusegun%Olusanya%NULL%2,                  Olusegun%Olusanya%NULL%0,                  Marta Montero%Baladia%NULL%1,                  Harriet%Young%NULL%1,                  Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                  Graeme%MacLaren%NULL%1,                  Philip S%Boonstra%NULL%1,                  Theodore J%Iwashyna%NULL%1,                  Arthur S%Slutsky%NULL%1,                  Eddy%Fan%NULL%1,                  Robert H%Bartlett%NULL%1,                  Joseph E%Tonna%NULL%1,                  Robert%Hyslop%NULL%1,                  Jeffrey J%Fanning%NULL%1,                  Peter T%Rycus%NULL%1,                  Steve J%Hyer%NULL%1,                  Marc M%Anders%NULL%1,                  Cara L%Agerstrand%NULL%1,                  Katarzyna%Hryniewicz%NULL%1,                  Rodrigo%Diaz%NULL%1,                  Roberto%Lorusso%NULL%1,                  Alain%Combes%NULL%1,                  Daniel%Brodie%NULL%0,                  Peta%Alexander%NULL%1,                  Nicholas%Barrett%NULL%0,                  Jan%Bělohlávek%NULL%1,                  Dale%Fisher%NULL%1,                  John%Fraser%NULL%1,                  Ali Ait%Hssain%NULL%0,                  Jae Sung%Jung%NULL%1,                  Michael%McMullan%NULL%1,                  Yatin%Mehta%NULL%1,                  Mark T.%Ogino%NULL%1,                  Matthew L.%Paden%NULL%1,                  Kiran%Shekar%NULL%1,                  Christine%Stead%NULL%1,                  Yasir%Abu-Omar%NULL%1,                  Vanni%Agnoletti%NULL%1,                  Anzila%Akbar%NULL%1,                  Huda%Alfoudri%NULL%1,                  Carlos%Alviar%NULL%1,                  Vladimir%Aronsky%NULL%1,                  Erin%August%NULL%1,                  Georg%Auzinger%NULL%1,                  Hilda%Aveja%NULL%1,                  Rhonda%Bakken%NULL%1,                  Joan%Balcells%NULL%1,                  Sripal%Bangalore%NULL%1,                  Bernard W.%Barnes%NULL%1,                  Alaiza%Bautista%NULL%1,                  Lorraine L.%Bellows%NULL%1,                  Felipe%Beltran%NULL%1,                  Peyman%Benharash%NULL%1,                  Marco%Benni%NULL%1,                  Jennifer%Berg%NULL%1,                  Pietro%Bertini%NULL%1,                  Pablo%Blanco-Schweizer%NULL%1,                  Melissa%Brunsvold%NULL%1,                  Jenny%Budd%NULL%1,                  Debra%Camp%NULL%1,                  Mark%Caridi-Scheible%NULL%0,                  Edmund%Carton%NULL%1,                  Elena%Casanova-Ghosh%NULL%1,                  Anthony%Castleberry%NULL%1,                  Christopher T.%Chipongian%NULL%1,                  Chang Woo%Choi%NULL%1,                  Alessandro%Circelli%NULL%1,                  Elliott%Cohen%NULL%1,                  Michael%Collins%NULL%1,                  Scott%Copus%NULL%1,                  Jill%Coy%NULL%1,                  Brandon%Crist%NULL%1,                  Leonora%Cruz%NULL%1,                  Mirosław%Czuczwar%NULL%1,                  Mani%Daneshmand%NULL%1,                  Daniel%Davis II%NULL%1,                  Kim%De la Cruz%NULL%1,                  Cyndie%Devers%NULL%1,                  Toni%Duculan%NULL%1,                  Lucian%Durham%NULL%1,                  Subbarao%Elapavaluru%NULL%1,                  Carlos V.%Elzo Kraemer%NULL%1,                  EDMÍLSON CARDOSO%Filho%NULL%1,                  Jillian%Fitzgerald%NULL%1,                  Giuseppe%Foti%NULL%1,                  Matthew%Fox%NULL%1,                  David%Fritschen%NULL%1,                  David%Fullerton%NULL%1,                  Elton%Gelandt%NULL%1,                  Stacy%Gerle%NULL%1,                  Marco%Giani%NULL%1,                  Si Guim%Goh%NULL%1,                  Sara%Govener%NULL%1,                  Julie%Grone%NULL%1,                  Miles%Guber%NULL%1,                  Vadim%Gudzenko%NULL%1,                  Daniel%Gutteridge%NULL%1,                  Jennifer%Guy%NULL%1,                  Jonathan%Haft%NULL%1,                  Cameron%Hall%NULL%1,                  Ibrahim Fawzy%Hassan%NULL%1,                  Rubén%Herrán%NULL%1,                  Hitoshi%Hirose%NULL%0,                  Abdulsalam Saif%Ibrahim%NULL%1,                  Don%Igielski%NULL%1,                  Felicia A.%Ivascu%NULL%1,                  Jaume%Izquierdo Blasco%NULL%1,                  Julie%Jackson%NULL%1,                  Harsh%Jain%NULL%1,                  Bhavini%Jaiswal%NULL%1,                  Andrea C.%Johnson%NULL%1,                  Jenniver A.%Jurynec%NULL%1,                  Norma M%Kellter%NULL%1,                  Adam%Kohl%NULL%1,                  Zachary%Kon%NULL%1,                  Markus%Kredel%NULL%1,                  Karen%Kriska%NULL%1,                  Chandra%Kunavarapu%NULL%1,                  Oude%Lansink-Hartgring%NULL%1,                  Jeliene%LaRocque%NULL%1,                  Sharon Beth%Larson%NULL%1,                  Tracie%Layne%NULL%1,                  Stephane%Ledot%NULL%1,                  Napolitan%Lena%NULL%1,                  Jonathan%Lillie%NULL%1,                  Gösta%Lotz%NULL%1,                  Mark%Lucas%NULL%1,                  Lee%Ludwigson%NULL%1,                  Jacinta J.%Maas%NULL%1,                  Joanna%Maertens%NULL%1,                  David%Mast%NULL%1,                  Scott%McCardle%NULL%1,                  Bernard%McDonald%NULL%1,                  Allison%McLarty%NULL%1,                  Chelsea%McMahon%NULL%1,                  Patrick%Meybohm%NULL%1,                  Bart%Meyns%NULL%1,                  Casey%Miller%NULL%1,                  Fernando%Moraes Neto%NULL%1,                  Kelly%Morris%NULL%1,                  Ralf%Muellenbach%NULL%1,                  Meghan%Nicholson%NULL%1,                  Serena%O'Brien%NULL%1,                  Kathryn%O'Keefe%NULL%1,                  Tawnya%Ogston%NULL%1,                  Gary%Oldenburg%NULL%1,                  Fabiana M.%Oliveira%NULL%1,                  Emily%Oppel%NULL%1,                  Diego%Pardo%NULL%2,                  Diego%Pardo%NULL%0,                  Sara J.%Parker%NULL%1,                  Finn M.%Pedersen%NULL%1,                  Crescens%Pellecchia%NULL%1,                  Jose A.S.%Pelligrini%NULL%1,                  Thao T.N.%Pham%NULL%1,                  Ann R.%Phillips%NULL%1,                  Tasneem%Pirani%NULL%1,                  Paweł%Piwowarczyk%NULL%1,                  Robert%Plambeck%NULL%1,                  William%Pruett%NULL%1,                  Brittany%Quandt%NULL%1,                  Kollengode%Ramanathan%NULL%1,                  Alejandro%Rey%NULL%1,                  Christian%Reyher%NULL%1,                  Jordi%Riera del Brio%NULL%1,                  Rachel%Roberts%NULL%1,                  David%Roe%NULL%1,                  Peter P.%Roeleveld%NULL%1,                  Janet%Rudy%NULL%1,                  Luis F.%Rueda%NULL%1,                  Emanuele%Russo%NULL%1,                  Jesús%Sánchez Ballesteros%NULL%1,                  Nancy%Satou%NULL%1,                  Mauricio Guidi%Saueressig%NULL%1,                  Paul C.%Saunders%NULL%1,                  Margaret%Schlotterbeck%NULL%1,                  Patricia%Schwarz%NULL%1,                  Nicole%Scriven%NULL%1,                  Alexis%Serra%NULL%1,                  Mohammad%Shamsah%NULL%1,                  Lucy%Sim%NULL%1,                  Alexandra%Smart%NULL%1,                  Adam%Smith%NULL%1,                  Deane%Smith%NULL%1,                  Maggie%Smith%NULL%1,                  Neel%Sodha%NULL%1,                  Michael%Sonntagbauer%NULL%1,                  Marc%Sorenson%NULL%1,                  Eric B%Stallkamp%NULL%1,                  Allison%Stewart%NULL%1,                  Kathy%Swartz%NULL%1,                  Koji%Takeda%NULL%1,                  Shaun%Thompson%NULL%1,                  Bridget%Toy%NULL%1,                  Divina%Tuazon%NULL%1,                  Makoto%Uchiyama%NULL%1,                  Obiora I.%Udeozo%NULL%1,                  Scott%van Poppel%NULL%1,                  Corey%Ventetuolo%NULL%1,                  Leen%Vercaemst%NULL%1,                  Nguyen V.%Vinh Chau%NULL%1,                  I-Wen%Wang%NULL%1,                  Carrie%Williamson%NULL%1,                  Brock%Wilson%NULL%1,                  Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                  Susan%Dashey%NULL%1,                  Abigail%Stubbs%NULL%1,                  Florence YL%Lai%NULL%1,                  Paul W%Bird%NULL%1,                  Vinay%Badhwar%NULL%1,                  Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                  Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                  Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                  Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                  Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                  Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                  Elise%Godeau%elisegodeau@gmail.com%1,                  Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                  Steven%Grange%Steven.Grange@chu-rouen.fr%1,                  Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                  Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                  Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                  Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                  Alexandra%Monnier%NULL%1,                  Marc%Puyraveau%NULL%1,                  Stephanie%Perrier%NULL%1,                  Pierre-Olivier%Ludes%NULL%1,                  Anne%Olland%NULL%1,                  Paul-Michel%Mertes%NULL%2,                  Francis%Schneider%NULL%2,                  Julie%Helms%NULL%3,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,           Clark g.%Owyang%xref no email%1,           Jai%Madhok%xref no email%1,           Florent%Laverdure%xref no email%1,           Ma\u00efra%Gaillard%xref no email%1,           Antoine%Girault%xref no email%1,           Guillaume%Lebreton%xref no email%1,           Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                  Christophe%Beyls%NULL%2,                  Christophe%Beyls%NULL%0,                  Mathieu%Guilbart%NULL%1,                  Alexandre%Coquet%NULL%1,                  Pascal%Berna%NULL%1,                  Guillaume%Haye%NULL%1,                  Pierre-Alexandre%Roger%NULL%1,                  Patricia%Besserve%NULL%1,                  Michael%Bernasinski%NULL%1,                  Hervé%Dupont%NULL%1,                  Osama%Abou-Arab%NULL%1,                  Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                  Jonathan%Rilinger%NULL%2,                  Jonathan%Rilinger%NULL%0,                  Corinna Nadine%Lang%NULL%2,                  Corinna Nadine%Lang%NULL%0,                  Viviane%Zotzmann%NULL%1,                  Klaus%Kaier%NULL%1,                  Peter%Stachon%NULL%1,                  Paul Marc%Biever%NULL%1,                  Tobias%Wengenmayer%NULL%1,                  Daniel%Duerschmied%NULL%1,                  Christoph%Bode%NULL%1,                  Dawid Leander%Staudacher%NULL%1,                  Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                  JaeBum%Kim%NULL%1,                  Jonghyun%Baek%NULL%1,                  Hanna%Jung%NULL%1,                  Jae Seok%Jang%NULL%1,                  Jae Seok%Park%NULL%0,                  Tak-Hyuk%Oh%NULL%1,                  Se Yong%Jang%NULL%1,                  Yun Seok%Kim%NULL%1,                  Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                  S.%Besset%NULL%1,                  S.%Freita-Ramos%NULL%1,                  M.%Amouretti%NULL%1,                  P.A.%Billiet%NULL%1,                  M.%Dao%NULL%1,                  L.M.%Dumont%NULL%1,                  L.%Federici%NULL%1,                  B.%Gaborieau%NULL%1,                  D.%Longrois%NULL%1,                  P.%Postel-Vinay%NULL%1,                  C.%Vuillard%NULL%1,                  N.%Zucman%NULL%1,                  G.%Lebreton%NULL%1,                  A.%Combes%NULL%1,                  D.%Dreyfuss%NULL%1,                  J.D.%Ricard%NULL%1,                  D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                  Jean-Daniel%Chiche%NULL%1,                  Julien%Charpentier%NULL%1,                  Zakaria%Ait Hamou%NULL%1,                  Paul%Jaubert%NULL%1,                  Sarah%Benghanem%NULL%1,                  Pierre%Dupland%NULL%1,                  Ariane%Gavaud%NULL%1,                  Frédéric%Péne%NULL%1,                  Alain%Cariou%NULL%1,                  Jean-Paul%Mira%NULL%1,                  Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,           C.W.%Freeman%xref no email%1,           S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                  Dominik%Jarczak%NULL%1,                  Liina%Thasler%NULL%1,                  Martin%Bachmann%NULL%1,                  Frank%Schulte%NULL%1,                  Berthold%Bein%NULL%1,                  Christian Friedrich%Weber%NULL%1,                  Ulrich%Schäfer%NULL%1,                  Carsten%Veit%NULL%1,                  Hans-Peter%Hauber%NULL%1,                  Sebastian%Kopp%NULL%1,                  Karsten%Sydow%NULL%1,                  Andreas%de Weerth%NULL%1,                  Marc%Bota%NULL%1,                  Rüdiger%Schreiber%NULL%1,                  Oliver%Detsch%NULL%1,                  Jan-Peer%Rogmann%NULL%1,                  Daniel%Frings%NULL%1,                  Barbara%Sensen%NULL%1,                  Christoph%Burdelski%NULL%1,                  Olaf%Boenisch%NULL%1,                  Axel%Nierhaus%NULL%1,                  Geraldine%de Heer%NULL%1,                  Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                  J. Michael%DiMaio%NULL%1,                  John J.%Squiers%NULL%1,                  Jasjit K.%Banwait%NULL%1,                  Dan M.%Meyer%NULL%1,                  Timothy J.%George%NULL%1,                  Gary S.%Schwartz%NULL%1,                  Britton A.%Blough%NULL%1,                  Robert L.%Gottlieb%NULL%1,                  Gonzo%Gonzalez-Stawinski%NULL%1,                  Anita R.%Krueger%NULL%1,                  Kara%Monday%NULL%1,                  Ramachandra C.%Reddy%NULL%1,                  Jorge F.%Velazco%NULL%1,                  Omar%Hernandez%NULL%1,                  Chris%Martin%NULL%1,                  Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                  Blair%Merrick%NULL%2,                  Blair%Merrick%NULL%0,                  Genex L.%Correa%NULL%1,                  Luigi%Camporota%NULL%1,                  Andrew%Retter%NULL%1,                  Andrew%Doyle%NULL%1,                  Guy W.%Glover%NULL%2,                  Guy W.%Glover%NULL%0,                  Peter B.%Sherren%NULL%1,                  Stephen J.%Tricklebank%NULL%1,                  Sangita%Agarwal%NULL%1,                  Boris E.%Lams%NULL%1,                  Nicholas A.%Barrett%NULL%1,                  Nicholas%Ioannou%NULL%1,                  Jonathan%Edgeworth%NULL%1,                  Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1607,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1588,7 +1636,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1617,7 +1665,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1646,7 +1694,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1675,7 +1723,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1704,7 +1752,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1733,7 +1781,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1762,7 +1810,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1791,7 +1839,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1820,7 +1868,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1849,7 +1897,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1878,7 +1926,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1907,7 +1955,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1936,7 +1984,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1965,7 +2013,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -1994,7 +2042,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="386">
   <si>
     <t>Doi</t>
   </si>
@@ -1268,6 +1268,66 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,                  Blair%Merrick%NULL%2,                  Blair%Merrick%NULL%0,                  Genex L.%Correa%NULL%1,                  Luigi%Camporota%NULL%1,                  Andrew%Retter%NULL%1,                  Andrew%Doyle%NULL%1,                  Guy W.%Glover%NULL%2,                  Guy W.%Glover%NULL%0,                  Peter B.%Sherren%NULL%1,                  Stephen J.%Tricklebank%NULL%1,                  Sangita%Agarwal%NULL%1,                  Boris E.%Lams%NULL%1,                  Nicholas A.%Barrett%NULL%1,                  Nicholas%Ioannou%NULL%1,                  Jonathan%Edgeworth%NULL%1,                  Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                  Akshay%Kohli%coreGivesNoEmail%1,                  Alexandra%Pratt%coreGivesNoEmail%1,                  Emil%Oweis%coreGivesNoEmail%1,                  Eric%Kriner%coreGivesNoEmail%1,                  Ezequiel%Molina%coreGivesNoEmail%1,                  Fatima%Hayat%coreGivesNoEmail%1,                  Karthik%Vedantam%coreGivesNoEmail%1,                  Makdisi%G%coreGivesNoEmail%1,                  Muhammad%D Hashmi%coreGivesNoEmail%1,                  Muhtadi%Alnababteh%coreGivesNoEmail%1,                  Rajus%Chopra%coreGivesNoEmail%1,                  World%Health Organization%coreGivesNoEmail%1,                  Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                   Olusegun%Olusanya%NULL%2,                   Olusegun%Olusanya%NULL%0,                   Marta Montero%Baladia%NULL%1,                   Harriet%Young%NULL%1,                   Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                   Graeme%MacLaren%NULL%1,                   Philip S%Boonstra%NULL%1,                   Theodore J%Iwashyna%NULL%1,                   Arthur S%Slutsky%NULL%1,                   Eddy%Fan%NULL%1,                   Robert H%Bartlett%NULL%1,                   Joseph E%Tonna%NULL%1,                   Robert%Hyslop%NULL%1,                   Jeffrey J%Fanning%NULL%1,                   Peter T%Rycus%NULL%1,                   Steve J%Hyer%NULL%1,                   Marc M%Anders%NULL%1,                   Cara L%Agerstrand%NULL%1,                   Katarzyna%Hryniewicz%NULL%1,                   Rodrigo%Diaz%NULL%1,                   Roberto%Lorusso%NULL%1,                   Alain%Combes%NULL%1,                   Daniel%Brodie%NULL%0,                   Peta%Alexander%NULL%1,                   Nicholas%Barrett%NULL%0,                   Jan%Bělohlávek%NULL%1,                   Dale%Fisher%NULL%1,                   John%Fraser%NULL%1,                   Ali Ait%Hssain%NULL%0,                   Jae Sung%Jung%NULL%1,                   Michael%McMullan%NULL%1,                   Yatin%Mehta%NULL%1,                   Mark T.%Ogino%NULL%1,                   Matthew L.%Paden%NULL%1,                   Kiran%Shekar%NULL%1,                   Christine%Stead%NULL%1,                   Yasir%Abu-Omar%NULL%1,                   Vanni%Agnoletti%NULL%1,                   Anzila%Akbar%NULL%1,                   Huda%Alfoudri%NULL%1,                   Carlos%Alviar%NULL%1,                   Vladimir%Aronsky%NULL%1,                   Erin%August%NULL%1,                   Georg%Auzinger%NULL%1,                   Hilda%Aveja%NULL%1,                   Rhonda%Bakken%NULL%1,                   Joan%Balcells%NULL%1,                   Sripal%Bangalore%NULL%1,                   Bernard W.%Barnes%NULL%1,                   Alaiza%Bautista%NULL%1,                   Lorraine L.%Bellows%NULL%1,                   Felipe%Beltran%NULL%1,                   Peyman%Benharash%NULL%1,                   Marco%Benni%NULL%1,                   Jennifer%Berg%NULL%1,                   Pietro%Bertini%NULL%1,                   Pablo%Blanco-Schweizer%NULL%1,                   Melissa%Brunsvold%NULL%1,                   Jenny%Budd%NULL%1,                   Debra%Camp%NULL%1,                   Mark%Caridi-Scheible%NULL%0,                   Edmund%Carton%NULL%1,                   Elena%Casanova-Ghosh%NULL%1,                   Anthony%Castleberry%NULL%1,                   Christopher T.%Chipongian%NULL%1,                   Chang Woo%Choi%NULL%1,                   Alessandro%Circelli%NULL%1,                   Elliott%Cohen%NULL%1,                   Michael%Collins%NULL%1,                   Scott%Copus%NULL%1,                   Jill%Coy%NULL%1,                   Brandon%Crist%NULL%1,                   Leonora%Cruz%NULL%1,                   Mirosław%Czuczwar%NULL%1,                   Mani%Daneshmand%NULL%1,                   Daniel%Davis II%NULL%1,                   Kim%De la Cruz%NULL%1,                   Cyndie%Devers%NULL%1,                   Toni%Duculan%NULL%1,                   Lucian%Durham%NULL%1,                   Subbarao%Elapavaluru%NULL%1,                   Carlos V.%Elzo Kraemer%NULL%1,                   EDMÍLSON CARDOSO%Filho%NULL%1,                   Jillian%Fitzgerald%NULL%1,                   Giuseppe%Foti%NULL%1,                   Matthew%Fox%NULL%1,                   David%Fritschen%NULL%1,                   David%Fullerton%NULL%1,                   Elton%Gelandt%NULL%1,                   Stacy%Gerle%NULL%1,                   Marco%Giani%NULL%1,                   Si Guim%Goh%NULL%1,                   Sara%Govener%NULL%1,                   Julie%Grone%NULL%1,                   Miles%Guber%NULL%1,                   Vadim%Gudzenko%NULL%1,                   Daniel%Gutteridge%NULL%1,                   Jennifer%Guy%NULL%1,                   Jonathan%Haft%NULL%1,                   Cameron%Hall%NULL%1,                   Ibrahim Fawzy%Hassan%NULL%1,                   Rubén%Herrán%NULL%1,                   Hitoshi%Hirose%NULL%0,                   Abdulsalam Saif%Ibrahim%NULL%1,                   Don%Igielski%NULL%1,                   Felicia A.%Ivascu%NULL%1,                   Jaume%Izquierdo Blasco%NULL%1,                   Julie%Jackson%NULL%1,                   Harsh%Jain%NULL%1,                   Bhavini%Jaiswal%NULL%1,                   Andrea C.%Johnson%NULL%1,                   Jenniver A.%Jurynec%NULL%1,                   Norma M%Kellter%NULL%1,                   Adam%Kohl%NULL%1,                   Zachary%Kon%NULL%1,                   Markus%Kredel%NULL%1,                   Karen%Kriska%NULL%1,                   Chandra%Kunavarapu%NULL%1,                   Oude%Lansink-Hartgring%NULL%1,                   Jeliene%LaRocque%NULL%1,                   Sharon Beth%Larson%NULL%1,                   Tracie%Layne%NULL%1,                   Stephane%Ledot%NULL%1,                   Napolitan%Lena%NULL%1,                   Jonathan%Lillie%NULL%1,                   Gösta%Lotz%NULL%1,                   Mark%Lucas%NULL%1,                   Lee%Ludwigson%NULL%1,                   Jacinta J.%Maas%NULL%1,                   Joanna%Maertens%NULL%1,                   David%Mast%NULL%1,                   Scott%McCardle%NULL%1,                   Bernard%McDonald%NULL%1,                   Allison%McLarty%NULL%1,                   Chelsea%McMahon%NULL%1,                   Patrick%Meybohm%NULL%1,                   Bart%Meyns%NULL%1,                   Casey%Miller%NULL%1,                   Fernando%Moraes Neto%NULL%1,                   Kelly%Morris%NULL%1,                   Ralf%Muellenbach%NULL%1,                   Meghan%Nicholson%NULL%1,                   Serena%O'Brien%NULL%1,                   Kathryn%O'Keefe%NULL%1,                   Tawnya%Ogston%NULL%1,                   Gary%Oldenburg%NULL%1,                   Fabiana M.%Oliveira%NULL%1,                   Emily%Oppel%NULL%1,                   Diego%Pardo%NULL%2,                   Diego%Pardo%NULL%0,                   Sara J.%Parker%NULL%1,                   Finn M.%Pedersen%NULL%1,                   Crescens%Pellecchia%NULL%1,                   Jose A.S.%Pelligrini%NULL%1,                   Thao T.N.%Pham%NULL%1,                   Ann R.%Phillips%NULL%1,                   Tasneem%Pirani%NULL%1,                   Paweł%Piwowarczyk%NULL%1,                   Robert%Plambeck%NULL%1,                   William%Pruett%NULL%1,                   Brittany%Quandt%NULL%1,                   Kollengode%Ramanathan%NULL%1,                   Alejandro%Rey%NULL%1,                   Christian%Reyher%NULL%1,                   Jordi%Riera del Brio%NULL%1,                   Rachel%Roberts%NULL%1,                   David%Roe%NULL%1,                   Peter P.%Roeleveld%NULL%1,                   Janet%Rudy%NULL%1,                   Luis F.%Rueda%NULL%1,                   Emanuele%Russo%NULL%1,                   Jesús%Sánchez Ballesteros%NULL%1,                   Nancy%Satou%NULL%1,                   Mauricio Guidi%Saueressig%NULL%1,                   Paul C.%Saunders%NULL%1,                   Margaret%Schlotterbeck%NULL%1,                   Patricia%Schwarz%NULL%1,                   Nicole%Scriven%NULL%1,                   Alexis%Serra%NULL%1,                   Mohammad%Shamsah%NULL%1,                   Lucy%Sim%NULL%1,                   Alexandra%Smart%NULL%1,                   Adam%Smith%NULL%1,                   Deane%Smith%NULL%1,                   Maggie%Smith%NULL%1,                   Neel%Sodha%NULL%1,                   Michael%Sonntagbauer%NULL%1,                   Marc%Sorenson%NULL%1,                   Eric B%Stallkamp%NULL%1,                   Allison%Stewart%NULL%1,                   Kathy%Swartz%NULL%1,                   Koji%Takeda%NULL%1,                   Shaun%Thompson%NULL%1,                   Bridget%Toy%NULL%1,                   Divina%Tuazon%NULL%1,                   Makoto%Uchiyama%NULL%1,                   Obiora I.%Udeozo%NULL%1,                   Scott%van Poppel%NULL%1,                   Corey%Ventetuolo%NULL%1,                   Leen%Vercaemst%NULL%1,                   Nguyen V.%Vinh Chau%NULL%1,                   I-Wen%Wang%NULL%1,                   Carrie%Williamson%NULL%1,                   Brock%Wilson%NULL%1,                   Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                   Susan%Dashey%NULL%1,                   Abigail%Stubbs%NULL%1,                   Florence YL%Lai%NULL%1,                   Paul W%Bird%NULL%1,                   Vinay%Badhwar%NULL%1,                   Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                   Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                   Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                   Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                   Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                   Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                   Elise%Godeau%elisegodeau@gmail.com%1,                   Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                   Steven%Grange%Steven.Grange@chu-rouen.fr%1,                   Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                   Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                   Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                   Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                   Alexandra%Monnier%NULL%1,                   Marc%Puyraveau%NULL%1,                   Stephanie%Perrier%NULL%1,                   Pierre-Olivier%Ludes%NULL%1,                   Anne%Olland%NULL%1,                   Paul-Michel%Mertes%NULL%2,                   Francis%Schneider%NULL%2,                   Julie%Helms%NULL%3,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,            Clark g.%Owyang%xref no email%1,            Jai%Madhok%xref no email%1,            Florent%Laverdure%xref no email%1,            Ma\u00efra%Gaillard%xref no email%1,            Antoine%Girault%xref no email%1,            Guillaume%Lebreton%xref no email%1,            Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                   Christophe%Beyls%NULL%2,                   Christophe%Beyls%NULL%0,                   Mathieu%Guilbart%NULL%1,                   Alexandre%Coquet%NULL%1,                   Pascal%Berna%NULL%1,                   Guillaume%Haye%NULL%1,                   Pierre-Alexandre%Roger%NULL%1,                   Patricia%Besserve%NULL%1,                   Michael%Bernasinski%NULL%1,                   Hervé%Dupont%NULL%1,                   Osama%Abou-Arab%NULL%1,                   Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                   Jonathan%Rilinger%NULL%2,                   Jonathan%Rilinger%NULL%0,                   Corinna Nadine%Lang%NULL%2,                   Corinna Nadine%Lang%NULL%0,                   Viviane%Zotzmann%NULL%1,                   Klaus%Kaier%NULL%1,                   Peter%Stachon%NULL%1,                   Paul Marc%Biever%NULL%1,                   Tobias%Wengenmayer%NULL%1,                   Daniel%Duerschmied%NULL%1,                   Christoph%Bode%NULL%1,                   Dawid Leander%Staudacher%NULL%1,                   Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                   JaeBum%Kim%NULL%1,                   Jonghyun%Baek%NULL%1,                   Hanna%Jung%NULL%1,                   Jae Seok%Jang%NULL%1,                   Jae Seok%Park%NULL%0,                   Tak-Hyuk%Oh%NULL%1,                   Se Yong%Jang%NULL%1,                   Yun Seok%Kim%NULL%1,                   Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                   S.%Besset%NULL%1,                   S.%Freita-Ramos%NULL%1,                   M.%Amouretti%NULL%1,                   P.A.%Billiet%NULL%1,                   M.%Dao%NULL%1,                   L.M.%Dumont%NULL%1,                   L.%Federici%NULL%1,                   B.%Gaborieau%NULL%1,                   D.%Longrois%NULL%1,                   P.%Postel-Vinay%NULL%1,                   C.%Vuillard%NULL%1,                   N.%Zucman%NULL%1,                   G.%Lebreton%NULL%1,                   A.%Combes%NULL%1,                   D.%Dreyfuss%NULL%1,                   J.D.%Ricard%NULL%1,                   D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                   Jean-Daniel%Chiche%NULL%1,                   Julien%Charpentier%NULL%1,                   Zakaria%Ait Hamou%NULL%1,                   Paul%Jaubert%NULL%1,                   Sarah%Benghanem%NULL%1,                   Pierre%Dupland%NULL%1,                   Ariane%Gavaud%NULL%1,                   Frédéric%Péne%NULL%1,                   Alain%Cariou%NULL%1,                   Jean-Paul%Mira%NULL%1,                   Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,            C.W.%Freeman%xref no email%1,            S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                   Dominik%Jarczak%NULL%1,                   Liina%Thasler%NULL%1,                   Martin%Bachmann%NULL%1,                   Frank%Schulte%NULL%1,                   Berthold%Bein%NULL%1,                   Christian Friedrich%Weber%NULL%1,                   Ulrich%Schäfer%NULL%1,                   Carsten%Veit%NULL%1,                   Hans-Peter%Hauber%NULL%1,                   Sebastian%Kopp%NULL%1,                   Karsten%Sydow%NULL%1,                   Andreas%de Weerth%NULL%1,                   Marc%Bota%NULL%1,                   Rüdiger%Schreiber%NULL%1,                   Oliver%Detsch%NULL%1,                   Jan-Peer%Rogmann%NULL%1,                   Daniel%Frings%NULL%1,                   Barbara%Sensen%NULL%1,                   Christoph%Burdelski%NULL%1,                   Olaf%Boenisch%NULL%1,                   Axel%Nierhaus%NULL%1,                   Geraldine%de Heer%NULL%1,                   Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                   J. Michael%DiMaio%NULL%1,                   John J.%Squiers%NULL%1,                   Jasjit K.%Banwait%NULL%1,                   Dan M.%Meyer%NULL%1,                   Timothy J.%George%NULL%1,                   Gary S.%Schwartz%NULL%1,                   Britton A.%Blough%NULL%1,                   Robert L.%Gottlieb%NULL%1,                   Gonzo%Gonzalez-Stawinski%NULL%1,                   Anita R.%Krueger%NULL%1,                   Kara%Monday%NULL%1,                   Ramachandra C.%Reddy%NULL%1,                   Jorge F.%Velazco%NULL%1,                   Omar%Hernandez%NULL%1,                   Chris%Martin%NULL%1,                   Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                   Blair%Merrick%NULL%2,                   Blair%Merrick%NULL%0,                   Genex L.%Correa%NULL%1,                   Luigi%Camporota%NULL%1,                   Andrew%Retter%NULL%1,                   Andrew%Doyle%NULL%1,                   Guy W.%Glover%NULL%2,                   Guy W.%Glover%NULL%0,                   Peter B.%Sherren%NULL%1,                   Stephen J.%Tricklebank%NULL%1,                   Sangita%Agarwal%NULL%1,                   Boris E.%Lams%NULL%1,                   Nicholas A.%Barrett%NULL%1,                   Nicholas%Ioannou%NULL%1,                   Jonathan%Edgeworth%NULL%1,                   Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1667,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1619,7 +1679,7 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
@@ -1636,7 +1696,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1648,7 +1708,7 @@
         <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4">
@@ -1665,7 +1725,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1677,7 +1737,7 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5">
@@ -1694,7 +1754,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1706,7 +1766,7 @@
         <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6">
@@ -1723,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1735,7 +1795,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7">
@@ -1752,7 +1812,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1764,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
@@ -1781,7 +1841,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1793,7 +1853,7 @@
         <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9">
@@ -1810,7 +1870,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1822,7 +1882,7 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
@@ -1839,7 +1899,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1851,7 +1911,7 @@
         <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11">
@@ -1868,7 +1928,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1880,7 +1940,7 @@
         <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
@@ -1897,7 +1957,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1909,7 +1969,7 @@
         <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1986,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -1938,7 +1998,7 @@
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
@@ -1955,7 +2015,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1967,7 +2027,7 @@
         <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
@@ -1984,7 +2044,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1996,7 +2056,7 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16">
@@ -2013,7 +2073,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2025,7 +2085,7 @@
         <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17">
@@ -2042,7 +2102,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2054,7 +2114,7 @@
         <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="402">
   <si>
     <t>Doi</t>
   </si>
@@ -1328,6 +1328,54 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,                   Blair%Merrick%NULL%2,                   Blair%Merrick%NULL%0,                   Genex L.%Correa%NULL%1,                   Luigi%Camporota%NULL%1,                   Andrew%Retter%NULL%1,                   Andrew%Doyle%NULL%1,                   Guy W.%Glover%NULL%2,                   Guy W.%Glover%NULL%0,                   Peter B.%Sherren%NULL%1,                   Stephen J.%Tricklebank%NULL%1,                   Sangita%Agarwal%NULL%1,                   Boris E.%Lams%NULL%1,                   Nicholas A.%Barrett%NULL%1,                   Nicholas%Ioannou%NULL%1,                   Jonathan%Edgeworth%NULL%1,                   Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                   Akshay%Kohli%coreGivesNoEmail%1,                   Alexandra%Pratt%coreGivesNoEmail%1,                   Emil%Oweis%coreGivesNoEmail%1,                   Eric%Kriner%coreGivesNoEmail%1,                   Ezequiel%Molina%coreGivesNoEmail%1,                   Fatima%Hayat%coreGivesNoEmail%1,                   Karthik%Vedantam%coreGivesNoEmail%1,                   Makdisi%G%coreGivesNoEmail%1,                   Muhammad%D Hashmi%coreGivesNoEmail%1,                   Muhtadi%Alnababteh%coreGivesNoEmail%1,                   Rajus%Chopra%coreGivesNoEmail%1,                   World%Health Organization%coreGivesNoEmail%1,                   Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                    Olusegun%Olusanya%NULL%2,                    Olusegun%Olusanya%NULL%0,                    Marta Montero%Baladia%NULL%1,                    Harriet%Young%NULL%1,                    Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                    Graeme%MacLaren%NULL%1,                    Philip S%Boonstra%NULL%1,                    Theodore J%Iwashyna%NULL%1,                    Arthur S%Slutsky%NULL%1,                    Eddy%Fan%NULL%1,                    Robert H%Bartlett%NULL%1,                    Joseph E%Tonna%NULL%1,                    Robert%Hyslop%NULL%1,                    Jeffrey J%Fanning%NULL%1,                    Peter T%Rycus%NULL%1,                    Steve J%Hyer%NULL%1,                    Marc M%Anders%NULL%1,                    Cara L%Agerstrand%NULL%1,                    Katarzyna%Hryniewicz%NULL%1,                    Rodrigo%Diaz%NULL%1,                    Roberto%Lorusso%NULL%1,                    Alain%Combes%NULL%1,                    Daniel%Brodie%NULL%0,                    Peta%Alexander%NULL%1,                    Nicholas%Barrett%NULL%0,                    Jan%Bělohlávek%NULL%1,                    Dale%Fisher%NULL%1,                    John%Fraser%NULL%1,                    Ali Ait%Hssain%NULL%0,                    Jae Sung%Jung%NULL%1,                    Michael%McMullan%NULL%1,                    Yatin%Mehta%NULL%1,                    Mark T.%Ogino%NULL%1,                    Matthew L.%Paden%NULL%1,                    Kiran%Shekar%NULL%1,                    Christine%Stead%NULL%1,                    Yasir%Abu-Omar%NULL%1,                    Vanni%Agnoletti%NULL%1,                    Anzila%Akbar%NULL%1,                    Huda%Alfoudri%NULL%1,                    Carlos%Alviar%NULL%1,                    Vladimir%Aronsky%NULL%1,                    Erin%August%NULL%1,                    Georg%Auzinger%NULL%1,                    Hilda%Aveja%NULL%1,                    Rhonda%Bakken%NULL%1,                    Joan%Balcells%NULL%1,                    Sripal%Bangalore%NULL%1,                    Bernard W.%Barnes%NULL%1,                    Alaiza%Bautista%NULL%1,                    Lorraine L.%Bellows%NULL%1,                    Felipe%Beltran%NULL%1,                    Peyman%Benharash%NULL%1,                    Marco%Benni%NULL%1,                    Jennifer%Berg%NULL%1,                    Pietro%Bertini%NULL%1,                    Pablo%Blanco-Schweizer%NULL%1,                    Melissa%Brunsvold%NULL%1,                    Jenny%Budd%NULL%1,                    Debra%Camp%NULL%1,                    Mark%Caridi-Scheible%NULL%0,                    Edmund%Carton%NULL%1,                    Elena%Casanova-Ghosh%NULL%1,                    Anthony%Castleberry%NULL%1,                    Christopher T.%Chipongian%NULL%1,                    Chang Woo%Choi%NULL%1,                    Alessandro%Circelli%NULL%1,                    Elliott%Cohen%NULL%1,                    Michael%Collins%NULL%1,                    Scott%Copus%NULL%1,                    Jill%Coy%NULL%1,                    Brandon%Crist%NULL%1,                    Leonora%Cruz%NULL%1,                    Mirosław%Czuczwar%NULL%1,                    Mani%Daneshmand%NULL%1,                    Daniel%Davis II%NULL%1,                    Kim%De la Cruz%NULL%1,                    Cyndie%Devers%NULL%1,                    Toni%Duculan%NULL%1,                    Lucian%Durham%NULL%1,                    Subbarao%Elapavaluru%NULL%1,                    Carlos V.%Elzo Kraemer%NULL%1,                    EDMÍLSON CARDOSO%Filho%NULL%1,                    Jillian%Fitzgerald%NULL%1,                    Giuseppe%Foti%NULL%1,                    Matthew%Fox%NULL%1,                    David%Fritschen%NULL%1,                    David%Fullerton%NULL%1,                    Elton%Gelandt%NULL%1,                    Stacy%Gerle%NULL%1,                    Marco%Giani%NULL%1,                    Si Guim%Goh%NULL%1,                    Sara%Govener%NULL%1,                    Julie%Grone%NULL%1,                    Miles%Guber%NULL%1,                    Vadim%Gudzenko%NULL%1,                    Daniel%Gutteridge%NULL%1,                    Jennifer%Guy%NULL%1,                    Jonathan%Haft%NULL%1,                    Cameron%Hall%NULL%1,                    Ibrahim Fawzy%Hassan%NULL%1,                    Rubén%Herrán%NULL%1,                    Hitoshi%Hirose%NULL%0,                    Abdulsalam Saif%Ibrahim%NULL%1,                    Don%Igielski%NULL%1,                    Felicia A.%Ivascu%NULL%1,                    Jaume%Izquierdo Blasco%NULL%1,                    Julie%Jackson%NULL%1,                    Harsh%Jain%NULL%1,                    Bhavini%Jaiswal%NULL%1,                    Andrea C.%Johnson%NULL%1,                    Jenniver A.%Jurynec%NULL%1,                    Norma M%Kellter%NULL%1,                    Adam%Kohl%NULL%1,                    Zachary%Kon%NULL%1,                    Markus%Kredel%NULL%1,                    Karen%Kriska%NULL%1,                    Chandra%Kunavarapu%NULL%1,                    Oude%Lansink-Hartgring%NULL%1,                    Jeliene%LaRocque%NULL%1,                    Sharon Beth%Larson%NULL%1,                    Tracie%Layne%NULL%1,                    Stephane%Ledot%NULL%1,                    Napolitan%Lena%NULL%1,                    Jonathan%Lillie%NULL%1,                    Gösta%Lotz%NULL%1,                    Mark%Lucas%NULL%1,                    Lee%Ludwigson%NULL%1,                    Jacinta J.%Maas%NULL%1,                    Joanna%Maertens%NULL%1,                    David%Mast%NULL%1,                    Scott%McCardle%NULL%1,                    Bernard%McDonald%NULL%1,                    Allison%McLarty%NULL%1,                    Chelsea%McMahon%NULL%1,                    Patrick%Meybohm%NULL%1,                    Bart%Meyns%NULL%1,                    Casey%Miller%NULL%1,                    Fernando%Moraes Neto%NULL%1,                    Kelly%Morris%NULL%1,                    Ralf%Muellenbach%NULL%1,                    Meghan%Nicholson%NULL%1,                    Serena%O'Brien%NULL%1,                    Kathryn%O'Keefe%NULL%1,                    Tawnya%Ogston%NULL%1,                    Gary%Oldenburg%NULL%1,                    Fabiana M.%Oliveira%NULL%1,                    Emily%Oppel%NULL%1,                    Diego%Pardo%NULL%2,                    Diego%Pardo%NULL%0,                    Sara J.%Parker%NULL%1,                    Finn M.%Pedersen%NULL%1,                    Crescens%Pellecchia%NULL%1,                    Jose A.S.%Pelligrini%NULL%1,                    Thao T.N.%Pham%NULL%1,                    Ann R.%Phillips%NULL%1,                    Tasneem%Pirani%NULL%1,                    Paweł%Piwowarczyk%NULL%1,                    Robert%Plambeck%NULL%1,                    William%Pruett%NULL%1,                    Brittany%Quandt%NULL%1,                    Kollengode%Ramanathan%NULL%1,                    Alejandro%Rey%NULL%1,                    Christian%Reyher%NULL%1,                    Jordi%Riera del Brio%NULL%1,                    Rachel%Roberts%NULL%1,                    David%Roe%NULL%1,                    Peter P.%Roeleveld%NULL%1,                    Janet%Rudy%NULL%1,                    Luis F.%Rueda%NULL%1,                    Emanuele%Russo%NULL%1,                    Jesús%Sánchez Ballesteros%NULL%1,                    Nancy%Satou%NULL%1,                    Mauricio Guidi%Saueressig%NULL%1,                    Paul C.%Saunders%NULL%1,                    Margaret%Schlotterbeck%NULL%1,                    Patricia%Schwarz%NULL%1,                    Nicole%Scriven%NULL%1,                    Alexis%Serra%NULL%1,                    Mohammad%Shamsah%NULL%1,                    Lucy%Sim%NULL%1,                    Alexandra%Smart%NULL%1,                    Adam%Smith%NULL%1,                    Deane%Smith%NULL%1,                    Maggie%Smith%NULL%1,                    Neel%Sodha%NULL%1,                    Michael%Sonntagbauer%NULL%1,                    Marc%Sorenson%NULL%1,                    Eric B%Stallkamp%NULL%1,                    Allison%Stewart%NULL%1,                    Kathy%Swartz%NULL%1,                    Koji%Takeda%NULL%1,                    Shaun%Thompson%NULL%1,                    Bridget%Toy%NULL%1,                    Divina%Tuazon%NULL%1,                    Makoto%Uchiyama%NULL%1,                    Obiora I.%Udeozo%NULL%1,                    Scott%van Poppel%NULL%1,                    Corey%Ventetuolo%NULL%1,                    Leen%Vercaemst%NULL%1,                    Nguyen V.%Vinh Chau%NULL%1,                    I-Wen%Wang%NULL%1,                    Carrie%Williamson%NULL%1,                    Brock%Wilson%NULL%1,                    Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                    Susan%Dashey%NULL%1,                    Abigail%Stubbs%NULL%1,                    Florence YL%Lai%NULL%1,                    Paul W%Bird%NULL%1,                    Vinay%Badhwar%NULL%1,                    Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                    Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                    Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                    Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                    Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                    Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                    Elise%Godeau%elisegodeau@gmail.com%1,                    Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                    Steven%Grange%Steven.Grange@chu-rouen.fr%1,                    Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                    Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                    Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                    Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                    Alexandra%Monnier%NULL%1,                    Marc%Puyraveau%NULL%1,                    Stephanie%Perrier%NULL%1,                    Pierre-Olivier%Ludes%NULL%1,                    Anne%Olland%NULL%1,                    Paul-Michel%Mertes%NULL%2,                    Francis%Schneider%NULL%2,                    Julie%Helms%NULL%3,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%1,             Clark g.%Owyang%xref no email%1,             Jai%Madhok%xref no email%1,             Florent%Laverdure%xref no email%1,             Ma\u00efra%Gaillard%xref no email%1,             Antoine%Girault%xref no email%1,             Guillaume%Lebreton%xref no email%1,             Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                    Christophe%Beyls%NULL%2,                    Christophe%Beyls%NULL%0,                    Mathieu%Guilbart%NULL%1,                    Alexandre%Coquet%NULL%1,                    Pascal%Berna%NULL%1,                    Guillaume%Haye%NULL%1,                    Pierre-Alexandre%Roger%NULL%1,                    Patricia%Besserve%NULL%1,                    Michael%Bernasinski%NULL%1,                    Hervé%Dupont%NULL%1,                    Osama%Abou-Arab%NULL%1,                    Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                    Jonathan%Rilinger%NULL%2,                    Jonathan%Rilinger%NULL%0,                    Corinna Nadine%Lang%NULL%2,                    Corinna Nadine%Lang%NULL%0,                    Viviane%Zotzmann%NULL%1,                    Klaus%Kaier%NULL%1,                    Peter%Stachon%NULL%1,                    Paul Marc%Biever%NULL%1,                    Tobias%Wengenmayer%NULL%1,                    Daniel%Duerschmied%NULL%1,                    Christoph%Bode%NULL%1,                    Dawid Leander%Staudacher%NULL%1,                    Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                    JaeBum%Kim%NULL%1,                    Jonghyun%Baek%NULL%1,                    Hanna%Jung%NULL%1,                    Jae Seok%Jang%NULL%1,                    Jae Seok%Park%NULL%0,                    Tak-Hyuk%Oh%NULL%1,                    Se Yong%Jang%NULL%1,                    Yun Seok%Kim%NULL%1,                    Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                    S.%Besset%NULL%1,                    S.%Freita-Ramos%NULL%1,                    M.%Amouretti%NULL%1,                    P.A.%Billiet%NULL%1,                    M.%Dao%NULL%1,                    L.M.%Dumont%NULL%1,                    L.%Federici%NULL%1,                    B.%Gaborieau%NULL%1,                    D.%Longrois%NULL%1,                    P.%Postel-Vinay%NULL%1,                    C.%Vuillard%NULL%1,                    N.%Zucman%NULL%1,                    G.%Lebreton%NULL%1,                    A.%Combes%NULL%1,                    D.%Dreyfuss%NULL%1,                    J.D.%Ricard%NULL%1,                    D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                    Jean-Daniel%Chiche%NULL%1,                    Julien%Charpentier%NULL%1,                    Zakaria%Ait Hamou%NULL%1,                    Paul%Jaubert%NULL%1,                    Sarah%Benghanem%NULL%1,                    Pierre%Dupland%NULL%1,                    Ariane%Gavaud%NULL%1,                    Frédéric%Péne%NULL%1,                    Alain%Cariou%NULL%1,                    Jean-Paul%Mira%NULL%1,                    Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%1,             C.W.%Freeman%xref no email%1,             S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                    Dominik%Jarczak%NULL%1,                    Liina%Thasler%NULL%1,                    Martin%Bachmann%NULL%1,                    Frank%Schulte%NULL%1,                    Berthold%Bein%NULL%1,                    Christian Friedrich%Weber%NULL%1,                    Ulrich%Schäfer%NULL%1,                    Carsten%Veit%NULL%1,                    Hans-Peter%Hauber%NULL%1,                    Sebastian%Kopp%NULL%1,                    Karsten%Sydow%NULL%1,                    Andreas%de Weerth%NULL%1,                    Marc%Bota%NULL%1,                    Rüdiger%Schreiber%NULL%1,                    Oliver%Detsch%NULL%1,                    Jan-Peer%Rogmann%NULL%1,                    Daniel%Frings%NULL%1,                    Barbara%Sensen%NULL%1,                    Christoph%Burdelski%NULL%1,                    Olaf%Boenisch%NULL%1,                    Axel%Nierhaus%NULL%1,                    Geraldine%de Heer%NULL%1,                    Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                    J. Michael%DiMaio%NULL%1,                    John J.%Squiers%NULL%1,                    Jasjit K.%Banwait%NULL%1,                    Dan M.%Meyer%NULL%1,                    Timothy J.%George%NULL%1,                    Gary S.%Schwartz%NULL%1,                    Britton A.%Blough%NULL%1,                    Robert L.%Gottlieb%NULL%1,                    Gonzo%Gonzalez-Stawinski%NULL%1,                    Anita R.%Krueger%NULL%1,                    Kara%Monday%NULL%1,                    Ramachandra C.%Reddy%NULL%1,                    Jorge F.%Velazco%NULL%1,                    Omar%Hernandez%NULL%1,                    Chris%Martin%NULL%1,                    Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                    Blair%Merrick%NULL%2,                    Blair%Merrick%NULL%0,                    Genex L.%Correa%NULL%1,                    Luigi%Camporota%NULL%1,                    Andrew%Retter%NULL%1,                    Andrew%Doyle%NULL%1,                    Guy W.%Glover%NULL%2,                    Guy W.%Glover%NULL%0,                    Peter B.%Sherren%NULL%1,                    Stephen J.%Tricklebank%NULL%1,                    Sangita%Agarwal%NULL%1,                    Boris E.%Lams%NULL%1,                    Nicholas A.%Barrett%NULL%1,                    Nicholas%Ioannou%NULL%1,                    Jonathan%Edgeworth%NULL%1,                    Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1696,7 +1744,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1725,7 +1773,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1754,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1783,7 +1831,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1812,7 +1860,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1841,7 +1889,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1870,7 +1918,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1899,7 +1947,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1928,7 +1976,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1957,7 +2005,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -1986,7 +2034,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2015,7 +2063,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2044,7 +2092,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2073,7 +2121,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2102,7 +2150,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="477">
   <si>
     <t>Doi</t>
   </si>
@@ -1376,6 +1376,231 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,                    Blair%Merrick%NULL%2,                    Blair%Merrick%NULL%0,                    Genex L.%Correa%NULL%1,                    Luigi%Camporota%NULL%1,                    Andrew%Retter%NULL%1,                    Andrew%Doyle%NULL%1,                    Guy W.%Glover%NULL%2,                    Guy W.%Glover%NULL%0,                    Peter B.%Sherren%NULL%1,                    Stephen J.%Tricklebank%NULL%1,                    Sangita%Agarwal%NULL%1,                    Boris E.%Lams%NULL%1,                    Nicholas A.%Barrett%NULL%1,                    Nicholas%Ioannou%NULL%1,                    Jonathan%Edgeworth%NULL%1,                    Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                    Akshay%Kohli%coreGivesNoEmail%1,                    Alexandra%Pratt%coreGivesNoEmail%1,                    Emil%Oweis%coreGivesNoEmail%1,                    Eric%Kriner%coreGivesNoEmail%1,                    Ezequiel%Molina%coreGivesNoEmail%1,                    Fatima%Hayat%coreGivesNoEmail%1,                    Karthik%Vedantam%coreGivesNoEmail%1,                    Makdisi%G%coreGivesNoEmail%1,                    Muhammad%D Hashmi%coreGivesNoEmail%1,                    Muhtadi%Alnababteh%coreGivesNoEmail%1,                    Rajus%Chopra%coreGivesNoEmail%1,                    World%Health Organization%coreGivesNoEmail%1,                    Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                     Olusegun%Olusanya%NULL%2,                     Olusegun%Olusanya%NULL%0,                     Marta Montero%Baladia%NULL%1,                     Harriet%Young%NULL%1,                     Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                     Graeme%MacLaren%NULL%1,                     Philip S%Boonstra%NULL%1,                     Theodore J%Iwashyna%NULL%1,                     Arthur S%Slutsky%NULL%1,                     Eddy%Fan%NULL%1,                     Robert H%Bartlett%NULL%1,                     Joseph E%Tonna%NULL%1,                     Robert%Hyslop%NULL%1,                     Jeffrey J%Fanning%NULL%1,                     Peter T%Rycus%NULL%1,                     Steve J%Hyer%NULL%1,                     Marc M%Anders%NULL%1,                     Cara L%Agerstrand%NULL%1,                     Katarzyna%Hryniewicz%NULL%1,                     Rodrigo%Diaz%NULL%1,                     Roberto%Lorusso%NULL%1,                     Alain%Combes%NULL%1,                     Daniel%Brodie%NULL%0,                     Peta%Alexander%NULL%1,                     Nicholas%Barrett%NULL%0,                     Jan%Bělohlávek%NULL%1,                     Dale%Fisher%NULL%1,                     John%Fraser%NULL%1,                     Ali Ait%Hssain%NULL%0,                     Jae Sung%Jung%NULL%1,                     Michael%McMullan%NULL%1,                     Yatin%Mehta%NULL%1,                     Mark T.%Ogino%NULL%1,                     Matthew L.%Paden%NULL%1,                     Kiran%Shekar%NULL%1,                     Christine%Stead%NULL%1,                     Yasir%Abu-Omar%NULL%1,                     Vanni%Agnoletti%NULL%1,                     Anzila%Akbar%NULL%1,                     Huda%Alfoudri%NULL%1,                     Carlos%Alviar%NULL%1,                     Vladimir%Aronsky%NULL%1,                     Erin%August%NULL%1,                     Georg%Auzinger%NULL%1,                     Hilda%Aveja%NULL%1,                     Rhonda%Bakken%NULL%1,                     Joan%Balcells%NULL%1,                     Sripal%Bangalore%NULL%1,                     Bernard W.%Barnes%NULL%1,                     Alaiza%Bautista%NULL%1,                     Lorraine L.%Bellows%NULL%1,                     Felipe%Beltran%NULL%1,                     Peyman%Benharash%NULL%1,                     Marco%Benni%NULL%1,                     Jennifer%Berg%NULL%1,                     Pietro%Bertini%NULL%1,                     Pablo%Blanco-Schweizer%NULL%1,                     Melissa%Brunsvold%NULL%1,                     Jenny%Budd%NULL%1,                     Debra%Camp%NULL%1,                     Mark%Caridi-Scheible%NULL%0,                     Edmund%Carton%NULL%1,                     Elena%Casanova-Ghosh%NULL%1,                     Anthony%Castleberry%NULL%1,                     Christopher T.%Chipongian%NULL%1,                     Chang Woo%Choi%NULL%1,                     Alessandro%Circelli%NULL%1,                     Elliott%Cohen%NULL%1,                     Michael%Collins%NULL%1,                     Scott%Copus%NULL%1,                     Jill%Coy%NULL%1,                     Brandon%Crist%NULL%1,                     Leonora%Cruz%NULL%1,                     Mirosław%Czuczwar%NULL%1,                     Mani%Daneshmand%NULL%1,                     Daniel%Davis II%NULL%1,                     Kim%De la Cruz%NULL%1,                     Cyndie%Devers%NULL%1,                     Toni%Duculan%NULL%1,                     Lucian%Durham%NULL%1,                     Subbarao%Elapavaluru%NULL%1,                     Carlos V.%Elzo Kraemer%NULL%1,                     EDMÍLSON CARDOSO%Filho%NULL%1,                     Jillian%Fitzgerald%NULL%1,                     Giuseppe%Foti%NULL%1,                     Matthew%Fox%NULL%1,                     David%Fritschen%NULL%1,                     David%Fullerton%NULL%1,                     Elton%Gelandt%NULL%1,                     Stacy%Gerle%NULL%1,                     Marco%Giani%NULL%1,                     Si Guim%Goh%NULL%1,                     Sara%Govener%NULL%1,                     Julie%Grone%NULL%1,                     Miles%Guber%NULL%1,                     Vadim%Gudzenko%NULL%1,                     Daniel%Gutteridge%NULL%1,                     Jennifer%Guy%NULL%1,                     Jonathan%Haft%NULL%1,                     Cameron%Hall%NULL%1,                     Ibrahim Fawzy%Hassan%NULL%1,                     Rubén%Herrán%NULL%1,                     Hitoshi%Hirose%NULL%0,                     Abdulsalam Saif%Ibrahim%NULL%1,                     Don%Igielski%NULL%1,                     Felicia A.%Ivascu%NULL%1,                     Jaume%Izquierdo Blasco%NULL%1,                     Julie%Jackson%NULL%1,                     Harsh%Jain%NULL%1,                     Bhavini%Jaiswal%NULL%1,                     Andrea C.%Johnson%NULL%1,                     Jenniver A.%Jurynec%NULL%1,                     Norma M%Kellter%NULL%1,                     Adam%Kohl%NULL%1,                     Zachary%Kon%NULL%1,                     Markus%Kredel%NULL%1,                     Karen%Kriska%NULL%1,                     Chandra%Kunavarapu%NULL%1,                     Oude%Lansink-Hartgring%NULL%1,                     Jeliene%LaRocque%NULL%1,                     Sharon Beth%Larson%NULL%1,                     Tracie%Layne%NULL%1,                     Stephane%Ledot%NULL%1,                     Napolitan%Lena%NULL%1,                     Jonathan%Lillie%NULL%1,                     Gösta%Lotz%NULL%1,                     Mark%Lucas%NULL%1,                     Lee%Ludwigson%NULL%1,                     Jacinta J.%Maas%NULL%1,                     Joanna%Maertens%NULL%1,                     David%Mast%NULL%1,                     Scott%McCardle%NULL%1,                     Bernard%McDonald%NULL%1,                     Allison%McLarty%NULL%1,                     Chelsea%McMahon%NULL%1,                     Patrick%Meybohm%NULL%1,                     Bart%Meyns%NULL%1,                     Casey%Miller%NULL%1,                     Fernando%Moraes Neto%NULL%1,                     Kelly%Morris%NULL%1,                     Ralf%Muellenbach%NULL%1,                     Meghan%Nicholson%NULL%1,                     Serena%O'Brien%NULL%1,                     Kathryn%O'Keefe%NULL%1,                     Tawnya%Ogston%NULL%1,                     Gary%Oldenburg%NULL%1,                     Fabiana M.%Oliveira%NULL%1,                     Emily%Oppel%NULL%1,                     Diego%Pardo%NULL%2,                     Diego%Pardo%NULL%0,                     Sara J.%Parker%NULL%1,                     Finn M.%Pedersen%NULL%1,                     Crescens%Pellecchia%NULL%1,                     Jose A.S.%Pelligrini%NULL%1,                     Thao T.N.%Pham%NULL%1,                     Ann R.%Phillips%NULL%1,                     Tasneem%Pirani%NULL%1,                     Paweł%Piwowarczyk%NULL%1,                     Robert%Plambeck%NULL%1,                     William%Pruett%NULL%1,                     Brittany%Quandt%NULL%1,                     Kollengode%Ramanathan%NULL%1,                     Alejandro%Rey%NULL%1,                     Christian%Reyher%NULL%1,                     Jordi%Riera del Brio%NULL%1,                     Rachel%Roberts%NULL%1,                     David%Roe%NULL%1,                     Peter P.%Roeleveld%NULL%1,                     Janet%Rudy%NULL%1,                     Luis F.%Rueda%NULL%1,                     Emanuele%Russo%NULL%1,                     Jesús%Sánchez Ballesteros%NULL%1,                     Nancy%Satou%NULL%1,                     Mauricio Guidi%Saueressig%NULL%1,                     Paul C.%Saunders%NULL%1,                     Margaret%Schlotterbeck%NULL%1,                     Patricia%Schwarz%NULL%1,                     Nicole%Scriven%NULL%1,                     Alexis%Serra%NULL%1,                     Mohammad%Shamsah%NULL%1,                     Lucy%Sim%NULL%1,                     Alexandra%Smart%NULL%1,                     Adam%Smith%NULL%1,                     Deane%Smith%NULL%1,                     Maggie%Smith%NULL%1,                     Neel%Sodha%NULL%1,                     Michael%Sonntagbauer%NULL%1,                     Marc%Sorenson%NULL%1,                     Eric B%Stallkamp%NULL%1,                     Allison%Stewart%NULL%1,                     Kathy%Swartz%NULL%1,                     Koji%Takeda%NULL%1,                     Shaun%Thompson%NULL%1,                     Bridget%Toy%NULL%1,                     Divina%Tuazon%NULL%1,                     Makoto%Uchiyama%NULL%1,                     Obiora I.%Udeozo%NULL%1,                     Scott%van Poppel%NULL%1,                     Corey%Ventetuolo%NULL%1,                     Leen%Vercaemst%NULL%1,                     Nguyen V.%Vinh Chau%NULL%1,                     I-Wen%Wang%NULL%1,                     Carrie%Williamson%NULL%1,                     Brock%Wilson%NULL%1,                     Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                     Susan%Dashey%NULL%1,                     Abigail%Stubbs%NULL%1,                     Florence YL%Lai%NULL%1,                     Paul W%Bird%NULL%1,                     Vinay%Badhwar%NULL%1,                     Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%2,                     Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                     Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                     Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                     Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                     Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                     Elise%Godeau%elisegodeau@gmail.com%1,                     Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                     Steven%Grange%Steven.Grange@chu-rouen.fr%1,                     Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                     Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                     Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                     Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                     Alexandra%Monnier%NULL%1,                     Marc%Puyraveau%NULL%1,                     Stephanie%Perrier%NULL%1,                     Pierre-Olivier%Ludes%NULL%1,                     Anne%Olland%NULL%1,                     Paul-Michel%Mertes%NULL%2,                     Francis%Schneider%NULL%2,                     Julie%Helms%NULL%3,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Julien%Guihaire%xref no email%0, Clark g.%Owyang%xref no email%1, Jai%Madhok%xref no email%1, Florent%Laverdure%xref no email%1, Ma\u00efra%Gaillard%xref no email%1, Antoine%Girault%xref no email%1, Guillaume%Lebreton%xref no email%1, Olaf%Mercier%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                     Christophe%Beyls%NULL%2,                     Christophe%Beyls%NULL%0,                     Mathieu%Guilbart%NULL%1,                     Alexandre%Coquet%NULL%1,                     Pascal%Berna%NULL%1,                     Guillaume%Haye%NULL%1,                     Pierre-Alexandre%Roger%NULL%1,                     Patricia%Besserve%NULL%1,                     Michael%Bernasinski%NULL%1,                     Hervé%Dupont%NULL%1,                     Osama%Abou-Arab%NULL%1,                     Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                     Jonathan%Rilinger%NULL%2,                     Jonathan%Rilinger%NULL%0,                     Corinna Nadine%Lang%NULL%2,                     Corinna Nadine%Lang%NULL%0,                     Viviane%Zotzmann%NULL%1,                     Klaus%Kaier%NULL%1,                     Peter%Stachon%NULL%1,                     Paul Marc%Biever%NULL%1,                     Tobias%Wengenmayer%NULL%1,                     Daniel%Duerschmied%NULL%1,                     Christoph%Bode%NULL%1,                     Dawid Leander%Staudacher%NULL%1,                     Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                     JaeBum%Kim%NULL%1,                     Jonghyun%Baek%NULL%1,                     Hanna%Jung%NULL%1,                     Jae Seok%Jang%NULL%1,                     Jae Seok%Park%NULL%0,                     Tak-Hyuk%Oh%NULL%1,                     Se Yong%Jang%NULL%1,                     Yun Seok%Kim%NULL%1,                     Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                     S.%Besset%NULL%1,                     S.%Freita-Ramos%NULL%1,                     M.%Amouretti%NULL%1,                     P.A.%Billiet%NULL%1,                     M.%Dao%NULL%1,                     L.M.%Dumont%NULL%1,                     L.%Federici%NULL%1,                     B.%Gaborieau%NULL%1,                     D.%Longrois%NULL%1,                     P.%Postel-Vinay%NULL%1,                     C.%Vuillard%NULL%1,                     N.%Zucman%NULL%1,                     G.%Lebreton%NULL%1,                     A.%Combes%NULL%1,                     D.%Dreyfuss%NULL%1,                     J.D.%Ricard%NULL%1,                     D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                     Jean-Daniel%Chiche%NULL%1,                     Julien%Charpentier%NULL%1,                     Zakaria%Ait Hamou%NULL%1,                     Paul%Jaubert%NULL%1,                     Sarah%Benghanem%NULL%1,                     Pierre%Dupland%NULL%1,                     Ariane%Gavaud%NULL%1,                     Frédéric%Péne%NULL%1,                     Alain%Cariou%NULL%1,                     Jean-Paul%Mira%NULL%1,                     Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J.%Masur%xref no email%0, C.W.%Freeman%xref no email%1, S.%Mohan%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society of Neuroradiology (ASNR)</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                     Dominik%Jarczak%NULL%1,                     Liina%Thasler%NULL%1,                     Martin%Bachmann%NULL%1,                     Frank%Schulte%NULL%1,                     Berthold%Bein%NULL%1,                     Christian Friedrich%Weber%NULL%1,                     Ulrich%Schäfer%NULL%1,                     Carsten%Veit%NULL%1,                     Hans-Peter%Hauber%NULL%1,                     Sebastian%Kopp%NULL%1,                     Karsten%Sydow%NULL%1,                     Andreas%de Weerth%NULL%1,                     Marc%Bota%NULL%1,                     Rüdiger%Schreiber%NULL%1,                     Oliver%Detsch%NULL%1,                     Jan-Peer%Rogmann%NULL%1,                     Daniel%Frings%NULL%1,                     Barbara%Sensen%NULL%1,                     Christoph%Burdelski%NULL%1,                     Olaf%Boenisch%NULL%1,                     Axel%Nierhaus%NULL%1,                     Geraldine%de Heer%NULL%1,                     Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                     J. Michael%DiMaio%NULL%1,                     John J.%Squiers%NULL%1,                     Jasjit K.%Banwait%NULL%1,                     Dan M.%Meyer%NULL%1,                     Timothy J.%George%NULL%1,                     Gary S.%Schwartz%NULL%1,                     Britton A.%Blough%NULL%1,                     Robert L.%Gottlieb%NULL%1,                     Gonzo%Gonzalez-Stawinski%NULL%1,                     Anita R.%Krueger%NULL%1,                     Kara%Monday%NULL%1,                     Ramachandra C.%Reddy%NULL%1,                     Jorge F.%Velazco%NULL%1,                     Omar%Hernandez%NULL%1,                     Chris%Martin%NULL%1,                     Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                     Blair%Merrick%NULL%2,                     Blair%Merrick%NULL%0,                     Genex L.%Correa%NULL%1,                     Luigi%Camporota%NULL%1,                     Andrew%Retter%NULL%1,                     Andrew%Doyle%NULL%1,                     Guy W.%Glover%NULL%2,                     Guy W.%Glover%NULL%0,                     Peter B.%Sherren%NULL%1,                     Stephen J.%Tricklebank%NULL%1,                     Sangita%Agarwal%NULL%1,                     Boris E.%Lams%NULL%1,                     Nicholas A.%Barrett%NULL%1,                     Nicholas%Ioannou%NULL%1,                     Jonathan%Edgeworth%NULL%1,                     Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                     Akshay%Kohli%coreGivesNoEmail%1,                     Alexandra%Pratt%coreGivesNoEmail%1,                     Emil%Oweis%coreGivesNoEmail%1,                     Eric%Kriner%coreGivesNoEmail%1,                     Ezequiel%Molina%coreGivesNoEmail%1,                     Fatima%Hayat%coreGivesNoEmail%1,                     Karthik%Vedantam%coreGivesNoEmail%1,                     Makdisi%G%coreGivesNoEmail%1,                     Muhammad%D Hashmi%coreGivesNoEmail%1,                     Muhtadi%Alnababteh%coreGivesNoEmail%1,                     Rajus%Chopra%coreGivesNoEmail%1,                     World%Health Organization%coreGivesNoEmail%1,                     Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                      Olusegun%Olusanya%NULL%2,                      Olusegun%Olusanya%NULL%0,                      Marta Montero%Baladia%NULL%1,                      Harriet%Young%NULL%1,                      Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                      Graeme%MacLaren%NULL%1,                      Philip S%Boonstra%NULL%1,                      Theodore J%Iwashyna%NULL%1,                      Arthur S%Slutsky%NULL%1,                      Eddy%Fan%NULL%1,                      Robert H%Bartlett%NULL%1,                      Joseph E%Tonna%NULL%1,                      Robert%Hyslop%NULL%1,                      Jeffrey J%Fanning%NULL%1,                      Peter T%Rycus%NULL%1,                      Steve J%Hyer%NULL%1,                      Marc M%Anders%NULL%1,                      Cara L%Agerstrand%NULL%1,                      Katarzyna%Hryniewicz%NULL%1,                      Rodrigo%Diaz%NULL%1,                      Roberto%Lorusso%NULL%1,                      Alain%Combes%NULL%1,                      Daniel%Brodie%NULL%0,                      Peta%Alexander%NULL%1,                      Nicholas%Barrett%NULL%0,                      Jan%Bělohlávek%NULL%1,                      Dale%Fisher%NULL%1,                      John%Fraser%NULL%1,                      Ali Ait%Hssain%NULL%0,                      Jae Sung%Jung%NULL%1,                      Michael%McMullan%NULL%1,                      Yatin%Mehta%NULL%1,                      Mark T.%Ogino%NULL%1,                      Matthew L.%Paden%NULL%1,                      Kiran%Shekar%NULL%1,                      Christine%Stead%NULL%1,                      Yasir%Abu-Omar%NULL%1,                      Vanni%Agnoletti%NULL%1,                      Anzila%Akbar%NULL%1,                      Huda%Alfoudri%NULL%1,                      Carlos%Alviar%NULL%1,                      Vladimir%Aronsky%NULL%1,                      Erin%August%NULL%1,                      Georg%Auzinger%NULL%1,                      Hilda%Aveja%NULL%1,                      Rhonda%Bakken%NULL%1,                      Joan%Balcells%NULL%1,                      Sripal%Bangalore%NULL%1,                      Bernard W.%Barnes%NULL%1,                      Alaiza%Bautista%NULL%1,                      Lorraine L.%Bellows%NULL%1,                      Felipe%Beltran%NULL%1,                      Peyman%Benharash%NULL%1,                      Marco%Benni%NULL%1,                      Jennifer%Berg%NULL%1,                      Pietro%Bertini%NULL%1,                      Pablo%Blanco-Schweizer%NULL%1,                      Melissa%Brunsvold%NULL%1,                      Jenny%Budd%NULL%1,                      Debra%Camp%NULL%1,                      Mark%Caridi-Scheible%NULL%0,                      Edmund%Carton%NULL%1,                      Elena%Casanova-Ghosh%NULL%1,                      Anthony%Castleberry%NULL%1,                      Christopher T.%Chipongian%NULL%1,                      Chang Woo%Choi%NULL%1,                      Alessandro%Circelli%NULL%1,                      Elliott%Cohen%NULL%1,                      Michael%Collins%NULL%1,                      Scott%Copus%NULL%1,                      Jill%Coy%NULL%1,                      Brandon%Crist%NULL%1,                      Leonora%Cruz%NULL%1,                      Mirosław%Czuczwar%NULL%1,                      Mani%Daneshmand%NULL%1,                      Daniel%Davis II%NULL%1,                      Kim%De la Cruz%NULL%1,                      Cyndie%Devers%NULL%1,                      Toni%Duculan%NULL%1,                      Lucian%Durham%NULL%1,                      Subbarao%Elapavaluru%NULL%1,                      Carlos V.%Elzo Kraemer%NULL%1,                      EDMÍLSON CARDOSO%Filho%NULL%1,                      Jillian%Fitzgerald%NULL%1,                      Giuseppe%Foti%NULL%1,                      Matthew%Fox%NULL%1,                      David%Fritschen%NULL%1,                      David%Fullerton%NULL%1,                      Elton%Gelandt%NULL%1,                      Stacy%Gerle%NULL%1,                      Marco%Giani%NULL%1,                      Si Guim%Goh%NULL%1,                      Sara%Govener%NULL%1,                      Julie%Grone%NULL%1,                      Miles%Guber%NULL%1,                      Vadim%Gudzenko%NULL%1,                      Daniel%Gutteridge%NULL%1,                      Jennifer%Guy%NULL%1,                      Jonathan%Haft%NULL%1,                      Cameron%Hall%NULL%1,                      Ibrahim Fawzy%Hassan%NULL%1,                      Rubén%Herrán%NULL%1,                      Hitoshi%Hirose%NULL%0,                      Abdulsalam Saif%Ibrahim%NULL%1,                      Don%Igielski%NULL%1,                      Felicia A.%Ivascu%NULL%1,                      Jaume%Izquierdo Blasco%NULL%1,                      Julie%Jackson%NULL%1,                      Harsh%Jain%NULL%1,                      Bhavini%Jaiswal%NULL%1,                      Andrea C.%Johnson%NULL%1,                      Jenniver A.%Jurynec%NULL%1,                      Norma M%Kellter%NULL%1,                      Adam%Kohl%NULL%1,                      Zachary%Kon%NULL%1,                      Markus%Kredel%NULL%1,                      Karen%Kriska%NULL%1,                      Chandra%Kunavarapu%NULL%1,                      Oude%Lansink-Hartgring%NULL%1,                      Jeliene%LaRocque%NULL%1,                      Sharon Beth%Larson%NULL%1,                      Tracie%Layne%NULL%1,                      Stephane%Ledot%NULL%1,                      Napolitan%Lena%NULL%1,                      Jonathan%Lillie%NULL%1,                      Gösta%Lotz%NULL%1,                      Mark%Lucas%NULL%1,                      Lee%Ludwigson%NULL%1,                      Jacinta J.%Maas%NULL%1,                      Joanna%Maertens%NULL%1,                      David%Mast%NULL%1,                      Scott%McCardle%NULL%1,                      Bernard%McDonald%NULL%1,                      Allison%McLarty%NULL%1,                      Chelsea%McMahon%NULL%1,                      Patrick%Meybohm%NULL%1,                      Bart%Meyns%NULL%1,                      Casey%Miller%NULL%1,                      Fernando%Moraes Neto%NULL%1,                      Kelly%Morris%NULL%1,                      Ralf%Muellenbach%NULL%1,                      Meghan%Nicholson%NULL%1,                      Serena%O'Brien%NULL%1,                      Kathryn%O'Keefe%NULL%1,                      Tawnya%Ogston%NULL%1,                      Gary%Oldenburg%NULL%1,                      Fabiana M.%Oliveira%NULL%1,                      Emily%Oppel%NULL%1,                      Diego%Pardo%NULL%2,                      Diego%Pardo%NULL%0,                      Sara J.%Parker%NULL%1,                      Finn M.%Pedersen%NULL%1,                      Crescens%Pellecchia%NULL%1,                      Jose A.S.%Pelligrini%NULL%1,                      Thao T.N.%Pham%NULL%1,                      Ann R.%Phillips%NULL%1,                      Tasneem%Pirani%NULL%1,                      Paweł%Piwowarczyk%NULL%1,                      Robert%Plambeck%NULL%1,                      William%Pruett%NULL%1,                      Brittany%Quandt%NULL%1,                      Kollengode%Ramanathan%NULL%1,                      Alejandro%Rey%NULL%1,                      Christian%Reyher%NULL%1,                      Jordi%Riera del Brio%NULL%1,                      Rachel%Roberts%NULL%1,                      David%Roe%NULL%1,                      Peter P.%Roeleveld%NULL%1,                      Janet%Rudy%NULL%1,                      Luis F.%Rueda%NULL%1,                      Emanuele%Russo%NULL%1,                      Jesús%Sánchez Ballesteros%NULL%1,                      Nancy%Satou%NULL%1,                      Mauricio Guidi%Saueressig%NULL%1,                      Paul C.%Saunders%NULL%1,                      Margaret%Schlotterbeck%NULL%1,                      Patricia%Schwarz%NULL%1,                      Nicole%Scriven%NULL%1,                      Alexis%Serra%NULL%1,                      Mohammad%Shamsah%NULL%1,                      Lucy%Sim%NULL%1,                      Alexandra%Smart%NULL%1,                      Adam%Smith%NULL%1,                      Deane%Smith%NULL%1,                      Maggie%Smith%NULL%1,                      Neel%Sodha%NULL%1,                      Michael%Sonntagbauer%NULL%1,                      Marc%Sorenson%NULL%1,                      Eric B%Stallkamp%NULL%1,                      Allison%Stewart%NULL%1,                      Kathy%Swartz%NULL%1,                      Koji%Takeda%NULL%1,                      Shaun%Thompson%NULL%1,                      Bridget%Toy%NULL%1,                      Divina%Tuazon%NULL%1,                      Makoto%Uchiyama%NULL%1,                      Obiora I.%Udeozo%NULL%1,                      Scott%van Poppel%NULL%1,                      Corey%Ventetuolo%NULL%1,                      Leen%Vercaemst%NULL%1,                      Nguyen V.%Vinh Chau%NULL%1,                      I-Wen%Wang%NULL%1,                      Carrie%Williamson%NULL%1,                      Brock%Wilson%NULL%1,                      Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                      Susan%Dashey%NULL%1,                      Abigail%Stubbs%NULL%1,                      Florence YL%Lai%NULL%1,                      Paul W%Bird%NULL%1,                      Vinay%Badhwar%NULL%1,                      Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                      Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                      Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                      Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                      Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                      Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                      Elise%Godeau%elisegodeau@gmail.com%1,                      Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                      Steven%Grange%Steven.Grange@chu-rouen.fr%1,                      Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                      Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                      Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                      Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                      Alexandra%Monnier%NULL%1,                      Marc%Puyraveau%NULL%1,                      Stephanie%Perrier%NULL%1,                      Pierre-Olivier%Ludes%NULL%1,                      Anne%Olland%NULL%1,                      Paul-Michel%Mertes%NULL%2,                      Francis%Schneider%NULL%2,                      Julie%Helms%NULL%3,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                      Christophe%Beyls%NULL%2,                      Christophe%Beyls%NULL%0,                      Mathieu%Guilbart%NULL%1,                      Alexandre%Coquet%NULL%1,                      Pascal%Berna%NULL%1,                      Guillaume%Haye%NULL%1,                      Pierre-Alexandre%Roger%NULL%1,                      Patricia%Besserve%NULL%1,                      Michael%Bernasinski%NULL%1,                      Hervé%Dupont%NULL%1,                      Osama%Abou-Arab%NULL%1,                      Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                      Jonathan%Rilinger%NULL%2,                      Jonathan%Rilinger%NULL%0,                      Corinna Nadine%Lang%NULL%2,                      Corinna Nadine%Lang%NULL%0,                      Viviane%Zotzmann%NULL%1,                      Klaus%Kaier%NULL%1,                      Peter%Stachon%NULL%1,                      Paul Marc%Biever%NULL%1,                      Tobias%Wengenmayer%NULL%1,                      Daniel%Duerschmied%NULL%1,                      Christoph%Bode%NULL%1,                      Dawid Leander%Staudacher%NULL%1,                      Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                      JaeBum%Kim%NULL%1,                      Jonghyun%Baek%NULL%1,                      Hanna%Jung%NULL%1,                      Jae Seok%Jang%NULL%1,                      Jae Seok%Park%NULL%0,                      Tak-Hyuk%Oh%NULL%1,                      Se Yong%Jang%NULL%1,                      Yun Seok%Kim%NULL%1,                      Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                      S.%Besset%NULL%1,                      S.%Freita-Ramos%NULL%1,                      M.%Amouretti%NULL%1,                      P.A.%Billiet%NULL%1,                      M.%Dao%NULL%1,                      L.M.%Dumont%NULL%1,                      L.%Federici%NULL%1,                      B.%Gaborieau%NULL%1,                      D.%Longrois%NULL%1,                      P.%Postel-Vinay%NULL%1,                      C.%Vuillard%NULL%1,                      N.%Zucman%NULL%1,                      G.%Lebreton%NULL%1,                      A.%Combes%NULL%1,                      D.%Dreyfuss%NULL%1,                      J.D.%Ricard%NULL%1,                      D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                      Jean-Daniel%Chiche%NULL%1,                      Julien%Charpentier%NULL%1,                      Zakaria%Ait Hamou%NULL%1,                      Paul%Jaubert%NULL%1,                      Sarah%Benghanem%NULL%1,                      Pierre%Dupland%NULL%1,                      Ariane%Gavaud%NULL%1,                      Frédéric%Péne%NULL%1,                      Alain%Cariou%NULL%1,                      Jean-Paul%Mira%NULL%1,                      Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                      Dominik%Jarczak%NULL%1,                      Liina%Thasler%NULL%1,                      Martin%Bachmann%NULL%1,                      Frank%Schulte%NULL%1,                      Berthold%Bein%NULL%1,                      Christian Friedrich%Weber%NULL%1,                      Ulrich%Schäfer%NULL%1,                      Carsten%Veit%NULL%1,                      Hans-Peter%Hauber%NULL%1,                      Sebastian%Kopp%NULL%1,                      Karsten%Sydow%NULL%1,                      Andreas%de Weerth%NULL%1,                      Marc%Bota%NULL%1,                      Rüdiger%Schreiber%NULL%1,                      Oliver%Detsch%NULL%1,                      Jan-Peer%Rogmann%NULL%1,                      Daniel%Frings%NULL%1,                      Barbara%Sensen%NULL%1,                      Christoph%Burdelski%NULL%1,                      Olaf%Boenisch%NULL%1,                      Axel%Nierhaus%NULL%1,                      Geraldine%de Heer%NULL%1,                      Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                      J. Michael%DiMaio%NULL%1,                      John J.%Squiers%NULL%1,                      Jasjit K.%Banwait%NULL%1,                      Dan M.%Meyer%NULL%1,                      Timothy J.%George%NULL%1,                      Gary S.%Schwartz%NULL%1,                      Britton A.%Blough%NULL%1,                      Robert L.%Gottlieb%NULL%1,                      Gonzo%Gonzalez-Stawinski%NULL%1,                      Anita R.%Krueger%NULL%1,                      Kara%Monday%NULL%1,                      Ramachandra C.%Reddy%NULL%1,                      Jorge F.%Velazco%NULL%1,                      Omar%Hernandez%NULL%1,                      Chris%Martin%NULL%1,                      Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                      Blair%Merrick%NULL%2,                      Blair%Merrick%NULL%0,                      Genex L.%Correa%NULL%1,                      Luigi%Camporota%NULL%1,                      Andrew%Retter%NULL%1,                      Andrew%Doyle%NULL%1,                      Guy W.%Glover%NULL%2,                      Guy W.%Glover%NULL%0,                      Peter B.%Sherren%NULL%1,                      Stephen J.%Tricklebank%NULL%1,                      Sangita%Agarwal%NULL%1,                      Boris E.%Lams%NULL%1,                      Nicholas A.%Barrett%NULL%1,                      Nicholas%Ioannou%NULL%1,                      Jonathan%Edgeworth%NULL%1,                      Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                      Akshay%Kohli%coreGivesNoEmail%1,                      Alexandra%Pratt%coreGivesNoEmail%1,                      Emil%Oweis%coreGivesNoEmail%1,                      Eric%Kriner%coreGivesNoEmail%1,                      Ezequiel%Molina%coreGivesNoEmail%1,                      Fatima%Hayat%coreGivesNoEmail%1,                      Karthik%Vedantam%coreGivesNoEmail%1,                      Makdisi%G%coreGivesNoEmail%1,                      Muhammad%D Hashmi%coreGivesNoEmail%1,                      Muhtadi%Alnababteh%coreGivesNoEmail%1,                      Rajus%Chopra%coreGivesNoEmail%1,                      World%Health Organization%coreGivesNoEmail%1,                      Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                       Olusegun%Olusanya%NULL%2,                       Olusegun%Olusanya%NULL%0,                       Marta Montero%Baladia%NULL%1,                       Harriet%Young%NULL%1,                       Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                       Graeme%MacLaren%NULL%1,                       Philip S%Boonstra%NULL%1,                       Theodore J%Iwashyna%NULL%1,                       Arthur S%Slutsky%NULL%1,                       Eddy%Fan%NULL%1,                       Robert H%Bartlett%NULL%1,                       Joseph E%Tonna%NULL%1,                       Robert%Hyslop%NULL%1,                       Jeffrey J%Fanning%NULL%1,                       Peter T%Rycus%NULL%1,                       Steve J%Hyer%NULL%1,                       Marc M%Anders%NULL%1,                       Cara L%Agerstrand%NULL%1,                       Katarzyna%Hryniewicz%NULL%1,                       Rodrigo%Diaz%NULL%1,                       Roberto%Lorusso%NULL%1,                       Alain%Combes%NULL%1,                       Daniel%Brodie%NULL%0,                       Peta%Alexander%NULL%1,                       Nicholas%Barrett%NULL%0,                       Jan%Bělohlávek%NULL%1,                       Dale%Fisher%NULL%1,                       John%Fraser%NULL%1,                       Ali Ait%Hssain%NULL%0,                       Jae Sung%Jung%NULL%1,                       Michael%McMullan%NULL%1,                       Yatin%Mehta%NULL%1,                       Mark T.%Ogino%NULL%1,                       Matthew L.%Paden%NULL%1,                       Kiran%Shekar%NULL%1,                       Christine%Stead%NULL%1,                       Yasir%Abu-Omar%NULL%1,                       Vanni%Agnoletti%NULL%1,                       Anzila%Akbar%NULL%1,                       Huda%Alfoudri%NULL%1,                       Carlos%Alviar%NULL%1,                       Vladimir%Aronsky%NULL%1,                       Erin%August%NULL%1,                       Georg%Auzinger%NULL%1,                       Hilda%Aveja%NULL%1,                       Rhonda%Bakken%NULL%1,                       Joan%Balcells%NULL%1,                       Sripal%Bangalore%NULL%1,                       Bernard W.%Barnes%NULL%1,                       Alaiza%Bautista%NULL%1,                       Lorraine L.%Bellows%NULL%1,                       Felipe%Beltran%NULL%1,                       Peyman%Benharash%NULL%1,                       Marco%Benni%NULL%1,                       Jennifer%Berg%NULL%1,                       Pietro%Bertini%NULL%1,                       Pablo%Blanco-Schweizer%NULL%1,                       Melissa%Brunsvold%NULL%1,                       Jenny%Budd%NULL%1,                       Debra%Camp%NULL%1,                       Mark%Caridi-Scheible%NULL%0,                       Edmund%Carton%NULL%1,                       Elena%Casanova-Ghosh%NULL%1,                       Anthony%Castleberry%NULL%1,                       Christopher T.%Chipongian%NULL%1,                       Chang Woo%Choi%NULL%1,                       Alessandro%Circelli%NULL%1,                       Elliott%Cohen%NULL%1,                       Michael%Collins%NULL%1,                       Scott%Copus%NULL%1,                       Jill%Coy%NULL%1,                       Brandon%Crist%NULL%1,                       Leonora%Cruz%NULL%1,                       Mirosław%Czuczwar%NULL%1,                       Mani%Daneshmand%NULL%1,                       Daniel%Davis II%NULL%1,                       Kim%De la Cruz%NULL%1,                       Cyndie%Devers%NULL%1,                       Toni%Duculan%NULL%1,                       Lucian%Durham%NULL%1,                       Subbarao%Elapavaluru%NULL%1,                       Carlos V.%Elzo Kraemer%NULL%1,                       EDMÍLSON CARDOSO%Filho%NULL%1,                       Jillian%Fitzgerald%NULL%1,                       Giuseppe%Foti%NULL%1,                       Matthew%Fox%NULL%1,                       David%Fritschen%NULL%1,                       David%Fullerton%NULL%1,                       Elton%Gelandt%NULL%1,                       Stacy%Gerle%NULL%1,                       Marco%Giani%NULL%1,                       Si Guim%Goh%NULL%1,                       Sara%Govener%NULL%1,                       Julie%Grone%NULL%1,                       Miles%Guber%NULL%1,                       Vadim%Gudzenko%NULL%1,                       Daniel%Gutteridge%NULL%1,                       Jennifer%Guy%NULL%1,                       Jonathan%Haft%NULL%1,                       Cameron%Hall%NULL%1,                       Ibrahim Fawzy%Hassan%NULL%1,                       Rubén%Herrán%NULL%1,                       Hitoshi%Hirose%NULL%0,                       Abdulsalam Saif%Ibrahim%NULL%1,                       Don%Igielski%NULL%1,                       Felicia A.%Ivascu%NULL%1,                       Jaume%Izquierdo Blasco%NULL%1,                       Julie%Jackson%NULL%1,                       Harsh%Jain%NULL%1,                       Bhavini%Jaiswal%NULL%1,                       Andrea C.%Johnson%NULL%1,                       Jenniver A.%Jurynec%NULL%1,                       Norma M%Kellter%NULL%1,                       Adam%Kohl%NULL%1,                       Zachary%Kon%NULL%1,                       Markus%Kredel%NULL%1,                       Karen%Kriska%NULL%1,                       Chandra%Kunavarapu%NULL%1,                       Oude%Lansink-Hartgring%NULL%1,                       Jeliene%LaRocque%NULL%1,                       Sharon Beth%Larson%NULL%1,                       Tracie%Layne%NULL%1,                       Stephane%Ledot%NULL%1,                       Napolitan%Lena%NULL%1,                       Jonathan%Lillie%NULL%1,                       Gösta%Lotz%NULL%1,                       Mark%Lucas%NULL%1,                       Lee%Ludwigson%NULL%1,                       Jacinta J.%Maas%NULL%1,                       Joanna%Maertens%NULL%1,                       David%Mast%NULL%1,                       Scott%McCardle%NULL%1,                       Bernard%McDonald%NULL%1,                       Allison%McLarty%NULL%1,                       Chelsea%McMahon%NULL%1,                       Patrick%Meybohm%NULL%1,                       Bart%Meyns%NULL%1,                       Casey%Miller%NULL%1,                       Fernando%Moraes Neto%NULL%1,                       Kelly%Morris%NULL%1,                       Ralf%Muellenbach%NULL%1,                       Meghan%Nicholson%NULL%1,                       Serena%O'Brien%NULL%1,                       Kathryn%O'Keefe%NULL%1,                       Tawnya%Ogston%NULL%1,                       Gary%Oldenburg%NULL%1,                       Fabiana M.%Oliveira%NULL%1,                       Emily%Oppel%NULL%1,                       Diego%Pardo%NULL%2,                       Diego%Pardo%NULL%0,                       Sara J.%Parker%NULL%1,                       Finn M.%Pedersen%NULL%1,                       Crescens%Pellecchia%NULL%1,                       Jose A.S.%Pelligrini%NULL%1,                       Thao T.N.%Pham%NULL%1,                       Ann R.%Phillips%NULL%1,                       Tasneem%Pirani%NULL%1,                       Paweł%Piwowarczyk%NULL%1,                       Robert%Plambeck%NULL%1,                       William%Pruett%NULL%1,                       Brittany%Quandt%NULL%1,                       Kollengode%Ramanathan%NULL%1,                       Alejandro%Rey%NULL%1,                       Christian%Reyher%NULL%1,                       Jordi%Riera del Brio%NULL%1,                       Rachel%Roberts%NULL%1,                       David%Roe%NULL%1,                       Peter P.%Roeleveld%NULL%1,                       Janet%Rudy%NULL%1,                       Luis F.%Rueda%NULL%1,                       Emanuele%Russo%NULL%1,                       Jesús%Sánchez Ballesteros%NULL%1,                       Nancy%Satou%NULL%1,                       Mauricio Guidi%Saueressig%NULL%1,                       Paul C.%Saunders%NULL%1,                       Margaret%Schlotterbeck%NULL%1,                       Patricia%Schwarz%NULL%1,                       Nicole%Scriven%NULL%1,                       Alexis%Serra%NULL%1,                       Mohammad%Shamsah%NULL%1,                       Lucy%Sim%NULL%1,                       Alexandra%Smart%NULL%1,                       Adam%Smith%NULL%1,                       Deane%Smith%NULL%1,                       Maggie%Smith%NULL%1,                       Neel%Sodha%NULL%1,                       Michael%Sonntagbauer%NULL%1,                       Marc%Sorenson%NULL%1,                       Eric B%Stallkamp%NULL%1,                       Allison%Stewart%NULL%1,                       Kathy%Swartz%NULL%1,                       Koji%Takeda%NULL%1,                       Shaun%Thompson%NULL%1,                       Bridget%Toy%NULL%1,                       Divina%Tuazon%NULL%1,                       Makoto%Uchiyama%NULL%1,                       Obiora I.%Udeozo%NULL%1,                       Scott%van Poppel%NULL%1,                       Corey%Ventetuolo%NULL%1,                       Leen%Vercaemst%NULL%1,                       Nguyen V.%Vinh Chau%NULL%1,                       I-Wen%Wang%NULL%1,                       Carrie%Williamson%NULL%1,                       Brock%Wilson%NULL%1,                       Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                       Susan%Dashey%NULL%1,                       Abigail%Stubbs%NULL%1,                       Florence YL%Lai%NULL%1,                       Paul W%Bird%NULL%1,                       Vinay%Badhwar%NULL%1,                       Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                       Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                       Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                       Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                       Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                       Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                       Elise%Godeau%elisegodeau@gmail.com%1,                       Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                       Steven%Grange%Steven.Grange@chu-rouen.fr%1,                       Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                       Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                       Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                       Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                       Alexandra%Monnier%NULL%1,                       Marc%Puyraveau%NULL%1,                       Stephanie%Perrier%NULL%1,                       Pierre-Olivier%Ludes%NULL%1,                       Anne%Olland%NULL%1,                       Paul-Michel%Mertes%NULL%2,                       Francis%Schneider%NULL%2,                       Julie%Helms%NULL%3,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                       Christophe%Beyls%NULL%2,                       Christophe%Beyls%NULL%0,                       Mathieu%Guilbart%NULL%1,                       Alexandre%Coquet%NULL%1,                       Pascal%Berna%NULL%1,                       Guillaume%Haye%NULL%1,                       Pierre-Alexandre%Roger%NULL%1,                       Patricia%Besserve%NULL%1,                       Michael%Bernasinski%NULL%1,                       Hervé%Dupont%NULL%1,                       Osama%Abou-Arab%NULL%1,                       Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                       Jonathan%Rilinger%NULL%2,                       Jonathan%Rilinger%NULL%0,                       Corinna Nadine%Lang%NULL%2,                       Corinna Nadine%Lang%NULL%0,                       Viviane%Zotzmann%NULL%1,                       Klaus%Kaier%NULL%1,                       Peter%Stachon%NULL%1,                       Paul Marc%Biever%NULL%1,                       Tobias%Wengenmayer%NULL%1,                       Daniel%Duerschmied%NULL%1,                       Christoph%Bode%NULL%1,                       Dawid Leander%Staudacher%NULL%1,                       Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                       JaeBum%Kim%NULL%1,                       Jonghyun%Baek%NULL%1,                       Hanna%Jung%NULL%1,                       Jae Seok%Jang%NULL%1,                       Jae Seok%Park%NULL%0,                       Tak-Hyuk%Oh%NULL%1,                       Se Yong%Jang%NULL%1,                       Yun Seok%Kim%NULL%1,                       Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                       S.%Besset%NULL%1,                       S.%Freita-Ramos%NULL%1,                       M.%Amouretti%NULL%1,                       P.A.%Billiet%NULL%1,                       M.%Dao%NULL%1,                       L.M.%Dumont%NULL%1,                       L.%Federici%NULL%1,                       B.%Gaborieau%NULL%1,                       D.%Longrois%NULL%1,                       P.%Postel-Vinay%NULL%1,                       C.%Vuillard%NULL%1,                       N.%Zucman%NULL%1,                       G.%Lebreton%NULL%1,                       A.%Combes%NULL%1,                       D.%Dreyfuss%NULL%1,                       J.D.%Ricard%NULL%1,                       D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                       Jean-Daniel%Chiche%NULL%1,                       Julien%Charpentier%NULL%1,                       Zakaria%Ait Hamou%NULL%1,                       Paul%Jaubert%NULL%1,                       Sarah%Benghanem%NULL%1,                       Pierre%Dupland%NULL%1,                       Ariane%Gavaud%NULL%1,                       Frédéric%Péne%NULL%1,                       Alain%Cariou%NULL%1,                       Jean-Paul%Mira%NULL%1,                       Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                       Dominik%Jarczak%NULL%1,                       Liina%Thasler%NULL%1,                       Martin%Bachmann%NULL%1,                       Frank%Schulte%NULL%1,                       Berthold%Bein%NULL%1,                       Christian Friedrich%Weber%NULL%1,                       Ulrich%Schäfer%NULL%1,                       Carsten%Veit%NULL%1,                       Hans-Peter%Hauber%NULL%1,                       Sebastian%Kopp%NULL%1,                       Karsten%Sydow%NULL%1,                       Andreas%de Weerth%NULL%1,                       Marc%Bota%NULL%1,                       Rüdiger%Schreiber%NULL%1,                       Oliver%Detsch%NULL%1,                       Jan-Peer%Rogmann%NULL%1,                       Daniel%Frings%NULL%1,                       Barbara%Sensen%NULL%1,                       Christoph%Burdelski%NULL%1,                       Olaf%Boenisch%NULL%1,                       Axel%Nierhaus%NULL%1,                       Geraldine%de Heer%NULL%1,                       Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                       J. Michael%DiMaio%NULL%1,                       John J.%Squiers%NULL%1,                       Jasjit K.%Banwait%NULL%1,                       Dan M.%Meyer%NULL%1,                       Timothy J.%George%NULL%1,                       Gary S.%Schwartz%NULL%1,                       Britton A.%Blough%NULL%1,                       Robert L.%Gottlieb%NULL%1,                       Gonzo%Gonzalez-Stawinski%NULL%1,                       Anita R.%Krueger%NULL%1,                       Kara%Monday%NULL%1,                       Ramachandra C.%Reddy%NULL%1,                       Jorge F.%Velazco%NULL%1,                       Omar%Hernandez%NULL%1,                       Chris%Martin%NULL%1,                       Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                       Blair%Merrick%NULL%2,                       Blair%Merrick%NULL%0,                       Genex L.%Correa%NULL%1,                       Luigi%Camporota%NULL%1,                       Andrew%Retter%NULL%1,                       Andrew%Doyle%NULL%1,                       Guy W.%Glover%NULL%2,                       Guy W.%Glover%NULL%0,                       Peter B.%Sherren%NULL%1,                       Stephen J.%Tricklebank%NULL%1,                       Sangita%Agarwal%NULL%1,                       Boris E.%Lams%NULL%1,                       Nicholas A.%Barrett%NULL%1,                       Nicholas%Ioannou%NULL%1,                       Jonathan%Edgeworth%NULL%1,                       Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                       Akshay%Kohli%coreGivesNoEmail%1,                       Alexandra%Pratt%coreGivesNoEmail%1,                       Emil%Oweis%coreGivesNoEmail%1,                       Eric%Kriner%coreGivesNoEmail%1,                       Ezequiel%Molina%coreGivesNoEmail%1,                       Fatima%Hayat%coreGivesNoEmail%1,                       Karthik%Vedantam%coreGivesNoEmail%1,                       Makdisi%G%coreGivesNoEmail%1,                       Muhammad%D Hashmi%coreGivesNoEmail%1,                       Muhtadi%Alnababteh%coreGivesNoEmail%1,                       Rajus%Chopra%coreGivesNoEmail%1,                       World%Health Organization%coreGivesNoEmail%1,                       Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                        Olusegun%Olusanya%NULL%2,                        Olusegun%Olusanya%NULL%0,                        Marta Montero%Baladia%NULL%1,                        Harriet%Young%NULL%1,                        Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                        Graeme%MacLaren%NULL%1,                        Philip S%Boonstra%NULL%1,                        Theodore J%Iwashyna%NULL%1,                        Arthur S%Slutsky%NULL%1,                        Eddy%Fan%NULL%1,                        Robert H%Bartlett%NULL%1,                        Joseph E%Tonna%NULL%1,                        Robert%Hyslop%NULL%1,                        Jeffrey J%Fanning%NULL%1,                        Peter T%Rycus%NULL%1,                        Steve J%Hyer%NULL%1,                        Marc M%Anders%NULL%1,                        Cara L%Agerstrand%NULL%1,                        Katarzyna%Hryniewicz%NULL%1,                        Rodrigo%Diaz%NULL%1,                        Roberto%Lorusso%NULL%1,                        Alain%Combes%NULL%1,                        Daniel%Brodie%NULL%0,                        Peta%Alexander%NULL%1,                        Nicholas%Barrett%NULL%0,                        Jan%Bělohlávek%NULL%1,                        Dale%Fisher%NULL%1,                        John%Fraser%NULL%1,                        Ali Ait%Hssain%NULL%0,                        Jae Sung%Jung%NULL%1,                        Michael%McMullan%NULL%1,                        Yatin%Mehta%NULL%1,                        Mark T.%Ogino%NULL%1,                        Matthew L.%Paden%NULL%1,                        Kiran%Shekar%NULL%1,                        Christine%Stead%NULL%1,                        Yasir%Abu-Omar%NULL%1,                        Vanni%Agnoletti%NULL%1,                        Anzila%Akbar%NULL%1,                        Huda%Alfoudri%NULL%1,                        Carlos%Alviar%NULL%1,                        Vladimir%Aronsky%NULL%1,                        Erin%August%NULL%1,                        Georg%Auzinger%NULL%1,                        Hilda%Aveja%NULL%1,                        Rhonda%Bakken%NULL%1,                        Joan%Balcells%NULL%1,                        Sripal%Bangalore%NULL%1,                        Bernard W.%Barnes%NULL%1,                        Alaiza%Bautista%NULL%1,                        Lorraine L.%Bellows%NULL%1,                        Felipe%Beltran%NULL%1,                        Peyman%Benharash%NULL%1,                        Marco%Benni%NULL%1,                        Jennifer%Berg%NULL%1,                        Pietro%Bertini%NULL%1,                        Pablo%Blanco-Schweizer%NULL%1,                        Melissa%Brunsvold%NULL%1,                        Jenny%Budd%NULL%1,                        Debra%Camp%NULL%1,                        Mark%Caridi-Scheible%NULL%0,                        Edmund%Carton%NULL%1,                        Elena%Casanova-Ghosh%NULL%1,                        Anthony%Castleberry%NULL%1,                        Christopher T.%Chipongian%NULL%1,                        Chang Woo%Choi%NULL%1,                        Alessandro%Circelli%NULL%1,                        Elliott%Cohen%NULL%1,                        Michael%Collins%NULL%1,                        Scott%Copus%NULL%1,                        Jill%Coy%NULL%1,                        Brandon%Crist%NULL%1,                        Leonora%Cruz%NULL%1,                        Mirosław%Czuczwar%NULL%1,                        Mani%Daneshmand%NULL%1,                        Daniel%Davis II%NULL%1,                        Kim%De la Cruz%NULL%1,                        Cyndie%Devers%NULL%1,                        Toni%Duculan%NULL%1,                        Lucian%Durham%NULL%1,                        Subbarao%Elapavaluru%NULL%1,                        Carlos V.%Elzo Kraemer%NULL%1,                        EDMÍLSON CARDOSO%Filho%NULL%1,                        Jillian%Fitzgerald%NULL%1,                        Giuseppe%Foti%NULL%1,                        Matthew%Fox%NULL%1,                        David%Fritschen%NULL%1,                        David%Fullerton%NULL%1,                        Elton%Gelandt%NULL%1,                        Stacy%Gerle%NULL%1,                        Marco%Giani%NULL%1,                        Si Guim%Goh%NULL%1,                        Sara%Govener%NULL%1,                        Julie%Grone%NULL%1,                        Miles%Guber%NULL%1,                        Vadim%Gudzenko%NULL%1,                        Daniel%Gutteridge%NULL%1,                        Jennifer%Guy%NULL%1,                        Jonathan%Haft%NULL%1,                        Cameron%Hall%NULL%1,                        Ibrahim Fawzy%Hassan%NULL%1,                        Rubén%Herrán%NULL%1,                        Hitoshi%Hirose%NULL%0,                        Abdulsalam Saif%Ibrahim%NULL%1,                        Don%Igielski%NULL%1,                        Felicia A.%Ivascu%NULL%1,                        Jaume%Izquierdo Blasco%NULL%1,                        Julie%Jackson%NULL%1,                        Harsh%Jain%NULL%1,                        Bhavini%Jaiswal%NULL%1,                        Andrea C.%Johnson%NULL%1,                        Jenniver A.%Jurynec%NULL%1,                        Norma M%Kellter%NULL%1,                        Adam%Kohl%NULL%1,                        Zachary%Kon%NULL%1,                        Markus%Kredel%NULL%1,                        Karen%Kriska%NULL%1,                        Chandra%Kunavarapu%NULL%1,                        Oude%Lansink-Hartgring%NULL%1,                        Jeliene%LaRocque%NULL%1,                        Sharon Beth%Larson%NULL%1,                        Tracie%Layne%NULL%1,                        Stephane%Ledot%NULL%1,                        Napolitan%Lena%NULL%1,                        Jonathan%Lillie%NULL%1,                        Gösta%Lotz%NULL%1,                        Mark%Lucas%NULL%1,                        Lee%Ludwigson%NULL%1,                        Jacinta J.%Maas%NULL%1,                        Joanna%Maertens%NULL%1,                        David%Mast%NULL%1,                        Scott%McCardle%NULL%1,                        Bernard%McDonald%NULL%1,                        Allison%McLarty%NULL%1,                        Chelsea%McMahon%NULL%1,                        Patrick%Meybohm%NULL%1,                        Bart%Meyns%NULL%1,                        Casey%Miller%NULL%1,                        Fernando%Moraes Neto%NULL%1,                        Kelly%Morris%NULL%1,                        Ralf%Muellenbach%NULL%1,                        Meghan%Nicholson%NULL%1,                        Serena%O'Brien%NULL%1,                        Kathryn%O'Keefe%NULL%1,                        Tawnya%Ogston%NULL%1,                        Gary%Oldenburg%NULL%1,                        Fabiana M.%Oliveira%NULL%1,                        Emily%Oppel%NULL%1,                        Diego%Pardo%NULL%2,                        Diego%Pardo%NULL%0,                        Sara J.%Parker%NULL%1,                        Finn M.%Pedersen%NULL%1,                        Crescens%Pellecchia%NULL%1,                        Jose A.S.%Pelligrini%NULL%1,                        Thao T.N.%Pham%NULL%1,                        Ann R.%Phillips%NULL%1,                        Tasneem%Pirani%NULL%1,                        Paweł%Piwowarczyk%NULL%1,                        Robert%Plambeck%NULL%1,                        William%Pruett%NULL%1,                        Brittany%Quandt%NULL%1,                        Kollengode%Ramanathan%NULL%1,                        Alejandro%Rey%NULL%1,                        Christian%Reyher%NULL%1,                        Jordi%Riera del Brio%NULL%1,                        Rachel%Roberts%NULL%1,                        David%Roe%NULL%1,                        Peter P.%Roeleveld%NULL%1,                        Janet%Rudy%NULL%1,                        Luis F.%Rueda%NULL%1,                        Emanuele%Russo%NULL%1,                        Jesús%Sánchez Ballesteros%NULL%1,                        Nancy%Satou%NULL%1,                        Mauricio Guidi%Saueressig%NULL%1,                        Paul C.%Saunders%NULL%1,                        Margaret%Schlotterbeck%NULL%1,                        Patricia%Schwarz%NULL%1,                        Nicole%Scriven%NULL%1,                        Alexis%Serra%NULL%1,                        Mohammad%Shamsah%NULL%1,                        Lucy%Sim%NULL%1,                        Alexandra%Smart%NULL%1,                        Adam%Smith%NULL%1,                        Deane%Smith%NULL%1,                        Maggie%Smith%NULL%1,                        Neel%Sodha%NULL%1,                        Michael%Sonntagbauer%NULL%1,                        Marc%Sorenson%NULL%1,                        Eric B%Stallkamp%NULL%1,                        Allison%Stewart%NULL%1,                        Kathy%Swartz%NULL%1,                        Koji%Takeda%NULL%1,                        Shaun%Thompson%NULL%1,                        Bridget%Toy%NULL%1,                        Divina%Tuazon%NULL%1,                        Makoto%Uchiyama%NULL%1,                        Obiora I.%Udeozo%NULL%1,                        Scott%van Poppel%NULL%1,                        Corey%Ventetuolo%NULL%1,                        Leen%Vercaemst%NULL%1,                        Nguyen V.%Vinh Chau%NULL%1,                        I-Wen%Wang%NULL%1,                        Carrie%Williamson%NULL%1,                        Brock%Wilson%NULL%1,                        Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                        Susan%Dashey%NULL%1,                        Abigail%Stubbs%NULL%1,                        Florence YL%Lai%NULL%1,                        Paul W%Bird%NULL%1,                        Vinay%Badhwar%NULL%1,                        Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                        Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                        Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                        Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                        Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                        Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                        Elise%Godeau%elisegodeau@gmail.com%1,                        Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                        Steven%Grange%Steven.Grange@chu-rouen.fr%1,                        Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                        Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                        Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                        Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                        Alexandra%Monnier%NULL%1,                        Marc%Puyraveau%NULL%1,                        Stephanie%Perrier%NULL%1,                        Pierre-Olivier%Ludes%NULL%1,                        Anne%Olland%NULL%1,                        Paul-Michel%Mertes%NULL%2,                        Francis%Schneider%NULL%2,                        Julie%Helms%NULL%3,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                        Christophe%Beyls%NULL%2,                        Christophe%Beyls%NULL%0,                        Mathieu%Guilbart%NULL%1,                        Alexandre%Coquet%NULL%1,                        Pascal%Berna%NULL%1,                        Guillaume%Haye%NULL%1,                        Pierre-Alexandre%Roger%NULL%1,                        Patricia%Besserve%NULL%1,                        Michael%Bernasinski%NULL%1,                        Hervé%Dupont%NULL%1,                        Osama%Abou-Arab%NULL%1,                        Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                        Jonathan%Rilinger%NULL%2,                        Jonathan%Rilinger%NULL%0,                        Corinna Nadine%Lang%NULL%2,                        Corinna Nadine%Lang%NULL%0,                        Viviane%Zotzmann%NULL%1,                        Klaus%Kaier%NULL%1,                        Peter%Stachon%NULL%1,                        Paul Marc%Biever%NULL%1,                        Tobias%Wengenmayer%NULL%1,                        Daniel%Duerschmied%NULL%1,                        Christoph%Bode%NULL%1,                        Dawid Leander%Staudacher%NULL%1,                        Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                        JaeBum%Kim%NULL%1,                        Jonghyun%Baek%NULL%1,                        Hanna%Jung%NULL%1,                        Jae Seok%Jang%NULL%1,                        Jae Seok%Park%NULL%0,                        Tak-Hyuk%Oh%NULL%1,                        Se Yong%Jang%NULL%1,                        Yun Seok%Kim%NULL%1,                        Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                        S.%Besset%NULL%1,                        S.%Freita-Ramos%NULL%1,                        M.%Amouretti%NULL%1,                        P.A.%Billiet%NULL%1,                        M.%Dao%NULL%1,                        L.M.%Dumont%NULL%1,                        L.%Federici%NULL%1,                        B.%Gaborieau%NULL%1,                        D.%Longrois%NULL%1,                        P.%Postel-Vinay%NULL%1,                        C.%Vuillard%NULL%1,                        N.%Zucman%NULL%1,                        G.%Lebreton%NULL%1,                        A.%Combes%NULL%1,                        D.%Dreyfuss%NULL%1,                        J.D.%Ricard%NULL%1,                        D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                        Jean-Daniel%Chiche%NULL%1,                        Julien%Charpentier%NULL%1,                        Zakaria%Ait Hamou%NULL%1,                        Paul%Jaubert%NULL%1,                        Sarah%Benghanem%NULL%1,                        Pierre%Dupland%NULL%1,                        Ariane%Gavaud%NULL%1,                        Frédéric%Péne%NULL%1,                        Alain%Cariou%NULL%1,                        Jean-Paul%Mira%NULL%1,                        Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                        Dominik%Jarczak%NULL%1,                        Liina%Thasler%NULL%1,                        Martin%Bachmann%NULL%1,                        Frank%Schulte%NULL%1,                        Berthold%Bein%NULL%1,                        Christian Friedrich%Weber%NULL%1,                        Ulrich%Schäfer%NULL%1,                        Carsten%Veit%NULL%1,                        Hans-Peter%Hauber%NULL%1,                        Sebastian%Kopp%NULL%1,                        Karsten%Sydow%NULL%1,                        Andreas%de Weerth%NULL%1,                        Marc%Bota%NULL%1,                        Rüdiger%Schreiber%NULL%1,                        Oliver%Detsch%NULL%1,                        Jan-Peer%Rogmann%NULL%1,                        Daniel%Frings%NULL%1,                        Barbara%Sensen%NULL%1,                        Christoph%Burdelski%NULL%1,                        Olaf%Boenisch%NULL%1,                        Axel%Nierhaus%NULL%1,                        Geraldine%de Heer%NULL%1,                        Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                        J. Michael%DiMaio%NULL%1,                        John J.%Squiers%NULL%1,                        Jasjit K.%Banwait%NULL%1,                        Dan M.%Meyer%NULL%1,                        Timothy J.%George%NULL%1,                        Gary S.%Schwartz%NULL%1,                        Britton A.%Blough%NULL%1,                        Robert L.%Gottlieb%NULL%1,                        Gonzo%Gonzalez-Stawinski%NULL%1,                        Anita R.%Krueger%NULL%1,                        Kara%Monday%NULL%1,                        Ramachandra C.%Reddy%NULL%1,                        Jorge F.%Velazco%NULL%1,                        Omar%Hernandez%NULL%1,                        Chris%Martin%NULL%1,                        Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                        Blair%Merrick%NULL%2,                        Blair%Merrick%NULL%0,                        Genex L.%Correa%NULL%1,                        Luigi%Camporota%NULL%1,                        Andrew%Retter%NULL%1,                        Andrew%Doyle%NULL%1,                        Guy W.%Glover%NULL%2,                        Guy W.%Glover%NULL%0,                        Peter B.%Sherren%NULL%1,                        Stephen J.%Tricklebank%NULL%1,                        Sangita%Agarwal%NULL%1,                        Boris E.%Lams%NULL%1,                        Nicholas A.%Barrett%NULL%1,                        Nicholas%Ioannou%NULL%1,                        Jonathan%Edgeworth%NULL%1,                        Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                        Akshay%Kohli%coreGivesNoEmail%1,                        Alexandra%Pratt%coreGivesNoEmail%1,                        Emil%Oweis%coreGivesNoEmail%1,                        Eric%Kriner%coreGivesNoEmail%1,                        Ezequiel%Molina%coreGivesNoEmail%1,                        Fatima%Hayat%coreGivesNoEmail%1,                        Karthik%Vedantam%coreGivesNoEmail%1,                        Makdisi%G%coreGivesNoEmail%1,                        Muhammad%D Hashmi%coreGivesNoEmail%1,                        Muhtadi%Alnababteh%coreGivesNoEmail%1,                        Rajus%Chopra%coreGivesNoEmail%1,                        World%Health Organization%coreGivesNoEmail%1,                        Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                         Olusegun%Olusanya%NULL%2,                         Olusegun%Olusanya%NULL%0,                         Marta Montero%Baladia%NULL%1,                         Harriet%Young%NULL%1,                         Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                         Graeme%MacLaren%NULL%1,                         Philip S%Boonstra%NULL%1,                         Theodore J%Iwashyna%NULL%1,                         Arthur S%Slutsky%NULL%1,                         Eddy%Fan%NULL%1,                         Robert H%Bartlett%NULL%1,                         Joseph E%Tonna%NULL%1,                         Robert%Hyslop%NULL%1,                         Jeffrey J%Fanning%NULL%1,                         Peter T%Rycus%NULL%1,                         Steve J%Hyer%NULL%1,                         Marc M%Anders%NULL%1,                         Cara L%Agerstrand%NULL%1,                         Katarzyna%Hryniewicz%NULL%1,                         Rodrigo%Diaz%NULL%1,                         Roberto%Lorusso%NULL%1,                         Alain%Combes%NULL%1,                         Daniel%Brodie%NULL%0,                         Peta%Alexander%NULL%1,                         Nicholas%Barrett%NULL%0,                         Jan%Bělohlávek%NULL%1,                         Dale%Fisher%NULL%1,                         John%Fraser%NULL%1,                         Ali Ait%Hssain%NULL%0,                         Jae Sung%Jung%NULL%1,                         Michael%McMullan%NULL%1,                         Yatin%Mehta%NULL%1,                         Mark T.%Ogino%NULL%1,                         Matthew L.%Paden%NULL%1,                         Kiran%Shekar%NULL%1,                         Christine%Stead%NULL%1,                         Yasir%Abu-Omar%NULL%1,                         Vanni%Agnoletti%NULL%1,                         Anzila%Akbar%NULL%1,                         Huda%Alfoudri%NULL%1,                         Carlos%Alviar%NULL%1,                         Vladimir%Aronsky%NULL%1,                         Erin%August%NULL%1,                         Georg%Auzinger%NULL%1,                         Hilda%Aveja%NULL%1,                         Rhonda%Bakken%NULL%1,                         Joan%Balcells%NULL%1,                         Sripal%Bangalore%NULL%1,                         Bernard W.%Barnes%NULL%1,                         Alaiza%Bautista%NULL%1,                         Lorraine L.%Bellows%NULL%1,                         Felipe%Beltran%NULL%1,                         Peyman%Benharash%NULL%1,                         Marco%Benni%NULL%1,                         Jennifer%Berg%NULL%1,                         Pietro%Bertini%NULL%1,                         Pablo%Blanco-Schweizer%NULL%1,                         Melissa%Brunsvold%NULL%1,                         Jenny%Budd%NULL%1,                         Debra%Camp%NULL%1,                         Mark%Caridi-Scheible%NULL%0,                         Edmund%Carton%NULL%1,                         Elena%Casanova-Ghosh%NULL%1,                         Anthony%Castleberry%NULL%1,                         Christopher T.%Chipongian%NULL%1,                         Chang Woo%Choi%NULL%1,                         Alessandro%Circelli%NULL%1,                         Elliott%Cohen%NULL%1,                         Michael%Collins%NULL%1,                         Scott%Copus%NULL%1,                         Jill%Coy%NULL%1,                         Brandon%Crist%NULL%1,                         Leonora%Cruz%NULL%1,                         Mirosław%Czuczwar%NULL%1,                         Mani%Daneshmand%NULL%1,                         Daniel%Davis II%NULL%1,                         Kim%De la Cruz%NULL%1,                         Cyndie%Devers%NULL%1,                         Toni%Duculan%NULL%1,                         Lucian%Durham%NULL%1,                         Subbarao%Elapavaluru%NULL%1,                         Carlos V.%Elzo Kraemer%NULL%1,                         EDMÍLSON CARDOSO%Filho%NULL%1,                         Jillian%Fitzgerald%NULL%1,                         Giuseppe%Foti%NULL%1,                         Matthew%Fox%NULL%1,                         David%Fritschen%NULL%1,                         David%Fullerton%NULL%1,                         Elton%Gelandt%NULL%1,                         Stacy%Gerle%NULL%1,                         Marco%Giani%NULL%1,                         Si Guim%Goh%NULL%1,                         Sara%Govener%NULL%1,                         Julie%Grone%NULL%1,                         Miles%Guber%NULL%1,                         Vadim%Gudzenko%NULL%1,                         Daniel%Gutteridge%NULL%1,                         Jennifer%Guy%NULL%1,                         Jonathan%Haft%NULL%1,                         Cameron%Hall%NULL%1,                         Ibrahim Fawzy%Hassan%NULL%1,                         Rubén%Herrán%NULL%1,                         Hitoshi%Hirose%NULL%0,                         Abdulsalam Saif%Ibrahim%NULL%1,                         Don%Igielski%NULL%1,                         Felicia A.%Ivascu%NULL%1,                         Jaume%Izquierdo Blasco%NULL%1,                         Julie%Jackson%NULL%1,                         Harsh%Jain%NULL%1,                         Bhavini%Jaiswal%NULL%1,                         Andrea C.%Johnson%NULL%1,                         Jenniver A.%Jurynec%NULL%1,                         Norma M%Kellter%NULL%1,                         Adam%Kohl%NULL%1,                         Zachary%Kon%NULL%1,                         Markus%Kredel%NULL%1,                         Karen%Kriska%NULL%1,                         Chandra%Kunavarapu%NULL%1,                         Oude%Lansink-Hartgring%NULL%1,                         Jeliene%LaRocque%NULL%1,                         Sharon Beth%Larson%NULL%1,                         Tracie%Layne%NULL%1,                         Stephane%Ledot%NULL%1,                         Napolitan%Lena%NULL%1,                         Jonathan%Lillie%NULL%1,                         Gösta%Lotz%NULL%1,                         Mark%Lucas%NULL%1,                         Lee%Ludwigson%NULL%1,                         Jacinta J.%Maas%NULL%1,                         Joanna%Maertens%NULL%1,                         David%Mast%NULL%1,                         Scott%McCardle%NULL%1,                         Bernard%McDonald%NULL%1,                         Allison%McLarty%NULL%1,                         Chelsea%McMahon%NULL%1,                         Patrick%Meybohm%NULL%1,                         Bart%Meyns%NULL%1,                         Casey%Miller%NULL%1,                         Fernando%Moraes Neto%NULL%1,                         Kelly%Morris%NULL%1,                         Ralf%Muellenbach%NULL%1,                         Meghan%Nicholson%NULL%1,                         Serena%O'Brien%NULL%1,                         Kathryn%O'Keefe%NULL%1,                         Tawnya%Ogston%NULL%1,                         Gary%Oldenburg%NULL%1,                         Fabiana M.%Oliveira%NULL%1,                         Emily%Oppel%NULL%1,                         Diego%Pardo%NULL%2,                         Diego%Pardo%NULL%0,                         Sara J.%Parker%NULL%1,                         Finn M.%Pedersen%NULL%1,                         Crescens%Pellecchia%NULL%1,                         Jose A.S.%Pelligrini%NULL%1,                         Thao T.N.%Pham%NULL%1,                         Ann R.%Phillips%NULL%1,                         Tasneem%Pirani%NULL%1,                         Paweł%Piwowarczyk%NULL%1,                         Robert%Plambeck%NULL%1,                         William%Pruett%NULL%1,                         Brittany%Quandt%NULL%1,                         Kollengode%Ramanathan%NULL%1,                         Alejandro%Rey%NULL%1,                         Christian%Reyher%NULL%1,                         Jordi%Riera del Brio%NULL%1,                         Rachel%Roberts%NULL%1,                         David%Roe%NULL%1,                         Peter P.%Roeleveld%NULL%1,                         Janet%Rudy%NULL%1,                         Luis F.%Rueda%NULL%1,                         Emanuele%Russo%NULL%1,                         Jesús%Sánchez Ballesteros%NULL%1,                         Nancy%Satou%NULL%1,                         Mauricio Guidi%Saueressig%NULL%1,                         Paul C.%Saunders%NULL%1,                         Margaret%Schlotterbeck%NULL%1,                         Patricia%Schwarz%NULL%1,                         Nicole%Scriven%NULL%1,                         Alexis%Serra%NULL%1,                         Mohammad%Shamsah%NULL%1,                         Lucy%Sim%NULL%1,                         Alexandra%Smart%NULL%1,                         Adam%Smith%NULL%1,                         Deane%Smith%NULL%1,                         Maggie%Smith%NULL%1,                         Neel%Sodha%NULL%1,                         Michael%Sonntagbauer%NULL%1,                         Marc%Sorenson%NULL%1,                         Eric B%Stallkamp%NULL%1,                         Allison%Stewart%NULL%1,                         Kathy%Swartz%NULL%1,                         Koji%Takeda%NULL%1,                         Shaun%Thompson%NULL%1,                         Bridget%Toy%NULL%1,                         Divina%Tuazon%NULL%1,                         Makoto%Uchiyama%NULL%1,                         Obiora I.%Udeozo%NULL%1,                         Scott%van Poppel%NULL%1,                         Corey%Ventetuolo%NULL%1,                         Leen%Vercaemst%NULL%1,                         Nguyen V.%Vinh Chau%NULL%1,                         I-Wen%Wang%NULL%1,                         Carrie%Williamson%NULL%1,                         Brock%Wilson%NULL%1,                         Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                         Susan%Dashey%NULL%1,                         Abigail%Stubbs%NULL%1,                         Florence YL%Lai%NULL%1,                         Paul W%Bird%NULL%1,                         Vinay%Badhwar%NULL%1,                         Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                         Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                         Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                         Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                         Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                         Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                         Elise%Godeau%elisegodeau@gmail.com%1,                         Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                         Steven%Grange%Steven.Grange@chu-rouen.fr%1,                         Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                         Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                         Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                         Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                         Alexandra%Monnier%NULL%1,                         Marc%Puyraveau%NULL%1,                         Stephanie%Perrier%NULL%1,                         Pierre-Olivier%Ludes%NULL%1,                         Anne%Olland%NULL%1,                         Paul-Michel%Mertes%NULL%2,                         Francis%Schneider%NULL%2,                         Julie%Helms%NULL%3,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                         Christophe%Beyls%NULL%2,                         Christophe%Beyls%NULL%0,                         Mathieu%Guilbart%NULL%1,                         Alexandre%Coquet%NULL%1,                         Pascal%Berna%NULL%1,                         Guillaume%Haye%NULL%1,                         Pierre-Alexandre%Roger%NULL%1,                         Patricia%Besserve%NULL%1,                         Michael%Bernasinski%NULL%1,                         Hervé%Dupont%NULL%1,                         Osama%Abou-Arab%NULL%1,                         Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                         Jonathan%Rilinger%NULL%2,                         Jonathan%Rilinger%NULL%0,                         Corinna Nadine%Lang%NULL%2,                         Corinna Nadine%Lang%NULL%0,                         Viviane%Zotzmann%NULL%1,                         Klaus%Kaier%NULL%1,                         Peter%Stachon%NULL%1,                         Paul Marc%Biever%NULL%1,                         Tobias%Wengenmayer%NULL%1,                         Daniel%Duerschmied%NULL%1,                         Christoph%Bode%NULL%1,                         Dawid Leander%Staudacher%NULL%1,                         Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                         JaeBum%Kim%NULL%1,                         Jonghyun%Baek%NULL%1,                         Hanna%Jung%NULL%1,                         Jae Seok%Jang%NULL%1,                         Jae Seok%Park%NULL%0,                         Tak-Hyuk%Oh%NULL%1,                         Se Yong%Jang%NULL%1,                         Yun Seok%Kim%NULL%1,                         Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                         S.%Besset%NULL%1,                         S.%Freita-Ramos%NULL%1,                         M.%Amouretti%NULL%1,                         P.A.%Billiet%NULL%1,                         M.%Dao%NULL%1,                         L.M.%Dumont%NULL%1,                         L.%Federici%NULL%1,                         B.%Gaborieau%NULL%1,                         D.%Longrois%NULL%1,                         P.%Postel-Vinay%NULL%1,                         C.%Vuillard%NULL%1,                         N.%Zucman%NULL%1,                         G.%Lebreton%NULL%1,                         A.%Combes%NULL%1,                         D.%Dreyfuss%NULL%1,                         J.D.%Ricard%NULL%1,                         D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                         Jean-Daniel%Chiche%NULL%1,                         Julien%Charpentier%NULL%1,                         Zakaria%Ait Hamou%NULL%1,                         Paul%Jaubert%NULL%1,                         Sarah%Benghanem%NULL%1,                         Pierre%Dupland%NULL%1,                         Ariane%Gavaud%NULL%1,                         Frédéric%Péne%NULL%1,                         Alain%Cariou%NULL%1,                         Jean-Paul%Mira%NULL%1,                         Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                         Dominik%Jarczak%NULL%1,                         Liina%Thasler%NULL%1,                         Martin%Bachmann%NULL%1,                         Frank%Schulte%NULL%1,                         Berthold%Bein%NULL%1,                         Christian Friedrich%Weber%NULL%1,                         Ulrich%Schäfer%NULL%1,                         Carsten%Veit%NULL%1,                         Hans-Peter%Hauber%NULL%1,                         Sebastian%Kopp%NULL%1,                         Karsten%Sydow%NULL%1,                         Andreas%de Weerth%NULL%1,                         Marc%Bota%NULL%1,                         Rüdiger%Schreiber%NULL%1,                         Oliver%Detsch%NULL%1,                         Jan-Peer%Rogmann%NULL%1,                         Daniel%Frings%NULL%1,                         Barbara%Sensen%NULL%1,                         Christoph%Burdelski%NULL%1,                         Olaf%Boenisch%NULL%1,                         Axel%Nierhaus%NULL%1,                         Geraldine%de Heer%NULL%1,                         Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                         J. Michael%DiMaio%NULL%1,                         John J.%Squiers%NULL%1,                         Jasjit K.%Banwait%NULL%1,                         Dan M.%Meyer%NULL%1,                         Timothy J.%George%NULL%1,                         Gary S.%Schwartz%NULL%1,                         Britton A.%Blough%NULL%1,                         Robert L.%Gottlieb%NULL%1,                         Gonzo%Gonzalez-Stawinski%NULL%1,                         Anita R.%Krueger%NULL%1,                         Kara%Monday%NULL%1,                         Ramachandra C.%Reddy%NULL%1,                         Jorge F.%Velazco%NULL%1,                         Omar%Hernandez%NULL%1,                         Chris%Martin%NULL%1,                         Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                         Blair%Merrick%NULL%2,                         Blair%Merrick%NULL%0,                         Genex L.%Correa%NULL%1,                         Luigi%Camporota%NULL%1,                         Andrew%Retter%NULL%1,                         Andrew%Doyle%NULL%1,                         Guy W.%Glover%NULL%2,                         Guy W.%Glover%NULL%0,                         Peter B.%Sherren%NULL%1,                         Stephen J.%Tricklebank%NULL%1,                         Sangita%Agarwal%NULL%1,                         Boris E.%Lams%NULL%1,                         Nicholas A.%Barrett%NULL%1,                         Nicholas%Ioannou%NULL%1,                         Jonathan%Edgeworth%NULL%1,                         Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1700,6 +1925,9 @@
       <c r="I1" t="s">
         <v>124</v>
       </c>
+      <c r="J1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1715,7 +1943,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1728,6 +1956,9 @@
       </c>
       <c r="I2" t="s">
         <v>367</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1744,7 +1975,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>464</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -1757,6 +1988,9 @@
       </c>
       <c r="I3" t="s">
         <v>369</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1773,7 +2007,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -1786,6 +2020,9 @@
       </c>
       <c r="I4" t="s">
         <v>371</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1802,7 +2039,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -1815,6 +2052,9 @@
       </c>
       <c r="I5" t="s">
         <v>371</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1831,7 +2071,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -1844,6 +2084,9 @@
       </c>
       <c r="I6" t="s">
         <v>374</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +2103,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -1873,6 +2116,9 @@
       </c>
       <c r="I7" t="s">
         <v>374</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -1889,7 +2135,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1901,7 +2147,10 @@
         <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>367</v>
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="9">
@@ -1918,7 +2167,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -1931,6 +2180,9 @@
       </c>
       <c r="I9" t="s">
         <v>369</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -1947,7 +2199,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1960,6 +2212,9 @@
       </c>
       <c r="I10" t="s">
         <v>374</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1976,7 +2231,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>395</v>
+        <v>471</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -1989,6 +2244,9 @@
       </c>
       <c r="I11" t="s">
         <v>371</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2005,7 +2263,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2018,6 +2276,9 @@
       </c>
       <c r="I12" t="s">
         <v>371</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13">
@@ -2034,7 +2295,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2047,6 +2308,9 @@
       </c>
       <c r="I13" t="s">
         <v>374</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2063,7 +2327,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>398</v>
+        <v>266</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2075,7 +2339,10 @@
         <v>201</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15">
@@ -2092,7 +2359,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2105,6 +2372,9 @@
       </c>
       <c r="I15" t="s">
         <v>371</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -2121,7 +2391,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2134,6 +2404,9 @@
       </c>
       <c r="I16" t="s">
         <v>371</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -2150,7 +2423,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>401</v>
+        <v>476</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
@@ -2163,6 +2436,9 @@
       </c>
       <c r="I17" t="s">
         <v>374</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/106.xlsx
+++ b/Covid_19_Dataset_and_References/References/106.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3440" uniqueCount="505">
   <si>
     <t>Doi</t>
   </si>
@@ -1601,6 +1601,90 @@
   </si>
   <si>
     <t>[Joe%Zhang%NULL%1,                         Blair%Merrick%NULL%2,                         Blair%Merrick%NULL%0,                         Genex L.%Correa%NULL%1,                         Luigi%Camporota%NULL%1,                         Andrew%Retter%NULL%1,                         Andrew%Doyle%NULL%1,                         Guy W.%Glover%NULL%2,                         Guy W.%Glover%NULL%0,                         Peter B.%Sherren%NULL%1,                         Stephen J.%Tricklebank%NULL%1,                         Sangita%Agarwal%NULL%1,                         Boris E.%Lams%NULL%1,                         Nicholas A.%Barrett%NULL%1,                         Nicholas%Ioannou%NULL%1,                         Jonathan%Edgeworth%NULL%1,                         Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                         Akshay%Kohli%coreGivesNoEmail%1,                         Alexandra%Pratt%coreGivesNoEmail%1,                         Emil%Oweis%coreGivesNoEmail%1,                         Eric%Kriner%coreGivesNoEmail%1,                         Ezequiel%Molina%coreGivesNoEmail%1,                         Fatima%Hayat%coreGivesNoEmail%1,                         Karthik%Vedantam%coreGivesNoEmail%1,                         Makdisi%G%coreGivesNoEmail%1,                         Muhammad%D Hashmi%coreGivesNoEmail%1,                         Muhtadi%Alnababteh%coreGivesNoEmail%1,                         Rajus%Chopra%coreGivesNoEmail%1,                         World%Health Organization%coreGivesNoEmail%1,                         Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                          Olusegun%Olusanya%NULL%2,                          Olusegun%Olusanya%NULL%0,                          Marta Montero%Baladia%NULL%1,                          Harriet%Young%NULL%1,                          Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                          Graeme%MacLaren%NULL%1,                          Philip S%Boonstra%NULL%1,                          Theodore J%Iwashyna%NULL%1,                          Arthur S%Slutsky%NULL%1,                          Eddy%Fan%NULL%1,                          Robert H%Bartlett%NULL%1,                          Joseph E%Tonna%NULL%1,                          Robert%Hyslop%NULL%1,                          Jeffrey J%Fanning%NULL%1,                          Peter T%Rycus%NULL%1,                          Steve J%Hyer%NULL%1,                          Marc M%Anders%NULL%1,                          Cara L%Agerstrand%NULL%1,                          Katarzyna%Hryniewicz%NULL%1,                          Rodrigo%Diaz%NULL%1,                          Roberto%Lorusso%NULL%1,                          Alain%Combes%NULL%1,                          Daniel%Brodie%NULL%0,                          Peta%Alexander%NULL%1,                          Nicholas%Barrett%NULL%0,                          Jan%Bělohlávek%NULL%1,                          Dale%Fisher%NULL%1,                          John%Fraser%NULL%1,                          Ali Ait%Hssain%NULL%0,                          Jae Sung%Jung%NULL%1,                          Michael%McMullan%NULL%1,                          Yatin%Mehta%NULL%1,                          Mark T.%Ogino%NULL%1,                          Matthew L.%Paden%NULL%1,                          Kiran%Shekar%NULL%1,                          Christine%Stead%NULL%1,                          Yasir%Abu-Omar%NULL%1,                          Vanni%Agnoletti%NULL%1,                          Anzila%Akbar%NULL%1,                          Huda%Alfoudri%NULL%1,                          Carlos%Alviar%NULL%1,                          Vladimir%Aronsky%NULL%1,                          Erin%August%NULL%1,                          Georg%Auzinger%NULL%1,                          Hilda%Aveja%NULL%1,                          Rhonda%Bakken%NULL%1,                          Joan%Balcells%NULL%1,                          Sripal%Bangalore%NULL%1,                          Bernard W.%Barnes%NULL%1,                          Alaiza%Bautista%NULL%1,                          Lorraine L.%Bellows%NULL%1,                          Felipe%Beltran%NULL%1,                          Peyman%Benharash%NULL%1,                          Marco%Benni%NULL%1,                          Jennifer%Berg%NULL%1,                          Pietro%Bertini%NULL%1,                          Pablo%Blanco-Schweizer%NULL%1,                          Melissa%Brunsvold%NULL%1,                          Jenny%Budd%NULL%1,                          Debra%Camp%NULL%1,                          Mark%Caridi-Scheible%NULL%0,                          Edmund%Carton%NULL%1,                          Elena%Casanova-Ghosh%NULL%1,                          Anthony%Castleberry%NULL%1,                          Christopher T.%Chipongian%NULL%1,                          Chang Woo%Choi%NULL%1,                          Alessandro%Circelli%NULL%1,                          Elliott%Cohen%NULL%1,                          Michael%Collins%NULL%1,                          Scott%Copus%NULL%1,                          Jill%Coy%NULL%1,                          Brandon%Crist%NULL%1,                          Leonora%Cruz%NULL%1,                          Mirosław%Czuczwar%NULL%1,                          Mani%Daneshmand%NULL%1,                          Daniel%Davis II%NULL%1,                          Kim%De la Cruz%NULL%1,                          Cyndie%Devers%NULL%1,                          Toni%Duculan%NULL%1,                          Lucian%Durham%NULL%1,                          Subbarao%Elapavaluru%NULL%1,                          Carlos V.%Elzo Kraemer%NULL%1,                          EDMÍLSON CARDOSO%Filho%NULL%1,                          Jillian%Fitzgerald%NULL%1,                          Giuseppe%Foti%NULL%1,                          Matthew%Fox%NULL%1,                          David%Fritschen%NULL%1,                          David%Fullerton%NULL%1,                          Elton%Gelandt%NULL%1,                          Stacy%Gerle%NULL%1,                          Marco%Giani%NULL%1,                          Si Guim%Goh%NULL%1,                          Sara%Govener%NULL%1,                          Julie%Grone%NULL%1,                          Miles%Guber%NULL%1,                          Vadim%Gudzenko%NULL%1,                          Daniel%Gutteridge%NULL%1,                          Jennifer%Guy%NULL%1,                          Jonathan%Haft%NULL%1,                          Cameron%Hall%NULL%1,                          Ibrahim Fawzy%Hassan%NULL%1,                          Rubén%Herrán%NULL%1,                          Hitoshi%Hirose%NULL%0,                          Abdulsalam Saif%Ibrahim%NULL%1,                          Don%Igielski%NULL%1,                          Felicia A.%Ivascu%NULL%1,                          Jaume%Izquierdo Blasco%NULL%1,                          Julie%Jackson%NULL%1,                          Harsh%Jain%NULL%1,                          Bhavini%Jaiswal%NULL%1,                          Andrea C.%Johnson%NULL%1,                          Jenniver A.%Jurynec%NULL%1,                          Norma M%Kellter%NULL%1,                          Adam%Kohl%NULL%1,                          Zachary%Kon%NULL%1,                          Markus%Kredel%NULL%1,                          Karen%Kriska%NULL%1,                          Chandra%Kunavarapu%NULL%1,                          Oude%Lansink-Hartgring%NULL%1,                          Jeliene%LaRocque%NULL%1,                          Sharon Beth%Larson%NULL%1,                          Tracie%Layne%NULL%1,                          Stephane%Ledot%NULL%1,                          Napolitan%Lena%NULL%1,                          Jonathan%Lillie%NULL%1,                          Gösta%Lotz%NULL%1,                          Mark%Lucas%NULL%1,                          Lee%Ludwigson%NULL%1,                          Jacinta J.%Maas%NULL%1,                          Joanna%Maertens%NULL%1,                          David%Mast%NULL%1,                          Scott%McCardle%NULL%1,                          Bernard%McDonald%NULL%1,                          Allison%McLarty%NULL%1,                          Chelsea%McMahon%NULL%1,                          Patrick%Meybohm%NULL%1,                          Bart%Meyns%NULL%1,                          Casey%Miller%NULL%1,                          Fernando%Moraes Neto%NULL%1,                          Kelly%Morris%NULL%1,                          Ralf%Muellenbach%NULL%1,                          Meghan%Nicholson%NULL%1,                          Serena%O'Brien%NULL%1,                          Kathryn%O'Keefe%NULL%1,                          Tawnya%Ogston%NULL%1,                          Gary%Oldenburg%NULL%1,                          Fabiana M.%Oliveira%NULL%1,                          Emily%Oppel%NULL%1,                          Diego%Pardo%NULL%2,                          Diego%Pardo%NULL%0,                          Sara J.%Parker%NULL%1,                          Finn M.%Pedersen%NULL%1,                          Crescens%Pellecchia%NULL%1,                          Jose A.S.%Pelligrini%NULL%1,                          Thao T.N.%Pham%NULL%1,                          Ann R.%Phillips%NULL%1,                          Tasneem%Pirani%NULL%1,                          Paweł%Piwowarczyk%NULL%1,                          Robert%Plambeck%NULL%1,                          William%Pruett%NULL%1,                          Brittany%Quandt%NULL%1,                          Kollengode%Ramanathan%NULL%1,                          Alejandro%Rey%NULL%1,                          Christian%Reyher%NULL%1,                          Jordi%Riera del Brio%NULL%1,                          Rachel%Roberts%NULL%1,                          David%Roe%NULL%1,                          Peter P.%Roeleveld%NULL%1,                          Janet%Rudy%NULL%1,                          Luis F.%Rueda%NULL%1,                          Emanuele%Russo%NULL%1,                          Jesús%Sánchez Ballesteros%NULL%1,                          Nancy%Satou%NULL%1,                          Mauricio Guidi%Saueressig%NULL%1,                          Paul C.%Saunders%NULL%1,                          Margaret%Schlotterbeck%NULL%1,                          Patricia%Schwarz%NULL%1,                          Nicole%Scriven%NULL%1,                          Alexis%Serra%NULL%1,                          Mohammad%Shamsah%NULL%1,                          Lucy%Sim%NULL%1,                          Alexandra%Smart%NULL%1,                          Adam%Smith%NULL%1,                          Deane%Smith%NULL%1,                          Maggie%Smith%NULL%1,                          Neel%Sodha%NULL%1,                          Michael%Sonntagbauer%NULL%1,                          Marc%Sorenson%NULL%1,                          Eric B%Stallkamp%NULL%1,                          Allison%Stewart%NULL%1,                          Kathy%Swartz%NULL%1,                          Koji%Takeda%NULL%1,                          Shaun%Thompson%NULL%1,                          Bridget%Toy%NULL%1,                          Divina%Tuazon%NULL%1,                          Makoto%Uchiyama%NULL%1,                          Obiora I.%Udeozo%NULL%1,                          Scott%van Poppel%NULL%1,                          Corey%Ventetuolo%NULL%1,                          Leen%Vercaemst%NULL%1,                          Nguyen V.%Vinh Chau%NULL%1,                          I-Wen%Wang%NULL%1,                          Carrie%Williamson%NULL%1,                          Brock%Wilson%NULL%1,                          Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                          Susan%Dashey%NULL%1,                          Abigail%Stubbs%NULL%1,                          Florence YL%Lai%NULL%1,                          Paul W%Bird%NULL%1,                          Vinay%Badhwar%NULL%1,                          Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                          Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                          Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                          Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                          Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                          Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                          Elise%Godeau%elisegodeau@gmail.com%1,                          Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                          Steven%Grange%Steven.Grange@chu-rouen.fr%1,                          Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                          Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                          Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                          Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                          Alexandra%Monnier%NULL%1,                          Marc%Puyraveau%NULL%1,                          Stephanie%Perrier%NULL%1,                          Pierre-Olivier%Ludes%NULL%1,                          Anne%Olland%NULL%1,                          Paul-Michel%Mertes%NULL%2,                          Francis%Schneider%NULL%2,                          Julie%Helms%NULL%3,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                          Christophe%Beyls%NULL%2,                          Christophe%Beyls%NULL%0,                          Mathieu%Guilbart%NULL%1,                          Alexandre%Coquet%NULL%1,                          Pascal%Berna%NULL%1,                          Guillaume%Haye%NULL%1,                          Pierre-Alexandre%Roger%NULL%1,                          Patricia%Besserve%NULL%1,                          Michael%Bernasinski%NULL%1,                          Hervé%Dupont%NULL%1,                          Osama%Abou-Arab%NULL%1,                          Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                          Jonathan%Rilinger%NULL%2,                          Jonathan%Rilinger%NULL%0,                          Corinna Nadine%Lang%NULL%2,                          Corinna Nadine%Lang%NULL%0,                          Viviane%Zotzmann%NULL%1,                          Klaus%Kaier%NULL%1,                          Peter%Stachon%NULL%1,                          Paul Marc%Biever%NULL%1,                          Tobias%Wengenmayer%NULL%1,                          Daniel%Duerschmied%NULL%1,                          Christoph%Bode%NULL%1,                          Dawid Leander%Staudacher%NULL%1,                          Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                          JaeBum%Kim%NULL%1,                          Jonghyun%Baek%NULL%1,                          Hanna%Jung%NULL%1,                          Jae Seok%Jang%NULL%1,                          Jae Seok%Park%NULL%0,                          Tak-Hyuk%Oh%NULL%1,                          Se Yong%Jang%NULL%1,                          Yun Seok%Kim%NULL%1,                          Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                          S.%Besset%NULL%1,                          S.%Freita-Ramos%NULL%1,                          M.%Amouretti%NULL%1,                          P.A.%Billiet%NULL%1,                          M.%Dao%NULL%1,                          L.M.%Dumont%NULL%1,                          L.%Federici%NULL%1,                          B.%Gaborieau%NULL%1,                          D.%Longrois%NULL%1,                          P.%Postel-Vinay%NULL%1,                          C.%Vuillard%NULL%1,                          N.%Zucman%NULL%1,                          G.%Lebreton%NULL%1,                          A.%Combes%NULL%1,                          D.%Dreyfuss%NULL%1,                          J.D.%Ricard%NULL%1,                          D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                          Jean-Daniel%Chiche%NULL%1,                          Julien%Charpentier%NULL%1,                          Zakaria%Ait Hamou%NULL%1,                          Paul%Jaubert%NULL%1,                          Sarah%Benghanem%NULL%1,                          Pierre%Dupland%NULL%1,                          Ariane%Gavaud%NULL%1,                          Frédéric%Péne%NULL%1,                          Alain%Cariou%NULL%1,                          Jean-Paul%Mira%NULL%1,                          Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                          Dominik%Jarczak%NULL%1,                          Liina%Thasler%NULL%1,                          Martin%Bachmann%NULL%1,                          Frank%Schulte%NULL%1,                          Berthold%Bein%NULL%1,                          Christian Friedrich%Weber%NULL%1,                          Ulrich%Schäfer%NULL%1,                          Carsten%Veit%NULL%1,                          Hans-Peter%Hauber%NULL%1,                          Sebastian%Kopp%NULL%1,                          Karsten%Sydow%NULL%1,                          Andreas%de Weerth%NULL%1,                          Marc%Bota%NULL%1,                          Rüdiger%Schreiber%NULL%1,                          Oliver%Detsch%NULL%1,                          Jan-Peer%Rogmann%NULL%1,                          Daniel%Frings%NULL%1,                          Barbara%Sensen%NULL%1,                          Christoph%Burdelski%NULL%1,                          Olaf%Boenisch%NULL%1,                          Axel%Nierhaus%NULL%1,                          Geraldine%de Heer%NULL%1,                          Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                          J. Michael%DiMaio%NULL%1,                          John J.%Squiers%NULL%1,                          Jasjit K.%Banwait%NULL%1,                          Dan M.%Meyer%NULL%1,                          Timothy J.%George%NULL%1,                          Gary S.%Schwartz%NULL%1,                          Britton A.%Blough%NULL%1,                          Robert L.%Gottlieb%NULL%1,                          Gonzo%Gonzalez-Stawinski%NULL%1,                          Anita R.%Krueger%NULL%1,                          Kara%Monday%NULL%1,                          Ramachandra C.%Reddy%NULL%1,                          Jorge F.%Velazco%NULL%1,                          Omar%Hernandez%NULL%1,                          Chris%Martin%NULL%1,                          Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                          Blair%Merrick%NULL%2,                          Blair%Merrick%NULL%0,                          Genex L.%Correa%NULL%1,                          Luigi%Camporota%NULL%1,                          Andrew%Retter%NULL%1,                          Andrew%Doyle%NULL%1,                          Guy W.%Glover%NULL%2,                          Guy W.%Glover%NULL%0,                          Peter B.%Sherren%NULL%1,                          Stephen J.%Tricklebank%NULL%1,                          Sangita%Agarwal%NULL%1,                          Boris E.%Lams%NULL%1,                          Nicholas A.%Barrett%NULL%1,                          Nicholas%Ioannou%NULL%1,                          Jonathan%Edgeworth%NULL%1,                          Christopher I.S.%Meadows%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akram%M Zaaqoq%coreGivesNoEmail%1,                          Akshay%Kohli%coreGivesNoEmail%1,                          Alexandra%Pratt%coreGivesNoEmail%1,                          Emil%Oweis%coreGivesNoEmail%1,                          Eric%Kriner%coreGivesNoEmail%1,                          Ezequiel%Molina%coreGivesNoEmail%1,                          Fatima%Hayat%coreGivesNoEmail%1,                          Karthik%Vedantam%coreGivesNoEmail%1,                          Makdisi%G%coreGivesNoEmail%1,                          Muhammad%D Hashmi%coreGivesNoEmail%1,                          Muhtadi%Alnababteh%coreGivesNoEmail%1,                          Rajus%Chopra%coreGivesNoEmail%1,                          World%Health Organization%coreGivesNoEmail%1,                          Yang%X%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Waqas%Akhtar%NULL%1,                           Olusegun%Olusanya%NULL%2,                           Olusegun%Olusanya%NULL%0,                           Marta Montero%Baladia%NULL%1,                           Harriet%Young%NULL%1,                           Sachin%Shah%s.shah4@nhs.net%1]</t>
+  </si>
+  <si>
+    <t>[Ryan P%Barbaro%NULL%0,                           Graeme%MacLaren%NULL%1,                           Philip S%Boonstra%NULL%1,                           Theodore J%Iwashyna%NULL%1,                           Arthur S%Slutsky%NULL%1,                           Eddy%Fan%NULL%1,                           Robert H%Bartlett%NULL%1,                           Joseph E%Tonna%NULL%1,                           Robert%Hyslop%NULL%1,                           Jeffrey J%Fanning%NULL%1,                           Peter T%Rycus%NULL%1,                           Steve J%Hyer%NULL%1,                           Marc M%Anders%NULL%1,                           Cara L%Agerstrand%NULL%1,                           Katarzyna%Hryniewicz%NULL%1,                           Rodrigo%Diaz%NULL%1,                           Roberto%Lorusso%NULL%1,                           Alain%Combes%NULL%1,                           Daniel%Brodie%NULL%0,                           Peta%Alexander%NULL%1,                           Nicholas%Barrett%NULL%0,                           Jan%Bělohlávek%NULL%1,                           Dale%Fisher%NULL%1,                           John%Fraser%NULL%1,                           Ali Ait%Hssain%NULL%0,                           Jae Sung%Jung%NULL%1,                           Michael%McMullan%NULL%1,                           Yatin%Mehta%NULL%1,                           Mark T.%Ogino%NULL%1,                           Matthew L.%Paden%NULL%1,                           Kiran%Shekar%NULL%1,                           Christine%Stead%NULL%1,                           Yasir%Abu-Omar%NULL%1,                           Vanni%Agnoletti%NULL%1,                           Anzila%Akbar%NULL%1,                           Huda%Alfoudri%NULL%1,                           Carlos%Alviar%NULL%1,                           Vladimir%Aronsky%NULL%1,                           Erin%August%NULL%1,                           Georg%Auzinger%NULL%1,                           Hilda%Aveja%NULL%1,                           Rhonda%Bakken%NULL%1,                           Joan%Balcells%NULL%1,                           Sripal%Bangalore%NULL%1,                           Bernard W.%Barnes%NULL%1,                           Alaiza%Bautista%NULL%1,                           Lorraine L.%Bellows%NULL%1,                           Felipe%Beltran%NULL%1,                           Peyman%Benharash%NULL%1,                           Marco%Benni%NULL%1,                           Jennifer%Berg%NULL%1,                           Pietro%Bertini%NULL%1,                           Pablo%Blanco-Schweizer%NULL%1,                           Melissa%Brunsvold%NULL%1,                           Jenny%Budd%NULL%1,                           Debra%Camp%NULL%1,                           Mark%Caridi-Scheible%NULL%0,                           Edmund%Carton%NULL%1,                           Elena%Casanova-Ghosh%NULL%1,                           Anthony%Castleberry%NULL%1,                           Christopher T.%Chipongian%NULL%1,                           Chang Woo%Choi%NULL%1,                           Alessandro%Circelli%NULL%1,                           Elliott%Cohen%NULL%1,                           Michael%Collins%NULL%1,                           Scott%Copus%NULL%1,                           Jill%Coy%NULL%1,                           Brandon%Crist%NULL%1,                           Leonora%Cruz%NULL%1,                           Mirosław%Czuczwar%NULL%1,                           Mani%Daneshmand%NULL%1,                           Daniel%Davis II%NULL%1,                           Kim%De la Cruz%NULL%1,                           Cyndie%Devers%NULL%1,                           Toni%Duculan%NULL%1,                           Lucian%Durham%NULL%1,                           Subbarao%Elapavaluru%NULL%1,                           Carlos V.%Elzo Kraemer%NULL%1,                           EDMÍLSON CARDOSO%Filho%NULL%1,                           Jillian%Fitzgerald%NULL%1,                           Giuseppe%Foti%NULL%1,                           Matthew%Fox%NULL%1,                           David%Fritschen%NULL%1,                           David%Fullerton%NULL%1,                           Elton%Gelandt%NULL%1,                           Stacy%Gerle%NULL%1,                           Marco%Giani%NULL%1,                           Si Guim%Goh%NULL%1,                           Sara%Govener%NULL%1,                           Julie%Grone%NULL%1,                           Miles%Guber%NULL%1,                           Vadim%Gudzenko%NULL%1,                           Daniel%Gutteridge%NULL%1,                           Jennifer%Guy%NULL%1,                           Jonathan%Haft%NULL%1,                           Cameron%Hall%NULL%1,                           Ibrahim Fawzy%Hassan%NULL%1,                           Rubén%Herrán%NULL%1,                           Hitoshi%Hirose%NULL%0,                           Abdulsalam Saif%Ibrahim%NULL%1,                           Don%Igielski%NULL%1,                           Felicia A.%Ivascu%NULL%1,                           Jaume%Izquierdo Blasco%NULL%1,                           Julie%Jackson%NULL%1,                           Harsh%Jain%NULL%1,                           Bhavini%Jaiswal%NULL%1,                           Andrea C.%Johnson%NULL%1,                           Jenniver A.%Jurynec%NULL%1,                           Norma M%Kellter%NULL%1,                           Adam%Kohl%NULL%1,                           Zachary%Kon%NULL%1,                           Markus%Kredel%NULL%1,                           Karen%Kriska%NULL%1,                           Chandra%Kunavarapu%NULL%1,                           Oude%Lansink-Hartgring%NULL%1,                           Jeliene%LaRocque%NULL%1,                           Sharon Beth%Larson%NULL%1,                           Tracie%Layne%NULL%1,                           Stephane%Ledot%NULL%1,                           Napolitan%Lena%NULL%1,                           Jonathan%Lillie%NULL%1,                           Gösta%Lotz%NULL%1,                           Mark%Lucas%NULL%1,                           Lee%Ludwigson%NULL%1,                           Jacinta J.%Maas%NULL%1,                           Joanna%Maertens%NULL%1,                           David%Mast%NULL%1,                           Scott%McCardle%NULL%1,                           Bernard%McDonald%NULL%1,                           Allison%McLarty%NULL%1,                           Chelsea%McMahon%NULL%1,                           Patrick%Meybohm%NULL%1,                           Bart%Meyns%NULL%1,                           Casey%Miller%NULL%1,                           Fernando%Moraes Neto%NULL%1,                           Kelly%Morris%NULL%1,                           Ralf%Muellenbach%NULL%1,                           Meghan%Nicholson%NULL%1,                           Serena%O'Brien%NULL%1,                           Kathryn%O'Keefe%NULL%1,                           Tawnya%Ogston%NULL%1,                           Gary%Oldenburg%NULL%1,                           Fabiana M.%Oliveira%NULL%1,                           Emily%Oppel%NULL%1,                           Diego%Pardo%NULL%2,                           Diego%Pardo%NULL%0,                           Sara J.%Parker%NULL%1,                           Finn M.%Pedersen%NULL%1,                           Crescens%Pellecchia%NULL%1,                           Jose A.S.%Pelligrini%NULL%1,                           Thao T.N.%Pham%NULL%1,                           Ann R.%Phillips%NULL%1,                           Tasneem%Pirani%NULL%1,                           Paweł%Piwowarczyk%NULL%1,                           Robert%Plambeck%NULL%1,                           William%Pruett%NULL%1,                           Brittany%Quandt%NULL%1,                           Kollengode%Ramanathan%NULL%1,                           Alejandro%Rey%NULL%1,                           Christian%Reyher%NULL%1,                           Jordi%Riera del Brio%NULL%1,                           Rachel%Roberts%NULL%1,                           David%Roe%NULL%1,                           Peter P.%Roeleveld%NULL%1,                           Janet%Rudy%NULL%1,                           Luis F.%Rueda%NULL%1,                           Emanuele%Russo%NULL%1,                           Jesús%Sánchez Ballesteros%NULL%1,                           Nancy%Satou%NULL%1,                           Mauricio Guidi%Saueressig%NULL%1,                           Paul C.%Saunders%NULL%1,                           Margaret%Schlotterbeck%NULL%1,                           Patricia%Schwarz%NULL%1,                           Nicole%Scriven%NULL%1,                           Alexis%Serra%NULL%1,                           Mohammad%Shamsah%NULL%1,                           Lucy%Sim%NULL%1,                           Alexandra%Smart%NULL%1,                           Adam%Smith%NULL%1,                           Deane%Smith%NULL%1,                           Maggie%Smith%NULL%1,                           Neel%Sodha%NULL%1,                           Michael%Sonntagbauer%NULL%1,                           Marc%Sorenson%NULL%1,                           Eric B%Stallkamp%NULL%1,                           Allison%Stewart%NULL%1,                           Kathy%Swartz%NULL%1,                           Koji%Takeda%NULL%1,                           Shaun%Thompson%NULL%1,                           Bridget%Toy%NULL%1,                           Divina%Tuazon%NULL%1,                           Makoto%Uchiyama%NULL%1,                           Obiora I.%Udeozo%NULL%1,                           Scott%van Poppel%NULL%1,                           Corey%Ventetuolo%NULL%1,                           Leen%Vercaemst%NULL%1,                           Nguyen V.%Vinh Chau%NULL%1,                           I-Wen%Wang%NULL%1,                           Carrie%Williamson%NULL%1,                           Brock%Wilson%NULL%1,                           Helen%Winkels%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Matthew%Charlton%NULL%1,                           Susan%Dashey%NULL%1,                           Abigail%Stubbs%NULL%1,                           Florence YL%Lai%NULL%1,                           Paul W%Bird%NULL%1,                           Vinay%Badhwar%NULL%1,                           Julian W%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicolas%Cousin%Nicolas.COUSIN@CHRU-LILLE.FR%1,                           Claire%Bourel%claire.bourel.etu@univ-lille.fr%1,                           Dorothee%Carpentier%Dorothee.Carpentier@chu-rouen.fr%1,                           Julien%Goutay%Julien.LABREUCHE@CHRU-LILLE.FR%1,                           Agnes%Mugnier%Agnes.MUGNIER@CHRU-LILLE.FR%1,                           Julien%Labreuche%Julien.LABREUCHE@CHRU-LILLE.FR%1,                           Elise%Godeau%elisegodeau@gmail.com%1,                           Thomas%Clavier%thomas.clavier@chu-rouen.fr%1,                           Steven%Grange%Steven.Grange@chu-rouen.fr%1,                           Fabienne%Tamion%Fabienne.Tamion@chu-rouen.fr%1,                           Arthur%Durand%Arthur.DURAND@CHRU-LILLE.FR%1,                           Mouhamed D.%Moussa%Mouhamed.MOUSSA@CHRU-LILLE.FR%1,                           Thibault%Duburcq%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Pierre-Emmanuel%Falcoz%NULL%1,                           Alexandra%Monnier%NULL%1,                           Marc%Puyraveau%NULL%1,                           Stephanie%Perrier%NULL%1,                           Pierre-Olivier%Ludes%NULL%1,                           Anne%Olland%NULL%1,                           Paul-Michel%Mertes%NULL%2,                           Francis%Schneider%NULL%2,                           Julie%Helms%NULL%3,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pierre%Huette%huette.pierre@chu-amiens.fr%1,                           Christophe%Beyls%NULL%2,                           Christophe%Beyls%NULL%0,                           Mathieu%Guilbart%NULL%1,                           Alexandre%Coquet%NULL%1,                           Pascal%Berna%NULL%1,                           Guillaume%Haye%NULL%1,                           Pierre-Alexandre%Roger%NULL%1,                           Patricia%Besserve%NULL%1,                           Michael%Bernasinski%NULL%1,                           Hervé%Dupont%NULL%1,                           Osama%Abou-Arab%NULL%1,                           Yazine%Mahjoub%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Markus%Jäckel%markus.jaeckel@universitaets-herzzentrum.de%1,                           Jonathan%Rilinger%NULL%2,                           Jonathan%Rilinger%NULL%0,                           Corinna Nadine%Lang%NULL%2,                           Corinna Nadine%Lang%NULL%0,                           Viviane%Zotzmann%NULL%1,                           Klaus%Kaier%NULL%1,                           Peter%Stachon%NULL%1,                           Paul Marc%Biever%NULL%1,                           Tobias%Wengenmayer%NULL%1,                           Daniel%Duerschmied%NULL%1,                           Christoph%Bode%NULL%1,                           Dawid Leander%Staudacher%NULL%1,                           Alexander%Supady%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Woo Sung%Jang%NULL%1,                           JaeBum%Kim%NULL%1,                           Jonghyun%Baek%NULL%1,                           Hanna%Jung%NULL%1,                           Jae Seok%Jang%NULL%1,                           Jae Seok%Park%NULL%0,                           Tak-Hyuk%Oh%NULL%1,                           Se Yong%Jang%NULL%1,                           Yun Seok%Kim%NULL%1,                           Yong Shik%Kwon%NULL%0]</t>
+  </si>
+  <si>
+    <t>[C.%Le Breton%NULL%1,                           S.%Besset%NULL%1,                           S.%Freita-Ramos%NULL%1,                           M.%Amouretti%NULL%1,                           P.A.%Billiet%NULL%1,                           M.%Dao%NULL%1,                           L.M.%Dumont%NULL%1,                           L.%Federici%NULL%1,                           B.%Gaborieau%NULL%1,                           D.%Longrois%NULL%1,                           P.%Postel-Vinay%NULL%1,                           C.%Vuillard%NULL%1,                           N.%Zucman%NULL%1,                           G.%Lebreton%NULL%1,                           A.%Combes%NULL%1,                           D.%Dreyfuss%NULL%1,                           J.D.%Ricard%NULL%1,                           D.%Roux%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathieu%Jozwiak%NULL%1,                           Jean-Daniel%Chiche%NULL%1,                           Julien%Charpentier%NULL%1,                           Zakaria%Ait Hamou%NULL%1,                           Paul%Jaubert%NULL%1,                           Sarah%Benghanem%NULL%1,                           Pierre%Dupland%NULL%1,                           Ariane%Gavaud%NULL%1,                           Frédéric%Péne%NULL%1,                           Alain%Cariou%NULL%1,                           Jean-Paul%Mira%NULL%1,                           Lee S.%Nguyen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kevin%Roedl%NULL%0,                           Dominik%Jarczak%NULL%1,                           Liina%Thasler%NULL%1,                           Martin%Bachmann%NULL%1,                           Frank%Schulte%NULL%1,                           Berthold%Bein%NULL%1,                           Christian Friedrich%Weber%NULL%1,                           Ulrich%Schäfer%NULL%1,                           Carsten%Veit%NULL%1,                           Hans-Peter%Hauber%NULL%1,                           Sebastian%Kopp%NULL%1,                           Karsten%Sydow%NULL%1,                           Andreas%de Weerth%NULL%1,                           Marc%Bota%NULL%1,                           Rüdiger%Schreiber%NULL%1,                           Oliver%Detsch%NULL%1,                           Jan-Peer%Rogmann%NULL%1,                           Daniel%Frings%NULL%1,                           Barbara%Sensen%NULL%1,                           Christoph%Burdelski%NULL%1,                           Olaf%Boenisch%NULL%1,                           Axel%Nierhaus%NULL%1,                           Geraldine%de Heer%NULL%1,                           Stefan%Kluge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emily%Shih%NULL%1,                           J. Michael%DiMaio%NULL%1,                           John J.%Squiers%NULL%1,                           Jasjit K.%Banwait%NULL%1,                           Dan M.%Meyer%NULL%1,                           Timothy J.%George%NULL%1,                           Gary S.%Schwartz%NULL%1,                           Britton A.%Blough%NULL%1,                           Robert L.%Gottlieb%NULL%1,                           Gonzo%Gonzalez-Stawinski%NULL%1,                           Anita R.%Krueger%NULL%1,                           Kara%Monday%NULL%1,                           Ramachandra C.%Reddy%NULL%1,                           Jorge F.%Velazco%NULL%1,                           Omar%Hernandez%NULL%1,                           Chris%Martin%NULL%1,                           Jenelle%Sheasby%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Joe%Zhang%NULL%1,                           Blair%Merrick%NULL%2,                           Blair%Merrick%NULL%0,                           Genex L.%Correa%NULL%1,                           Luigi%Camporota%NULL%1,                           Andrew%Retter%NULL%1,                           Andrew%Doyle%NULL%1,                           Guy W.%Glover%NULL%2,                           Guy W.%Glover%NULL%0,                           Peter B.%Sherren%NULL%1,                           Stephen J.%Tricklebank%NULL%1,                           Sangita%Agarwal%NULL%1,                           Boris E.%Lams%NULL%1,                           Nicholas A.%Barrett%NULL%1,                           Nicholas%Ioannou%NULL%1,                           Jonathan%Edgeworth%NULL%1,                           Christopher I.S.%Meadows%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +2027,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1975,7 +2059,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -2007,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2039,7 +2123,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2071,7 +2155,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2103,7 +2187,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -2135,7 +2219,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -2167,7 +2251,7 @@
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -2199,7 +2283,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2231,7 +2315,7 @@
         <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="F11" t="s">
         <v>70</v>
@@ -2263,7 +2347,7 @@
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2295,7 +2379,7 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2327,7 +2411,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2359,7 +2443,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -2391,7 +2475,7 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2423,7 +2507,7 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="F17" t="s">
         <v>92</v>
